--- a/www/fei4_140213.xlsx
+++ b/www/fei4_140213.xlsx
@@ -157,9 +157,6 @@
     <t>В-204</t>
   </si>
   <si>
-    <t xml:space="preserve"> лаб. по числам 3.03,31.03,28.04,26.05.</t>
-  </si>
-  <si>
     <t>л</t>
   </si>
   <si>
@@ -605,6 +602,9 @@
   </si>
   <si>
     <t>"____"_______________ 2014 год.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> лаб. 3.03,31.03,28.04,26.05.</t>
   </si>
 </sst>
 </file>
@@ -3116,128 +3116,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3246,19 +3146,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3268,78 +3192,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3348,6 +3200,484 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3369,352 +3699,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4026,8 +4026,8 @@
   </sheetPr>
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S4" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18:V18"/>
+    <sheetView tabSelected="1" topLeftCell="Q16" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4239,26 +4239,26 @@
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="544" t="s">
+      <c r="N9" s="604" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="545"/>
-      <c r="P9" s="546"/>
-      <c r="Q9" s="544" t="s">
+      <c r="O9" s="605"/>
+      <c r="P9" s="606"/>
+      <c r="Q9" s="604" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="545"/>
-      <c r="S9" s="546"/>
+      <c r="R9" s="605"/>
+      <c r="S9" s="606"/>
       <c r="T9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="547" t="s">
+      <c r="W9" s="607" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="545"/>
-      <c r="Y9" s="546"/>
+      <c r="X9" s="605"/>
+      <c r="Y9" s="606"/>
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
@@ -4293,22 +4293,22 @@
       <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="480">
+      <c r="B11" s="557">
         <v>17</v>
       </c>
-      <c r="C11" s="480">
+      <c r="C11" s="557">
         <v>3</v>
       </c>
-      <c r="D11" s="480">
+      <c r="D11" s="557">
         <v>14</v>
       </c>
-      <c r="E11" s="480">
+      <c r="E11" s="557">
         <v>12</v>
       </c>
-      <c r="F11" s="480">
+      <c r="F11" s="557">
         <v>9</v>
       </c>
-      <c r="G11" s="588" t="s">
+      <c r="G11" s="566" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="29"/>
@@ -4334,12 +4334,12 @@
       <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="479"/>
-      <c r="C12" s="479"/>
-      <c r="D12" s="479"/>
-      <c r="E12" s="479"/>
-      <c r="F12" s="479"/>
-      <c r="G12" s="589"/>
+      <c r="B12" s="556"/>
+      <c r="C12" s="556"/>
+      <c r="D12" s="556"/>
+      <c r="E12" s="556"/>
+      <c r="F12" s="556"/>
+      <c r="G12" s="567"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
@@ -4363,39 +4363,39 @@
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="478"/>
-      <c r="C13" s="478">
+      <c r="B13" s="555"/>
+      <c r="C13" s="555">
         <v>17</v>
       </c>
-      <c r="D13" s="478">
+      <c r="D13" s="555">
         <v>28</v>
       </c>
-      <c r="E13" s="478">
+      <c r="E13" s="555">
         <v>26</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="590" t="s">
+      <c r="G13" s="568" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="454" t="s">
+      <c r="H13" s="458" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="455"/>
-      <c r="J13" s="456"/>
-      <c r="K13" s="454" t="s">
+      <c r="I13" s="453"/>
+      <c r="J13" s="459"/>
+      <c r="K13" s="458" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="455"/>
-      <c r="M13" s="456"/>
+      <c r="L13" s="453"/>
+      <c r="M13" s="459"/>
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
-      <c r="T13" s="548"/>
-      <c r="U13" s="465"/>
-      <c r="V13" s="549"/>
+      <c r="T13" s="608"/>
+      <c r="U13" s="531"/>
+      <c r="V13" s="532"/>
       <c r="W13" s="56"/>
       <c r="X13" s="57"/>
       <c r="Y13" s="58"/>
@@ -4404,12 +4404,12 @@
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="479"/>
-      <c r="C14" s="479"/>
-      <c r="D14" s="479"/>
-      <c r="E14" s="479"/>
+      <c r="B14" s="556"/>
+      <c r="C14" s="556"/>
+      <c r="D14" s="556"/>
+      <c r="E14" s="556"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="589"/>
+      <c r="G14" s="567"/>
       <c r="H14" s="60" t="s">
         <v>29</v>
       </c>
@@ -4446,54 +4446,54 @@
         <v>34</v>
       </c>
       <c r="B15" s="73"/>
-      <c r="C15" s="478">
+      <c r="C15" s="555">
         <v>31</v>
       </c>
-      <c r="D15" s="478"/>
+      <c r="D15" s="555"/>
       <c r="E15" s="73"/>
       <c r="F15" s="74"/>
-      <c r="G15" s="590" t="s">
+      <c r="G15" s="568" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="452" t="s">
+      <c r="H15" s="494" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="453"/>
-      <c r="J15" s="453"/>
-      <c r="K15" s="470" t="s">
+      <c r="I15" s="473"/>
+      <c r="J15" s="473"/>
+      <c r="K15" s="472" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="453"/>
-      <c r="M15" s="471"/>
-      <c r="N15" s="454" t="s">
+      <c r="L15" s="473"/>
+      <c r="M15" s="485"/>
+      <c r="N15" s="458" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="455"/>
-      <c r="P15" s="456"/>
-      <c r="Q15" s="454" t="s">
+      <c r="O15" s="453"/>
+      <c r="P15" s="459"/>
+      <c r="Q15" s="458" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="455"/>
-      <c r="S15" s="455"/>
-      <c r="T15" s="550"/>
-      <c r="U15" s="551"/>
-      <c r="V15" s="552"/>
-      <c r="W15" s="453" t="s">
+      <c r="R15" s="453"/>
+      <c r="S15" s="453"/>
+      <c r="T15" s="609"/>
+      <c r="U15" s="535"/>
+      <c r="V15" s="536"/>
+      <c r="W15" s="473" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="453"/>
-      <c r="Y15" s="488"/>
+      <c r="X15" s="473"/>
+      <c r="Y15" s="474"/>
     </row>
     <row r="16" spans="1:27" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="75"/>
-      <c r="C16" s="479"/>
-      <c r="D16" s="479"/>
+      <c r="C16" s="556"/>
+      <c r="D16" s="556"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
-      <c r="G16" s="589"/>
+      <c r="G16" s="567"/>
       <c r="H16" s="76" t="s">
         <v>41</v>
       </c>
@@ -4531,72 +4531,72 @@
         <v>31</v>
       </c>
       <c r="T16" s="82"/>
-      <c r="U16" s="477"/>
-      <c r="V16" s="523"/>
-      <c r="W16" s="524" t="s">
-        <v>46</v>
-      </c>
-      <c r="X16" s="524"/>
-      <c r="Y16" s="525"/>
+      <c r="U16" s="492"/>
+      <c r="V16" s="493"/>
+      <c r="W16" s="629" t="s">
+        <v>195</v>
+      </c>
+      <c r="X16" s="629"/>
+      <c r="Y16" s="630"/>
     </row>
     <row r="17" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="590" t="s">
+      <c r="G17" s="568" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="494" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="473"/>
+      <c r="J17" s="485"/>
+      <c r="K17" s="458" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="452" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="453"/>
-      <c r="J17" s="471"/>
-      <c r="K17" s="454" t="s">
+      <c r="L17" s="453"/>
+      <c r="M17" s="459"/>
+      <c r="N17" s="458" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="453"/>
+      <c r="P17" s="459"/>
+      <c r="Q17" s="547" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="455"/>
-      <c r="M17" s="456"/>
-      <c r="N17" s="454" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="455"/>
-      <c r="P17" s="456"/>
-      <c r="Q17" s="464" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" s="465"/>
-      <c r="S17" s="465"/>
-      <c r="T17" s="555"/>
-      <c r="U17" s="556"/>
-      <c r="V17" s="643"/>
-      <c r="W17" s="524"/>
-      <c r="X17" s="524"/>
-      <c r="Y17" s="525"/>
+      <c r="R17" s="531"/>
+      <c r="S17" s="531"/>
+      <c r="T17" s="610"/>
+      <c r="U17" s="504"/>
+      <c r="V17" s="611"/>
+      <c r="W17" s="629"/>
+      <c r="X17" s="629"/>
+      <c r="Y17" s="630"/>
     </row>
     <row r="18" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
-      <c r="G18" s="589"/>
+      <c r="G18" s="567"/>
       <c r="H18" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="540" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="460" t="s">
+      <c r="J18" s="541"/>
+      <c r="K18" s="88" t="s">
         <v>53</v>
-      </c>
-      <c r="J18" s="461"/>
-      <c r="K18" s="88" t="s">
-        <v>54</v>
       </c>
       <c r="L18" s="77" t="s">
         <v>30</v>
@@ -4611,10 +4611,10 @@
         <v>43</v>
       </c>
       <c r="P18" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="90" t="s">
         <v>55</v>
-      </c>
-      <c r="Q18" s="90" t="s">
-        <v>56</v>
       </c>
       <c r="R18" s="40" t="s">
         <v>45</v>
@@ -4623,17 +4623,17 @@
         <v>31</v>
       </c>
       <c r="T18" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="502"/>
+      <c r="V18" s="612"/>
+      <c r="W18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="557"/>
-      <c r="V18" s="558"/>
-      <c r="W18" s="40" t="s">
+      <c r="X18" s="602" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="542" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y18" s="543"/>
+      <c r="Y18" s="603"/>
     </row>
     <row r="19" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
@@ -4644,8 +4644,8 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="74"/>
-      <c r="G19" s="590" t="s">
-        <v>60</v>
+      <c r="G19" s="568" t="s">
+        <v>59</v>
       </c>
       <c r="H19" s="95"/>
       <c r="I19" s="96"/>
@@ -4653,61 +4653,61 @@
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
-      <c r="N19" s="454" t="s">
+      <c r="N19" s="458" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="455"/>
-      <c r="P19" s="456"/>
-      <c r="Q19" s="464" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="465"/>
-      <c r="S19" s="465"/>
-      <c r="T19" s="559" t="s">
-        <v>61</v>
-      </c>
-      <c r="U19" s="560"/>
-      <c r="V19" s="560"/>
-      <c r="W19" s="470" t="s">
+      <c r="O19" s="453"/>
+      <c r="P19" s="459"/>
+      <c r="Q19" s="547" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="531"/>
+      <c r="S19" s="531"/>
+      <c r="T19" s="483" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="484"/>
+      <c r="V19" s="484"/>
+      <c r="W19" s="472" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="453"/>
-      <c r="Y19" s="488"/>
+      <c r="X19" s="473"/>
+      <c r="Y19" s="474"/>
     </row>
     <row r="20" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="589"/>
+      <c r="G20" s="567"/>
       <c r="H20" s="76" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="98" t="s">
         <v>63</v>
-      </c>
-      <c r="J20" s="98" t="s">
-        <v>64</v>
       </c>
       <c r="K20" s="99"/>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="457" t="s">
+      <c r="N20" s="455" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="456"/>
+      <c r="P20" s="554"/>
+      <c r="Q20" s="545" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="458"/>
-      <c r="P20" s="459"/>
-      <c r="Q20" s="468" t="s">
+      <c r="R20" s="643"/>
+      <c r="S20" s="643"/>
+      <c r="T20" s="104" t="s">
         <v>66</v>
-      </c>
-      <c r="R20" s="469"/>
-      <c r="S20" s="469"/>
-      <c r="T20" s="104" t="s">
-        <v>67</v>
       </c>
       <c r="U20" s="105" t="s">
         <v>45</v>
@@ -4716,24 +4716,24 @@
         <v>31</v>
       </c>
       <c r="W20" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="477" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y20" s="482"/>
+        <v>57</v>
+      </c>
+      <c r="X20" s="492" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="613"/>
     </row>
     <row r="21" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="590" t="s">
-        <v>70</v>
+      <c r="G21" s="568" t="s">
+        <v>69</v>
       </c>
       <c r="H21" s="96"/>
       <c r="I21" s="96"/>
@@ -4747,16 +4747,16 @@
       <c r="Q21" s="113"/>
       <c r="R21" s="96"/>
       <c r="S21" s="114"/>
-      <c r="T21" s="559" t="s">
-        <v>61</v>
-      </c>
-      <c r="U21" s="560"/>
-      <c r="V21" s="560"/>
-      <c r="W21" s="600" t="s">
-        <v>71</v>
-      </c>
-      <c r="X21" s="638"/>
-      <c r="Y21" s="639"/>
+      <c r="T21" s="483" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="484"/>
+      <c r="V21" s="484"/>
+      <c r="W21" s="495" t="s">
+        <v>70</v>
+      </c>
+      <c r="X21" s="614"/>
+      <c r="Y21" s="615"/>
     </row>
     <row r="22" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
@@ -4765,7 +4765,7 @@
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="116"/>
-      <c r="G22" s="591"/>
+      <c r="G22" s="569"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
       <c r="J22" s="118"/>
@@ -4779,51 +4779,51 @@
         <v>45</v>
       </c>
       <c r="P22" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R22" s="40" t="s">
         <v>45</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T22" s="104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U22" s="105" t="s">
         <v>45</v>
       </c>
       <c r="V22" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W22" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="X22" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="X22" s="77" t="s">
-        <v>74</v>
-      </c>
       <c r="Y22" s="94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:25" s="128" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120"/>
-      <c r="B23" s="480">
+      <c r="B23" s="557">
         <v>18</v>
       </c>
-      <c r="C23" s="480">
+      <c r="C23" s="557">
         <v>4</v>
       </c>
-      <c r="D23" s="480">
+      <c r="D23" s="557">
         <v>1</v>
       </c>
-      <c r="E23" s="480">
+      <c r="E23" s="557">
         <v>13</v>
       </c>
-      <c r="F23" s="480">
+      <c r="F23" s="557">
         <v>10</v>
       </c>
       <c r="G23" s="121"/>
@@ -4836,9 +4836,9 @@
       <c r="N23" s="125"/>
       <c r="O23" s="123"/>
       <c r="P23" s="124"/>
-      <c r="Q23" s="462"/>
-      <c r="R23" s="463"/>
-      <c r="S23" s="463"/>
+      <c r="Q23" s="505"/>
+      <c r="R23" s="506"/>
+      <c r="S23" s="506"/>
       <c r="T23" s="126"/>
       <c r="U23" s="123"/>
       <c r="V23" s="123"/>
@@ -4848,11 +4848,11 @@
     </row>
     <row r="24" spans="1:25" s="136" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="129"/>
-      <c r="B24" s="479"/>
-      <c r="C24" s="479"/>
-      <c r="D24" s="479"/>
-      <c r="E24" s="479"/>
-      <c r="F24" s="479"/>
+      <c r="B24" s="556"/>
+      <c r="C24" s="556"/>
+      <c r="D24" s="556"/>
+      <c r="E24" s="556"/>
+      <c r="F24" s="556"/>
       <c r="G24" s="130" t="s">
         <v>22</v>
       </c>
@@ -4877,75 +4877,75 @@
     </row>
     <row r="25" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="478"/>
-      <c r="C25" s="478">
+        <v>74</v>
+      </c>
+      <c r="B25" s="555"/>
+      <c r="C25" s="555">
         <v>18</v>
       </c>
-      <c r="D25" s="478">
+      <c r="D25" s="555">
         <v>15</v>
       </c>
-      <c r="E25" s="478">
+      <c r="E25" s="555">
         <v>27</v>
       </c>
-      <c r="F25" s="478"/>
+      <c r="F25" s="555"/>
       <c r="G25" s="138"/>
       <c r="H25" s="139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
-      <c r="K25" s="470" t="s">
+      <c r="K25" s="472" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="473"/>
+      <c r="M25" s="485"/>
+      <c r="N25" s="475"/>
+      <c r="O25" s="476"/>
+      <c r="P25" s="508"/>
+      <c r="Q25" s="458" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="453"/>
-      <c r="M25" s="471"/>
-      <c r="N25" s="499"/>
-      <c r="O25" s="500"/>
-      <c r="P25" s="570"/>
-      <c r="Q25" s="454" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" s="455"/>
-      <c r="S25" s="455"/>
+      <c r="R25" s="453"/>
+      <c r="S25" s="453"/>
       <c r="T25" s="142"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
-      <c r="W25" s="529" t="s">
-        <v>79</v>
-      </c>
-      <c r="X25" s="530"/>
-      <c r="Y25" s="531"/>
+      <c r="W25" s="632" t="s">
+        <v>78</v>
+      </c>
+      <c r="X25" s="633"/>
+      <c r="Y25" s="634"/>
     </row>
     <row r="26" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="479"/>
-      <c r="C26" s="479"/>
-      <c r="D26" s="479"/>
-      <c r="E26" s="479"/>
-      <c r="F26" s="479"/>
+        <v>79</v>
+      </c>
+      <c r="B26" s="556"/>
+      <c r="C26" s="556"/>
+      <c r="D26" s="556"/>
+      <c r="E26" s="556"/>
+      <c r="F26" s="556"/>
       <c r="G26" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="564"/>
-      <c r="I26" s="493"/>
-      <c r="J26" s="611"/>
-      <c r="K26" s="472" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="460"/>
-      <c r="M26" s="461"/>
-      <c r="N26" s="516"/>
-      <c r="O26" s="517"/>
-      <c r="P26" s="571"/>
+      <c r="H26" s="542"/>
+      <c r="I26" s="461"/>
+      <c r="J26" s="462"/>
+      <c r="K26" s="586" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="540"/>
+      <c r="M26" s="541"/>
+      <c r="N26" s="514"/>
+      <c r="O26" s="515"/>
+      <c r="P26" s="516"/>
       <c r="Q26" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" s="77" t="s">
         <v>81</v>
-      </c>
-      <c r="R26" s="77" t="s">
-        <v>82</v>
       </c>
       <c r="S26" s="77" t="s">
         <v>31</v>
@@ -4960,86 +4960,86 @@
         <v>30</v>
       </c>
       <c r="Y26" s="146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="478"/>
-      <c r="C27" s="478"/>
-      <c r="D27" s="478"/>
-      <c r="E27" s="478"/>
-      <c r="F27" s="478"/>
+      <c r="B27" s="555"/>
+      <c r="C27" s="555"/>
+      <c r="D27" s="555"/>
+      <c r="E27" s="555"/>
+      <c r="F27" s="555"/>
       <c r="G27" s="138"/>
-      <c r="H27" s="564" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="493"/>
-      <c r="J27" s="493"/>
+      <c r="H27" s="542" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="461"/>
+      <c r="J27" s="461"/>
       <c r="K27" s="147"/>
       <c r="L27" s="148"/>
       <c r="M27" s="149"/>
       <c r="N27" s="150"/>
       <c r="O27" s="150"/>
       <c r="P27" s="151"/>
-      <c r="Q27" s="454" t="s">
-        <v>78</v>
-      </c>
-      <c r="R27" s="455"/>
-      <c r="S27" s="455"/>
+      <c r="Q27" s="458" t="s">
+        <v>77</v>
+      </c>
+      <c r="R27" s="453"/>
+      <c r="S27" s="453"/>
       <c r="T27" s="152"/>
       <c r="U27" s="61"/>
       <c r="V27" s="61"/>
-      <c r="W27" s="532" t="s">
-        <v>85</v>
-      </c>
-      <c r="X27" s="533"/>
-      <c r="Y27" s="534"/>
+      <c r="W27" s="635" t="s">
+        <v>84</v>
+      </c>
+      <c r="X27" s="636"/>
+      <c r="Y27" s="637"/>
     </row>
     <row r="28" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="479"/>
-      <c r="C28" s="479"/>
-      <c r="D28" s="479"/>
-      <c r="E28" s="479"/>
-      <c r="F28" s="479"/>
+        <v>85</v>
+      </c>
+      <c r="B28" s="556"/>
+      <c r="C28" s="556"/>
+      <c r="D28" s="556"/>
+      <c r="E28" s="556"/>
+      <c r="F28" s="556"/>
       <c r="G28" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="634" t="s">
+      <c r="H28" s="500" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="492"/>
+      <c r="J28" s="492"/>
+      <c r="K28" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="477"/>
-      <c r="J28" s="477"/>
-      <c r="K28" s="78" t="s">
+      <c r="L28" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="77" t="s">
-        <v>89</v>
-      </c>
       <c r="M28" s="79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
       <c r="P28" s="132"/>
-      <c r="Q28" s="466" t="s">
-        <v>90</v>
-      </c>
-      <c r="R28" s="467"/>
-      <c r="S28" s="467"/>
+      <c r="Q28" s="641" t="s">
+        <v>89</v>
+      </c>
+      <c r="R28" s="642"/>
+      <c r="S28" s="642"/>
       <c r="T28" s="135"/>
       <c r="U28" s="93"/>
       <c r="V28" s="40"/>
-      <c r="W28" s="539" t="s">
-        <v>91</v>
-      </c>
-      <c r="X28" s="540"/>
-      <c r="Y28" s="541"/>
+      <c r="W28" s="599" t="s">
+        <v>90</v>
+      </c>
+      <c r="X28" s="600"/>
+      <c r="Y28" s="601"/>
     </row>
     <row r="29" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="137" t="s">
@@ -5054,27 +5054,27 @@
       <c r="H29" s="154"/>
       <c r="I29" s="111"/>
       <c r="J29" s="155"/>
-      <c r="K29" s="470" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="453"/>
-      <c r="M29" s="471"/>
+      <c r="K29" s="472" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="473"/>
+      <c r="M29" s="485"/>
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
       <c r="P29" s="55"/>
-      <c r="Q29" s="475"/>
-      <c r="R29" s="476"/>
-      <c r="S29" s="476"/>
-      <c r="T29" s="538"/>
-      <c r="U29" s="453"/>
-      <c r="V29" s="453"/>
-      <c r="W29" s="535"/>
-      <c r="X29" s="536"/>
-      <c r="Y29" s="537"/>
+      <c r="Q29" s="640"/>
+      <c r="R29" s="575"/>
+      <c r="S29" s="575"/>
+      <c r="T29" s="564"/>
+      <c r="U29" s="473"/>
+      <c r="V29" s="473"/>
+      <c r="W29" s="596"/>
+      <c r="X29" s="597"/>
+      <c r="Y29" s="598"/>
     </row>
     <row r="30" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="85"/>
@@ -5082,16 +5082,16 @@
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="76"/>
       <c r="I30" s="93"/>
       <c r="J30" s="132"/>
       <c r="K30" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30" s="79" t="s">
         <v>31</v>
@@ -5100,16 +5100,16 @@
       <c r="O30" s="93"/>
       <c r="P30" s="132"/>
       <c r="Q30" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R30" s="77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S30" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T30" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U30" s="83"/>
       <c r="V30" s="93"/>
@@ -5117,15 +5117,15 @@
         <v>29</v>
       </c>
       <c r="X30" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y30" s="94" t="s">
         <v>63</v>
-      </c>
-      <c r="Y30" s="94" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -5133,28 +5133,28 @@
       <c r="E31" s="73"/>
       <c r="F31" s="74"/>
       <c r="G31" s="138"/>
-      <c r="H31" s="565"/>
-      <c r="I31" s="455"/>
-      <c r="J31" s="456"/>
-      <c r="K31" s="470" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="453"/>
-      <c r="M31" s="471"/>
-      <c r="N31" s="454"/>
-      <c r="O31" s="455"/>
-      <c r="P31" s="456"/>
-      <c r="Q31" s="454"/>
-      <c r="R31" s="455"/>
-      <c r="S31" s="455"/>
-      <c r="T31" s="538" t="s">
-        <v>93</v>
-      </c>
-      <c r="U31" s="453"/>
-      <c r="V31" s="453"/>
-      <c r="W31" s="470"/>
-      <c r="X31" s="453"/>
-      <c r="Y31" s="488"/>
+      <c r="H31" s="496"/>
+      <c r="I31" s="453"/>
+      <c r="J31" s="459"/>
+      <c r="K31" s="472" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="473"/>
+      <c r="M31" s="485"/>
+      <c r="N31" s="458"/>
+      <c r="O31" s="453"/>
+      <c r="P31" s="459"/>
+      <c r="Q31" s="458"/>
+      <c r="R31" s="453"/>
+      <c r="S31" s="453"/>
+      <c r="T31" s="564" t="s">
+        <v>92</v>
+      </c>
+      <c r="U31" s="473"/>
+      <c r="V31" s="473"/>
+      <c r="W31" s="472"/>
+      <c r="X31" s="473"/>
+      <c r="Y31" s="474"/>
     </row>
     <row r="32" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="137"/>
@@ -5164,16 +5164,16 @@
       <c r="E32" s="85"/>
       <c r="F32" s="85"/>
       <c r="G32" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="617"/>
-      <c r="I32" s="618"/>
-      <c r="J32" s="619"/>
-      <c r="K32" s="472" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32" s="460"/>
-      <c r="M32" s="461"/>
+        <v>59</v>
+      </c>
+      <c r="H32" s="550"/>
+      <c r="I32" s="487"/>
+      <c r="J32" s="488"/>
+      <c r="K32" s="586" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="540"/>
+      <c r="M32" s="541"/>
       <c r="N32" s="80"/>
       <c r="O32" s="81"/>
       <c r="P32" s="158"/>
@@ -5181,10 +5181,10 @@
       <c r="R32" s="83"/>
       <c r="S32" s="93"/>
       <c r="T32" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="U32" s="83" t="s">
         <v>94</v>
-      </c>
-      <c r="U32" s="83" t="s">
-        <v>95</v>
       </c>
       <c r="V32" s="132" t="s">
         <v>31</v>
@@ -5207,17 +5207,17 @@
       <c r="K33" s="147"/>
       <c r="L33" s="148"/>
       <c r="M33" s="149"/>
-      <c r="N33" s="454"/>
-      <c r="O33" s="455"/>
-      <c r="P33" s="456"/>
+      <c r="N33" s="458"/>
+      <c r="O33" s="453"/>
+      <c r="P33" s="459"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="51"/>
       <c r="S33" s="51"/>
-      <c r="T33" s="538" t="s">
-        <v>93</v>
-      </c>
-      <c r="U33" s="453"/>
-      <c r="V33" s="453"/>
+      <c r="T33" s="564" t="s">
+        <v>92</v>
+      </c>
+      <c r="U33" s="473"/>
+      <c r="V33" s="473"/>
       <c r="W33" s="50"/>
       <c r="X33" s="51"/>
       <c r="Y33" s="159"/>
@@ -5230,19 +5230,19 @@
       <c r="E34" s="116"/>
       <c r="F34" s="116"/>
       <c r="G34" s="161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="162"/>
       <c r="I34" s="134"/>
       <c r="J34" s="163"/>
       <c r="K34" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="165" t="s">
-        <v>89</v>
-      </c>
       <c r="M34" s="166" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N34" s="167"/>
       <c r="O34" s="168"/>
@@ -5251,13 +5251,13 @@
       <c r="R34" s="171"/>
       <c r="S34" s="171"/>
       <c r="T34" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="U34" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="U34" s="83" t="s">
-        <v>95</v>
-      </c>
       <c r="V34" s="132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W34" s="170"/>
       <c r="X34" s="171"/>
@@ -5265,19 +5265,19 @@
     </row>
     <row r="35" spans="1:25" s="128" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120"/>
-      <c r="B35" s="480">
+      <c r="B35" s="557">
         <v>19</v>
       </c>
-      <c r="C35" s="480">
+      <c r="C35" s="557">
         <v>5</v>
       </c>
-      <c r="D35" s="480">
+      <c r="D35" s="557">
         <v>2</v>
       </c>
-      <c r="E35" s="575">
+      <c r="E35" s="581">
         <v>14</v>
       </c>
-      <c r="F35" s="575">
+      <c r="F35" s="581">
         <v>11</v>
       </c>
       <c r="G35" s="121"/>
@@ -5287,14 +5287,14 @@
       <c r="K35" s="110"/>
       <c r="L35" s="111"/>
       <c r="M35" s="157"/>
-      <c r="N35" s="462" t="s">
-        <v>96</v>
-      </c>
-      <c r="O35" s="463"/>
-      <c r="P35" s="463"/>
-      <c r="Q35" s="463"/>
-      <c r="R35" s="463"/>
-      <c r="S35" s="463"/>
+      <c r="N35" s="505" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="506"/>
+      <c r="P35" s="506"/>
+      <c r="Q35" s="506"/>
+      <c r="R35" s="506"/>
+      <c r="S35" s="506"/>
       <c r="T35" s="126"/>
       <c r="U35" s="123"/>
       <c r="V35" s="176"/>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="36" spans="1:25" s="136" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="178" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="479"/>
-      <c r="C36" s="479"/>
-      <c r="D36" s="479"/>
-      <c r="E36" s="573"/>
-      <c r="F36" s="573"/>
+        <v>96</v>
+      </c>
+      <c r="B36" s="556"/>
+      <c r="C36" s="556"/>
+      <c r="D36" s="556"/>
+      <c r="E36" s="582"/>
+      <c r="F36" s="582"/>
       <c r="G36" s="130" t="s">
         <v>22</v>
       </c>
@@ -5324,10 +5324,10 @@
         <v>42</v>
       </c>
       <c r="O36" s="40"/>
-      <c r="P36" s="477"/>
-      <c r="Q36" s="477"/>
+      <c r="P36" s="492"/>
+      <c r="Q36" s="492"/>
       <c r="R36" s="182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S36" s="134" t="s">
         <v>31</v>
@@ -5341,60 +5341,60 @@
     </row>
     <row r="37" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="137"/>
-      <c r="B37" s="478"/>
-      <c r="C37" s="478">
+      <c r="B37" s="555"/>
+      <c r="C37" s="555">
         <v>19</v>
       </c>
-      <c r="D37" s="478">
+      <c r="D37" s="555">
         <v>16</v>
       </c>
-      <c r="E37" s="478">
+      <c r="E37" s="555">
         <v>28</v>
       </c>
-      <c r="F37" s="478"/>
+      <c r="F37" s="555"/>
       <c r="G37" s="138"/>
-      <c r="H37" s="569" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="465"/>
-      <c r="J37" s="549"/>
+      <c r="H37" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="531"/>
+      <c r="J37" s="532"/>
       <c r="K37" s="53"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
-      <c r="N37" s="454" t="s">
-        <v>96</v>
-      </c>
-      <c r="O37" s="455"/>
-      <c r="P37" s="456"/>
-      <c r="Q37" s="454" t="s">
-        <v>100</v>
-      </c>
-      <c r="R37" s="455"/>
-      <c r="S37" s="455"/>
-      <c r="T37" s="526"/>
-      <c r="U37" s="527"/>
-      <c r="V37" s="528"/>
-      <c r="W37" s="454"/>
-      <c r="X37" s="455"/>
-      <c r="Y37" s="487"/>
+      <c r="N37" s="458" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37" s="453"/>
+      <c r="P37" s="459"/>
+      <c r="Q37" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="R37" s="453"/>
+      <c r="S37" s="453"/>
+      <c r="T37" s="478"/>
+      <c r="U37" s="479"/>
+      <c r="V37" s="631"/>
+      <c r="W37" s="458"/>
+      <c r="X37" s="453"/>
+      <c r="Y37" s="454"/>
     </row>
     <row r="38" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="479"/>
-      <c r="C38" s="479"/>
-      <c r="D38" s="479"/>
-      <c r="E38" s="479"/>
-      <c r="F38" s="479"/>
+        <v>85</v>
+      </c>
+      <c r="B38" s="556"/>
+      <c r="C38" s="556"/>
+      <c r="D38" s="556"/>
+      <c r="E38" s="556"/>
+      <c r="F38" s="556"/>
       <c r="G38" s="130" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="184" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I38" s="185" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="186" t="s">
         <v>31</v>
@@ -5406,16 +5406,16 @@
         <v>42</v>
       </c>
       <c r="O38" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P38" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="R38" s="190" t="s">
         <v>102</v>
-      </c>
-      <c r="R38" s="190" t="s">
-        <v>103</v>
       </c>
       <c r="S38" s="134" t="s">
         <v>31</v>
@@ -5429,60 +5429,60 @@
     </row>
     <row r="39" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="137"/>
-      <c r="B39" s="478"/>
-      <c r="C39" s="478"/>
-      <c r="D39" s="478">
+      <c r="B39" s="555"/>
+      <c r="C39" s="555"/>
+      <c r="D39" s="555">
         <v>30</v>
       </c>
-      <c r="E39" s="478"/>
+      <c r="E39" s="555"/>
       <c r="F39" s="191"/>
       <c r="G39" s="138"/>
       <c r="H39" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="543" t="s">
         <v>104</v>
       </c>
-      <c r="I39" s="612" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="613"/>
-      <c r="K39" s="454" t="s">
-        <v>49</v>
-      </c>
-      <c r="L39" s="455"/>
-      <c r="M39" s="456"/>
-      <c r="N39" s="454" t="s">
+      <c r="J39" s="544"/>
+      <c r="K39" s="458" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="453"/>
+      <c r="M39" s="459"/>
+      <c r="N39" s="458" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="455"/>
-      <c r="P39" s="456"/>
-      <c r="Q39" s="454" t="s">
-        <v>96</v>
-      </c>
-      <c r="R39" s="455"/>
-      <c r="S39" s="455"/>
-      <c r="T39" s="526"/>
-      <c r="U39" s="527"/>
-      <c r="V39" s="528"/>
-      <c r="W39" s="470"/>
-      <c r="X39" s="453"/>
-      <c r="Y39" s="488"/>
+      <c r="O39" s="453"/>
+      <c r="P39" s="459"/>
+      <c r="Q39" s="458" t="s">
+        <v>95</v>
+      </c>
+      <c r="R39" s="453"/>
+      <c r="S39" s="453"/>
+      <c r="T39" s="478"/>
+      <c r="U39" s="479"/>
+      <c r="V39" s="631"/>
+      <c r="W39" s="472"/>
+      <c r="X39" s="473"/>
+      <c r="Y39" s="474"/>
     </row>
     <row r="40" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="479"/>
-      <c r="C40" s="479"/>
-      <c r="D40" s="479"/>
-      <c r="E40" s="479"/>
+      <c r="B40" s="556"/>
+      <c r="C40" s="556"/>
+      <c r="D40" s="556"/>
+      <c r="E40" s="556"/>
       <c r="F40" s="38"/>
       <c r="G40" s="130" t="s">
         <v>35</v>
       </c>
       <c r="H40" s="193" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="194" t="s">
         <v>106</v>
-      </c>
-      <c r="I40" s="194" t="s">
-        <v>107</v>
       </c>
       <c r="J40" s="195"/>
       <c r="K40" s="65"/>
@@ -5492,7 +5492,7 @@
         <v>44</v>
       </c>
       <c r="O40" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P40" s="64" t="s">
         <v>31</v>
@@ -5501,10 +5501,10 @@
         <v>42</v>
       </c>
       <c r="R40" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S40" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T40" s="196"/>
       <c r="U40" s="109"/>
@@ -5522,33 +5522,33 @@
       <c r="F41" s="74"/>
       <c r="G41" s="138"/>
       <c r="H41" s="199" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="545" t="s">
         <v>109</v>
       </c>
-      <c r="I41" s="468" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" s="614"/>
-      <c r="K41" s="472" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="460"/>
-      <c r="M41" s="461"/>
-      <c r="N41" s="454" t="s">
+      <c r="J41" s="546"/>
+      <c r="K41" s="586" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" s="540"/>
+      <c r="M41" s="541"/>
+      <c r="N41" s="458" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="455"/>
-      <c r="P41" s="456"/>
-      <c r="Q41" s="473"/>
-      <c r="R41" s="474"/>
-      <c r="S41" s="474"/>
+      <c r="O41" s="453"/>
+      <c r="P41" s="459"/>
+      <c r="Q41" s="638"/>
+      <c r="R41" s="639"/>
+      <c r="S41" s="639"/>
       <c r="T41" s="200"/>
       <c r="U41" s="201"/>
       <c r="V41" s="202"/>
-      <c r="W41" s="503" t="s">
-        <v>111</v>
-      </c>
-      <c r="X41" s="455"/>
-      <c r="Y41" s="487"/>
+      <c r="W41" s="452" t="s">
+        <v>110</v>
+      </c>
+      <c r="X41" s="453"/>
+      <c r="Y41" s="454"/>
     </row>
     <row r="42" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="137" t="s">
@@ -5560,32 +5560,32 @@
       <c r="E42" s="85"/>
       <c r="F42" s="85"/>
       <c r="G42" s="130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H42" s="203" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J42" s="98"/>
       <c r="K42" s="88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L42" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="M42" s="98" t="s">
         <v>63</v>
-      </c>
-      <c r="M42" s="98" t="s">
-        <v>64</v>
       </c>
       <c r="N42" s="68" t="s">
         <v>44</v>
       </c>
       <c r="O42" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P42" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q42" s="78"/>
       <c r="R42" s="77"/>
@@ -5594,13 +5594,13 @@
       <c r="U42" s="205"/>
       <c r="V42" s="206"/>
       <c r="W42" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="X42" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="40" t="s">
-        <v>114</v>
-      </c>
       <c r="Y42" s="94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5611,34 +5611,34 @@
       <c r="E43" s="73"/>
       <c r="F43" s="74"/>
       <c r="G43" s="138"/>
-      <c r="H43" s="582" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" s="583"/>
-      <c r="J43" s="584"/>
-      <c r="K43" s="454" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" s="455"/>
-      <c r="M43" s="456"/>
+      <c r="H43" s="527" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="528"/>
+      <c r="J43" s="529"/>
+      <c r="K43" s="458" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="453"/>
+      <c r="M43" s="459"/>
       <c r="N43" s="53"/>
       <c r="O43" s="54"/>
       <c r="P43" s="55"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="208"/>
       <c r="S43" s="208"/>
-      <c r="T43" s="561"/>
-      <c r="U43" s="562"/>
-      <c r="V43" s="563"/>
+      <c r="T43" s="520"/>
+      <c r="U43" s="521"/>
+      <c r="V43" s="522"/>
       <c r="W43" s="209" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X43" s="57"/>
       <c r="Y43" s="58"/>
     </row>
     <row r="44" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="85"/>
       <c r="C44" s="85"/>
@@ -5646,13 +5646,13 @@
       <c r="E44" s="85"/>
       <c r="F44" s="85"/>
       <c r="G44" s="130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44" s="131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I44" s="185" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J44" s="186" t="s">
         <v>31</v>
@@ -5669,9 +5669,9 @@
       <c r="T44" s="204"/>
       <c r="U44" s="213"/>
       <c r="V44" s="214"/>
-      <c r="W44" s="457"/>
-      <c r="X44" s="458"/>
-      <c r="Y44" s="481"/>
+      <c r="W44" s="455"/>
+      <c r="X44" s="456"/>
+      <c r="Y44" s="457"/>
     </row>
     <row r="45" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="137"/>
@@ -5684,23 +5684,23 @@
       <c r="H45" s="215"/>
       <c r="I45" s="109"/>
       <c r="J45" s="112"/>
-      <c r="K45" s="472" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" s="460"/>
-      <c r="M45" s="461"/>
+      <c r="K45" s="586" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="540"/>
+      <c r="M45" s="541"/>
       <c r="N45" s="100"/>
       <c r="O45" s="87"/>
       <c r="P45" s="155"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="87"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="520"/>
-      <c r="U45" s="521"/>
-      <c r="V45" s="522"/>
-      <c r="W45" s="457"/>
-      <c r="X45" s="458"/>
-      <c r="Y45" s="481"/>
+      <c r="T45" s="517"/>
+      <c r="U45" s="518"/>
+      <c r="V45" s="519"/>
+      <c r="W45" s="455"/>
+      <c r="X45" s="456"/>
+      <c r="Y45" s="457"/>
     </row>
     <row r="46" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="160"/>
@@ -5710,19 +5710,19 @@
       <c r="E46" s="116"/>
       <c r="F46" s="116"/>
       <c r="G46" s="161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H46" s="216"/>
       <c r="I46" s="119"/>
       <c r="J46" s="217"/>
       <c r="K46" s="88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L46" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" s="98" t="s">
         <v>63</v>
-      </c>
-      <c r="M46" s="98" t="s">
-        <v>64</v>
       </c>
       <c r="N46" s="218"/>
       <c r="O46" s="171"/>
@@ -5734,39 +5734,39 @@
       <c r="U46" s="221"/>
       <c r="V46" s="222"/>
       <c r="W46" s="164" t="s">
+        <v>112</v>
+      </c>
+      <c r="X46" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="X46" s="165" t="s">
-        <v>114</v>
-      </c>
       <c r="Y46" s="172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="120"/>
-      <c r="B47" s="480">
+      <c r="B47" s="557">
         <v>20</v>
       </c>
-      <c r="C47" s="480">
+      <c r="C47" s="557">
         <v>6</v>
       </c>
-      <c r="D47" s="480">
+      <c r="D47" s="557">
         <v>3</v>
       </c>
-      <c r="E47" s="553">
+      <c r="E47" s="583">
         <v>1</v>
       </c>
-      <c r="F47" s="553">
+      <c r="F47" s="583">
         <v>12</v>
       </c>
       <c r="G47" s="223"/>
-      <c r="H47" s="579"/>
-      <c r="I47" s="580"/>
-      <c r="J47" s="581"/>
-      <c r="K47" s="462"/>
-      <c r="L47" s="463"/>
-      <c r="M47" s="593"/>
+      <c r="H47" s="590"/>
+      <c r="I47" s="591"/>
+      <c r="J47" s="592"/>
+      <c r="K47" s="505"/>
+      <c r="L47" s="506"/>
+      <c r="M47" s="507"/>
       <c r="N47" s="110"/>
       <c r="O47" s="111"/>
       <c r="P47" s="155"/>
@@ -5782,11 +5782,11 @@
     </row>
     <row r="48" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="178"/>
-      <c r="B48" s="479"/>
-      <c r="C48" s="479"/>
-      <c r="D48" s="479"/>
-      <c r="E48" s="554"/>
-      <c r="F48" s="554"/>
+      <c r="B48" s="556"/>
+      <c r="C48" s="556"/>
+      <c r="D48" s="556"/>
+      <c r="E48" s="584"/>
+      <c r="F48" s="584"/>
       <c r="G48" s="226" t="s">
         <v>22</v>
       </c>
@@ -5811,39 +5811,39 @@
     </row>
     <row r="49" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="178" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="478"/>
-      <c r="C49" s="478">
+        <v>116</v>
+      </c>
+      <c r="B49" s="555"/>
+      <c r="C49" s="555">
         <v>20</v>
       </c>
-      <c r="D49" s="478">
+      <c r="D49" s="555">
         <v>17</v>
       </c>
-      <c r="E49" s="478">
+      <c r="E49" s="555">
         <v>15</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="230"/>
-      <c r="H49" s="569" t="s">
+      <c r="H49" s="530" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="531"/>
+      <c r="J49" s="532"/>
+      <c r="K49" s="458"/>
+      <c r="L49" s="453"/>
+      <c r="M49" s="459"/>
+      <c r="N49" s="472"/>
+      <c r="O49" s="473"/>
+      <c r="P49" s="485"/>
+      <c r="Q49" s="472" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="465"/>
-      <c r="J49" s="549"/>
-      <c r="K49" s="454"/>
-      <c r="L49" s="455"/>
-      <c r="M49" s="456"/>
-      <c r="N49" s="470"/>
-      <c r="O49" s="453"/>
-      <c r="P49" s="471"/>
-      <c r="Q49" s="470" t="s">
-        <v>119</v>
-      </c>
-      <c r="R49" s="453"/>
-      <c r="S49" s="453"/>
-      <c r="T49" s="526"/>
-      <c r="U49" s="527"/>
-      <c r="V49" s="527"/>
+      <c r="R49" s="473"/>
+      <c r="S49" s="473"/>
+      <c r="T49" s="478"/>
+      <c r="U49" s="479"/>
+      <c r="V49" s="479"/>
       <c r="W49" s="231"/>
       <c r="X49" s="232"/>
       <c r="Y49" s="233"/>
@@ -5852,21 +5852,21 @@
       <c r="A50" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="479"/>
-      <c r="C50" s="479"/>
-      <c r="D50" s="479"/>
-      <c r="E50" s="479"/>
+      <c r="B50" s="556"/>
+      <c r="C50" s="556"/>
+      <c r="D50" s="556"/>
+      <c r="E50" s="556"/>
       <c r="F50" s="38"/>
       <c r="G50" s="226" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="234" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="460" t="s">
-        <v>120</v>
-      </c>
-      <c r="J50" s="461"/>
+        <v>57</v>
+      </c>
+      <c r="I50" s="540" t="s">
+        <v>119</v>
+      </c>
+      <c r="J50" s="541"/>
       <c r="K50" s="68"/>
       <c r="L50" s="93"/>
       <c r="M50" s="132"/>
@@ -5874,10 +5874,10 @@
       <c r="O50" s="77"/>
       <c r="P50" s="79"/>
       <c r="Q50" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R50" s="77" t="s">
         <v>121</v>
-      </c>
-      <c r="R50" s="77" t="s">
-        <v>122</v>
       </c>
       <c r="S50" s="77" t="s">
         <v>31</v>
@@ -5891,82 +5891,82 @@
     </row>
     <row r="51" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="478"/>
-      <c r="C51" s="478"/>
-      <c r="D51" s="478"/>
-      <c r="E51" s="478">
+        <v>79</v>
+      </c>
+      <c r="B51" s="555"/>
+      <c r="C51" s="555"/>
+      <c r="D51" s="555"/>
+      <c r="E51" s="555">
         <v>29</v>
       </c>
-      <c r="F51" s="478"/>
+      <c r="F51" s="555"/>
       <c r="G51" s="230"/>
       <c r="H51" s="192" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="547" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="532"/>
+      <c r="K51" s="458" t="s">
         <v>123</v>
       </c>
-      <c r="I51" s="464" t="s">
-        <v>37</v>
-      </c>
-      <c r="J51" s="549"/>
-      <c r="K51" s="454" t="s">
+      <c r="L51" s="453"/>
+      <c r="M51" s="459"/>
+      <c r="N51" s="472" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51" s="473"/>
+      <c r="P51" s="485"/>
+      <c r="Q51" s="458" t="s">
         <v>124</v>
       </c>
-      <c r="L51" s="455"/>
-      <c r="M51" s="456"/>
-      <c r="N51" s="470" t="s">
-        <v>119</v>
-      </c>
-      <c r="O51" s="453"/>
-      <c r="P51" s="471"/>
-      <c r="Q51" s="454" t="s">
-        <v>125</v>
-      </c>
-      <c r="R51" s="455"/>
-      <c r="S51" s="455"/>
-      <c r="T51" s="640"/>
-      <c r="U51" s="641"/>
-      <c r="V51" s="642"/>
-      <c r="W51" s="503"/>
-      <c r="X51" s="455"/>
-      <c r="Y51" s="487"/>
+      <c r="R51" s="453"/>
+      <c r="S51" s="453"/>
+      <c r="T51" s="480"/>
+      <c r="U51" s="481"/>
+      <c r="V51" s="482"/>
+      <c r="W51" s="452"/>
+      <c r="X51" s="453"/>
+      <c r="Y51" s="454"/>
     </row>
     <row r="52" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="479"/>
-      <c r="C52" s="479"/>
-      <c r="D52" s="479"/>
-      <c r="E52" s="479"/>
-      <c r="F52" s="479"/>
+        <v>74</v>
+      </c>
+      <c r="B52" s="556"/>
+      <c r="C52" s="556"/>
+      <c r="D52" s="556"/>
+      <c r="E52" s="556"/>
+      <c r="F52" s="556"/>
       <c r="G52" s="239" t="s">
         <v>35</v>
       </c>
       <c r="H52" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I52" s="240"/>
       <c r="J52" s="195"/>
       <c r="K52" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L52" s="93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M52" s="79" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="O52" s="77" t="s">
         <v>121</v>
-      </c>
-      <c r="O52" s="77" t="s">
-        <v>122</v>
       </c>
       <c r="P52" s="79" t="s">
         <v>31</v>
       </c>
       <c r="Q52" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R52" s="9" t="s">
         <v>30</v>
@@ -5985,62 +5985,62 @@
       <c r="A53" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="478"/>
-      <c r="C53" s="478"/>
-      <c r="D53" s="478"/>
-      <c r="E53" s="478"/>
-      <c r="F53" s="478"/>
+      <c r="B53" s="555"/>
+      <c r="C53" s="555"/>
+      <c r="D53" s="555"/>
+      <c r="E53" s="555"/>
+      <c r="F53" s="555"/>
       <c r="G53" s="243"/>
       <c r="H53" s="244" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="489" t="s">
         <v>129</v>
       </c>
-      <c r="I53" s="597" t="s">
+      <c r="J53" s="490"/>
+      <c r="K53" s="472" t="s">
         <v>130</v>
       </c>
-      <c r="J53" s="599"/>
-      <c r="K53" s="470" t="s">
-        <v>131</v>
-      </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="471"/>
-      <c r="N53" s="470" t="s">
-        <v>119</v>
-      </c>
-      <c r="O53" s="453"/>
-      <c r="P53" s="471"/>
-      <c r="Q53" s="454" t="s">
-        <v>125</v>
-      </c>
-      <c r="R53" s="455"/>
-      <c r="S53" s="455"/>
-      <c r="T53" s="640"/>
-      <c r="U53" s="641"/>
-      <c r="V53" s="642"/>
-      <c r="W53" s="503"/>
-      <c r="X53" s="455"/>
-      <c r="Y53" s="487"/>
+      <c r="L53" s="473"/>
+      <c r="M53" s="485"/>
+      <c r="N53" s="472" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" s="473"/>
+      <c r="P53" s="485"/>
+      <c r="Q53" s="458" t="s">
+        <v>124</v>
+      </c>
+      <c r="R53" s="453"/>
+      <c r="S53" s="453"/>
+      <c r="T53" s="480"/>
+      <c r="U53" s="481"/>
+      <c r="V53" s="482"/>
+      <c r="W53" s="452"/>
+      <c r="X53" s="453"/>
+      <c r="Y53" s="454"/>
     </row>
     <row r="54" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="479"/>
-      <c r="C54" s="479"/>
-      <c r="D54" s="479"/>
-      <c r="E54" s="479"/>
-      <c r="F54" s="479"/>
+        <v>85</v>
+      </c>
+      <c r="B54" s="556"/>
+      <c r="C54" s="556"/>
+      <c r="D54" s="556"/>
+      <c r="E54" s="556"/>
+      <c r="F54" s="556"/>
       <c r="G54" s="239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H54" s="245" t="s">
+        <v>131</v>
+      </c>
+      <c r="I54" s="548" t="s">
         <v>132</v>
       </c>
-      <c r="I54" s="615" t="s">
+      <c r="J54" s="549"/>
+      <c r="K54" s="80" t="s">
         <v>133</v>
-      </c>
-      <c r="J54" s="616"/>
-      <c r="K54" s="80" t="s">
-        <v>134</v>
       </c>
       <c r="L54" s="81" t="s">
         <v>43</v>
@@ -6049,22 +6049,22 @@
         <v>31</v>
       </c>
       <c r="N54" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="O54" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="O54" s="77" t="s">
-        <v>122</v>
-      </c>
       <c r="P54" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q54" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R54" s="9" t="s">
         <v>30</v>
       </c>
       <c r="S54" s="77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T54" s="235"/>
       <c r="U54" s="241"/>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="55" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" s="73"/>
       <c r="C55" s="73"/>
@@ -6083,27 +6083,27 @@
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
       <c r="G55" s="230"/>
-      <c r="H55" s="565" t="s">
+      <c r="H55" s="496" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="455"/>
-      <c r="J55" s="456"/>
-      <c r="K55" s="470" t="s">
-        <v>131</v>
-      </c>
-      <c r="L55" s="453"/>
-      <c r="M55" s="471"/>
-      <c r="N55" s="470" t="s">
-        <v>136</v>
-      </c>
-      <c r="O55" s="453"/>
-      <c r="P55" s="471"/>
+      <c r="I55" s="453"/>
+      <c r="J55" s="459"/>
+      <c r="K55" s="472" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" s="473"/>
+      <c r="M55" s="485"/>
+      <c r="N55" s="472" t="s">
+        <v>135</v>
+      </c>
+      <c r="O55" s="473"/>
+      <c r="P55" s="485"/>
       <c r="Q55" s="56"/>
       <c r="R55" s="57"/>
       <c r="S55" s="57"/>
-      <c r="T55" s="520"/>
-      <c r="U55" s="521"/>
-      <c r="V55" s="522"/>
+      <c r="T55" s="517"/>
+      <c r="U55" s="518"/>
+      <c r="V55" s="519"/>
       <c r="W55" s="209"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
@@ -6116,34 +6116,34 @@
       <c r="E56" s="75"/>
       <c r="F56" s="75"/>
       <c r="G56" s="226" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H56" s="131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I56" s="83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J56" s="84" t="s">
         <v>31</v>
       </c>
       <c r="K56" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L56" s="81" t="s">
         <v>43</v>
       </c>
       <c r="M56" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O56" s="9" t="s">
         <v>30</v>
       </c>
       <c r="P56" s="246" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q56" s="68"/>
       <c r="R56" s="93"/>
@@ -6151,9 +6151,9 @@
       <c r="T56" s="204"/>
       <c r="U56" s="205"/>
       <c r="V56" s="247"/>
-      <c r="W56" s="457"/>
-      <c r="X56" s="458"/>
-      <c r="Y56" s="481"/>
+      <c r="W56" s="455"/>
+      <c r="X56" s="456"/>
+      <c r="Y56" s="457"/>
     </row>
     <row r="57" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="137"/>
@@ -6166,23 +6166,23 @@
       <c r="H57" s="215"/>
       <c r="I57" s="109"/>
       <c r="J57" s="102"/>
-      <c r="K57" s="454" t="s">
-        <v>139</v>
-      </c>
-      <c r="L57" s="455"/>
-      <c r="M57" s="456"/>
-      <c r="N57" s="454"/>
-      <c r="O57" s="455"/>
-      <c r="P57" s="456"/>
+      <c r="K57" s="458" t="s">
+        <v>138</v>
+      </c>
+      <c r="L57" s="453"/>
+      <c r="M57" s="459"/>
+      <c r="N57" s="458"/>
+      <c r="O57" s="453"/>
+      <c r="P57" s="459"/>
       <c r="Q57" s="197"/>
       <c r="R57" s="248"/>
       <c r="S57" s="249"/>
-      <c r="T57" s="520"/>
-      <c r="U57" s="521"/>
-      <c r="V57" s="522"/>
-      <c r="W57" s="457"/>
-      <c r="X57" s="458"/>
-      <c r="Y57" s="481"/>
+      <c r="T57" s="517"/>
+      <c r="U57" s="518"/>
+      <c r="V57" s="519"/>
+      <c r="W57" s="455"/>
+      <c r="X57" s="456"/>
+      <c r="Y57" s="457"/>
     </row>
     <row r="58" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="160"/>
@@ -6192,16 +6192,16 @@
       <c r="E58" s="250"/>
       <c r="F58" s="250"/>
       <c r="G58" s="251" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H58" s="215"/>
       <c r="I58" s="109"/>
       <c r="J58" s="252"/>
       <c r="K58" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L58" s="83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M58" s="132" t="s">
         <v>31</v>
@@ -6221,25 +6221,25 @@
     </row>
     <row r="59" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A59" s="120"/>
-      <c r="B59" s="480">
+      <c r="B59" s="557">
         <v>21</v>
       </c>
-      <c r="C59" s="575">
+      <c r="C59" s="581">
         <v>7</v>
       </c>
-      <c r="D59" s="480">
+      <c r="D59" s="557">
         <v>4</v>
       </c>
-      <c r="E59" s="553">
+      <c r="E59" s="583">
         <v>2</v>
       </c>
-      <c r="F59" s="553">
+      <c r="F59" s="583">
         <v>13</v>
       </c>
       <c r="G59" s="121"/>
-      <c r="H59" s="576"/>
-      <c r="I59" s="577"/>
-      <c r="J59" s="578"/>
+      <c r="H59" s="587"/>
+      <c r="I59" s="588"/>
+      <c r="J59" s="589"/>
       <c r="K59" s="254"/>
       <c r="L59" s="255"/>
       <c r="M59" s="255"/>
@@ -6249,20 +6249,20 @@
       <c r="Q59" s="125"/>
       <c r="R59" s="111"/>
       <c r="S59" s="109"/>
-      <c r="T59" s="502"/>
-      <c r="U59" s="463"/>
-      <c r="V59" s="463"/>
+      <c r="T59" s="628"/>
+      <c r="U59" s="506"/>
+      <c r="V59" s="506"/>
       <c r="W59" s="125"/>
       <c r="X59" s="111"/>
       <c r="Y59" s="256"/>
     </row>
     <row r="60" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="178"/>
-      <c r="B60" s="479"/>
-      <c r="C60" s="573"/>
-      <c r="D60" s="479"/>
-      <c r="E60" s="554"/>
-      <c r="F60" s="554"/>
+      <c r="B60" s="556"/>
+      <c r="C60" s="582"/>
+      <c r="D60" s="556"/>
+      <c r="E60" s="584"/>
+      <c r="F60" s="584"/>
       <c r="G60" s="130" t="s">
         <v>22</v>
       </c>
@@ -6289,17 +6289,17 @@
       <c r="A61" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="478"/>
-      <c r="C61" s="478">
+      <c r="B61" s="555"/>
+      <c r="C61" s="555">
         <v>21</v>
       </c>
-      <c r="D61" s="478">
+      <c r="D61" s="555">
         <v>18</v>
       </c>
-      <c r="E61" s="478">
+      <c r="E61" s="555">
         <v>16</v>
       </c>
-      <c r="F61" s="478"/>
+      <c r="F61" s="555"/>
       <c r="G61" s="138"/>
       <c r="H61" s="139"/>
       <c r="I61" s="140"/>
@@ -6307,81 +6307,81 @@
       <c r="K61" s="56"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
-      <c r="N61" s="454"/>
-      <c r="O61" s="455"/>
-      <c r="P61" s="455"/>
-      <c r="Q61" s="455"/>
-      <c r="R61" s="455"/>
-      <c r="S61" s="455"/>
-      <c r="T61" s="519"/>
-      <c r="U61" s="476"/>
-      <c r="V61" s="476"/>
+      <c r="N61" s="458"/>
+      <c r="O61" s="453"/>
+      <c r="P61" s="453"/>
+      <c r="Q61" s="453"/>
+      <c r="R61" s="453"/>
+      <c r="S61" s="453"/>
+      <c r="T61" s="618"/>
+      <c r="U61" s="575"/>
+      <c r="V61" s="575"/>
       <c r="W61" s="56"/>
       <c r="X61" s="57"/>
       <c r="Y61" s="262"/>
     </row>
     <row r="62" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="479"/>
-      <c r="C62" s="479"/>
-      <c r="D62" s="479"/>
-      <c r="E62" s="479"/>
-      <c r="F62" s="479"/>
+        <v>140</v>
+      </c>
+      <c r="B62" s="556"/>
+      <c r="C62" s="556"/>
+      <c r="D62" s="556"/>
+      <c r="E62" s="556"/>
+      <c r="F62" s="556"/>
       <c r="G62" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="564"/>
-      <c r="I62" s="493"/>
-      <c r="J62" s="611"/>
+      <c r="H62" s="542"/>
+      <c r="I62" s="461"/>
+      <c r="J62" s="462"/>
       <c r="K62" s="88"/>
       <c r="L62" s="109"/>
       <c r="M62" s="109"/>
       <c r="N62" s="68"/>
       <c r="O62" s="83"/>
-      <c r="P62" s="477"/>
-      <c r="Q62" s="477"/>
+      <c r="P62" s="492"/>
+      <c r="Q62" s="492"/>
       <c r="R62" s="83"/>
       <c r="S62" s="83"/>
       <c r="T62" s="69"/>
-      <c r="U62" s="477"/>
-      <c r="V62" s="523"/>
+      <c r="U62" s="492"/>
+      <c r="V62" s="493"/>
       <c r="W62" s="99"/>
       <c r="X62" s="83"/>
       <c r="Y62" s="107"/>
     </row>
     <row r="63" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="478"/>
-      <c r="C63" s="478"/>
-      <c r="D63" s="478"/>
-      <c r="E63" s="478">
+        <v>79</v>
+      </c>
+      <c r="B63" s="555"/>
+      <c r="C63" s="555"/>
+      <c r="D63" s="555"/>
+      <c r="E63" s="555">
         <v>30</v>
       </c>
-      <c r="F63" s="478"/>
+      <c r="F63" s="555"/>
       <c r="G63" s="138"/>
-      <c r="H63" s="631"/>
-      <c r="I63" s="632"/>
-      <c r="J63" s="633"/>
+      <c r="H63" s="497"/>
+      <c r="I63" s="498"/>
+      <c r="J63" s="499"/>
       <c r="K63" s="263" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L63" s="140"/>
       <c r="M63" s="141"/>
-      <c r="N63" s="454" t="s">
-        <v>142</v>
-      </c>
-      <c r="O63" s="455"/>
-      <c r="P63" s="455"/>
-      <c r="Q63" s="455"/>
-      <c r="R63" s="455"/>
-      <c r="S63" s="455"/>
-      <c r="T63" s="519"/>
-      <c r="U63" s="476"/>
-      <c r="V63" s="476"/>
+      <c r="N63" s="458" t="s">
+        <v>141</v>
+      </c>
+      <c r="O63" s="453"/>
+      <c r="P63" s="453"/>
+      <c r="Q63" s="453"/>
+      <c r="R63" s="453"/>
+      <c r="S63" s="453"/>
+      <c r="T63" s="618"/>
+      <c r="U63" s="575"/>
+      <c r="V63" s="575"/>
       <c r="W63" s="156"/>
       <c r="X63" s="157"/>
       <c r="Y63" s="264"/>
@@ -6390,26 +6390,26 @@
       <c r="A64" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="479"/>
-      <c r="C64" s="479"/>
-      <c r="D64" s="479"/>
-      <c r="E64" s="479"/>
-      <c r="F64" s="479"/>
+      <c r="B64" s="556"/>
+      <c r="C64" s="556"/>
+      <c r="D64" s="556"/>
+      <c r="E64" s="556"/>
+      <c r="F64" s="556"/>
       <c r="G64" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="634"/>
-      <c r="I64" s="477"/>
-      <c r="J64" s="523"/>
-      <c r="K64" s="492"/>
-      <c r="L64" s="493"/>
-      <c r="M64" s="611"/>
+      <c r="H64" s="500"/>
+      <c r="I64" s="492"/>
+      <c r="J64" s="493"/>
+      <c r="K64" s="460"/>
+      <c r="L64" s="461"/>
+      <c r="M64" s="462"/>
       <c r="N64" s="68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O64" s="83"/>
-      <c r="P64" s="477"/>
-      <c r="Q64" s="477"/>
+      <c r="P64" s="492"/>
+      <c r="Q64" s="492"/>
       <c r="R64" s="83" t="s">
         <v>43</v>
       </c>
@@ -6417,15 +6417,15 @@
         <v>31</v>
       </c>
       <c r="T64" s="82"/>
-      <c r="U64" s="458"/>
-      <c r="V64" s="459"/>
+      <c r="U64" s="456"/>
+      <c r="V64" s="554"/>
       <c r="W64" s="68"/>
       <c r="X64" s="40"/>
       <c r="Y64" s="72"/>
     </row>
     <row r="65" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="73"/>
       <c r="C65" s="73"/>
@@ -6433,34 +6433,34 @@
       <c r="E65" s="73"/>
       <c r="F65" s="74"/>
       <c r="G65" s="138"/>
-      <c r="H65" s="636"/>
-      <c r="I65" s="556"/>
-      <c r="J65" s="556"/>
-      <c r="K65" s="492" t="s">
+      <c r="H65" s="503"/>
+      <c r="I65" s="504"/>
+      <c r="J65" s="504"/>
+      <c r="K65" s="460" t="s">
+        <v>142</v>
+      </c>
+      <c r="L65" s="461"/>
+      <c r="M65" s="462"/>
+      <c r="N65" s="458" t="s">
         <v>143</v>
       </c>
-      <c r="L65" s="493"/>
-      <c r="M65" s="611"/>
-      <c r="N65" s="454" t="s">
-        <v>144</v>
-      </c>
-      <c r="O65" s="455"/>
-      <c r="P65" s="456"/>
-      <c r="Q65" s="454" t="s">
-        <v>142</v>
-      </c>
-      <c r="R65" s="455"/>
-      <c r="S65" s="455"/>
-      <c r="T65" s="494"/>
-      <c r="U65" s="455"/>
-      <c r="V65" s="456"/>
-      <c r="W65" s="454"/>
-      <c r="X65" s="455"/>
-      <c r="Y65" s="487"/>
+      <c r="O65" s="453"/>
+      <c r="P65" s="459"/>
+      <c r="Q65" s="458" t="s">
+        <v>141</v>
+      </c>
+      <c r="R65" s="453"/>
+      <c r="S65" s="453"/>
+      <c r="T65" s="593"/>
+      <c r="U65" s="453"/>
+      <c r="V65" s="459"/>
+      <c r="W65" s="458"/>
+      <c r="X65" s="453"/>
+      <c r="Y65" s="454"/>
     </row>
     <row r="66" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -6468,46 +6468,46 @@
       <c r="E66" s="75"/>
       <c r="F66" s="75"/>
       <c r="G66" s="130" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="635"/>
-      <c r="I66" s="557"/>
-      <c r="J66" s="557"/>
-      <c r="K66" s="486" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="501"/>
+      <c r="I66" s="502"/>
+      <c r="J66" s="502"/>
+      <c r="K66" s="491" t="s">
+        <v>145</v>
+      </c>
+      <c r="L66" s="492"/>
+      <c r="M66" s="493"/>
+      <c r="N66" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="L66" s="477"/>
-      <c r="M66" s="523"/>
-      <c r="N66" s="80" t="s">
-        <v>147</v>
-      </c>
       <c r="O66" s="81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P66" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q66" s="68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R66" s="83" t="s">
         <v>43</v>
       </c>
       <c r="S66" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T66" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="U66" s="477"/>
-      <c r="V66" s="523"/>
+        <v>56</v>
+      </c>
+      <c r="U66" s="492"/>
+      <c r="V66" s="493"/>
       <c r="W66" s="68"/>
       <c r="X66" s="93"/>
       <c r="Y66" s="94"/>
     </row>
     <row r="67" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" s="73"/>
       <c r="C67" s="73"/>
@@ -6518,27 +6518,27 @@
       <c r="H67" s="266"/>
       <c r="I67" s="267"/>
       <c r="J67" s="268"/>
-      <c r="K67" s="454"/>
-      <c r="L67" s="455"/>
-      <c r="M67" s="456"/>
-      <c r="N67" s="454" t="s">
-        <v>142</v>
-      </c>
-      <c r="O67" s="455"/>
-      <c r="P67" s="456"/>
-      <c r="Q67" s="454" t="s">
-        <v>144</v>
-      </c>
-      <c r="R67" s="455"/>
-      <c r="S67" s="455"/>
-      <c r="T67" s="559" t="s">
-        <v>148</v>
-      </c>
-      <c r="U67" s="560"/>
-      <c r="V67" s="560"/>
-      <c r="W67" s="454"/>
-      <c r="X67" s="455"/>
-      <c r="Y67" s="487"/>
+      <c r="K67" s="458"/>
+      <c r="L67" s="453"/>
+      <c r="M67" s="459"/>
+      <c r="N67" s="458" t="s">
+        <v>141</v>
+      </c>
+      <c r="O67" s="453"/>
+      <c r="P67" s="459"/>
+      <c r="Q67" s="458" t="s">
+        <v>143</v>
+      </c>
+      <c r="R67" s="453"/>
+      <c r="S67" s="453"/>
+      <c r="T67" s="483" t="s">
+        <v>147</v>
+      </c>
+      <c r="U67" s="484"/>
+      <c r="V67" s="484"/>
+      <c r="W67" s="458"/>
+      <c r="X67" s="453"/>
+      <c r="Y67" s="454"/>
     </row>
     <row r="68" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="137"/>
@@ -6548,7 +6548,7 @@
       <c r="E68" s="75"/>
       <c r="F68" s="75"/>
       <c r="G68" s="130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H68" s="269"/>
       <c r="I68" s="270"/>
@@ -6557,31 +6557,31 @@
       <c r="L68" s="83"/>
       <c r="M68" s="132"/>
       <c r="N68" s="68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O68" s="83" t="s">
         <v>43</v>
       </c>
       <c r="P68" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q68" s="80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R68" s="81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S68" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T68" s="104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U68" s="105" t="s">
         <v>45</v>
       </c>
       <c r="V68" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W68" s="68"/>
       <c r="X68" s="93"/>
@@ -6601,19 +6601,19 @@
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
-      <c r="N69" s="454" t="s">
+      <c r="N69" s="458" t="s">
+        <v>149</v>
+      </c>
+      <c r="O69" s="453"/>
+      <c r="P69" s="453"/>
+      <c r="Q69" s="453"/>
+      <c r="R69" s="453"/>
+      <c r="S69" s="453"/>
+      <c r="T69" s="483" t="s">
         <v>150</v>
       </c>
-      <c r="O69" s="455"/>
-      <c r="P69" s="455"/>
-      <c r="Q69" s="455"/>
-      <c r="R69" s="455"/>
-      <c r="S69" s="455"/>
-      <c r="T69" s="559" t="s">
-        <v>151</v>
-      </c>
-      <c r="U69" s="560"/>
-      <c r="V69" s="607"/>
+      <c r="U69" s="484"/>
+      <c r="V69" s="622"/>
       <c r="W69" s="50"/>
       <c r="X69" s="51"/>
       <c r="Y69" s="159"/>
@@ -6626,7 +6626,7 @@
       <c r="E70" s="250"/>
       <c r="F70" s="250"/>
       <c r="G70" s="161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H70" s="275"/>
       <c r="I70" s="276"/>
@@ -6635,25 +6635,25 @@
       <c r="L70" s="278"/>
       <c r="M70" s="278"/>
       <c r="N70" s="63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O70" s="103"/>
       <c r="P70" s="279"/>
       <c r="Q70" s="279"/>
       <c r="R70" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S70" s="101" t="s">
         <v>31</v>
       </c>
       <c r="T70" s="104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U70" s="105" t="s">
         <v>45</v>
       </c>
       <c r="V70" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W70" s="218"/>
       <c r="X70" s="171"/>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="71" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120"/>
-      <c r="B71" s="575">
+      <c r="B71" s="581">
         <v>22</v>
       </c>
-      <c r="C71" s="553">
+      <c r="C71" s="583">
         <v>8</v>
       </c>
-      <c r="D71" s="480">
+      <c r="D71" s="557">
         <v>5</v>
       </c>
-      <c r="E71" s="553">
+      <c r="E71" s="583">
         <v>3</v>
       </c>
-      <c r="F71" s="553">
+      <c r="F71" s="583">
         <v>14</v>
       </c>
       <c r="G71" s="121"/>
-      <c r="H71" s="568"/>
-      <c r="I71" s="551"/>
-      <c r="J71" s="549"/>
+      <c r="H71" s="594"/>
+      <c r="I71" s="535"/>
+      <c r="J71" s="532"/>
       <c r="K71" s="280"/>
       <c r="L71" s="281"/>
       <c r="M71" s="281"/>
@@ -6689,20 +6689,20 @@
       <c r="Q71" s="125"/>
       <c r="R71" s="123"/>
       <c r="S71" s="123"/>
-      <c r="T71" s="604"/>
-      <c r="U71" s="605"/>
-      <c r="V71" s="606"/>
-      <c r="W71" s="454"/>
-      <c r="X71" s="455"/>
-      <c r="Y71" s="487"/>
+      <c r="T71" s="619"/>
+      <c r="U71" s="620"/>
+      <c r="V71" s="621"/>
+      <c r="W71" s="458"/>
+      <c r="X71" s="453"/>
+      <c r="Y71" s="454"/>
     </row>
     <row r="72" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="178"/>
-      <c r="B72" s="573"/>
-      <c r="C72" s="554"/>
-      <c r="D72" s="479"/>
-      <c r="E72" s="554"/>
-      <c r="F72" s="554"/>
+      <c r="B72" s="582"/>
+      <c r="C72" s="584"/>
+      <c r="D72" s="556"/>
+      <c r="E72" s="584"/>
+      <c r="F72" s="584"/>
       <c r="G72" s="130" t="s">
         <v>22</v>
       </c>
@@ -6727,50 +6727,50 @@
     </row>
     <row r="73" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="178" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="478"/>
-      <c r="C73" s="478">
+        <v>96</v>
+      </c>
+      <c r="B73" s="555"/>
+      <c r="C73" s="555">
         <v>22</v>
       </c>
-      <c r="D73" s="478">
+      <c r="D73" s="555">
         <v>19</v>
       </c>
-      <c r="E73" s="478">
+      <c r="E73" s="555">
         <v>17</v>
       </c>
-      <c r="F73" s="478"/>
+      <c r="F73" s="555"/>
       <c r="G73" s="138"/>
-      <c r="H73" s="568"/>
-      <c r="I73" s="551"/>
-      <c r="J73" s="549"/>
-      <c r="K73" s="454"/>
-      <c r="L73" s="455"/>
-      <c r="M73" s="455"/>
+      <c r="H73" s="594"/>
+      <c r="I73" s="535"/>
+      <c r="J73" s="532"/>
+      <c r="K73" s="458"/>
+      <c r="L73" s="453"/>
+      <c r="M73" s="453"/>
       <c r="N73" s="63"/>
       <c r="O73" s="54"/>
       <c r="P73" s="55"/>
       <c r="Q73" s="63"/>
       <c r="R73" s="54"/>
       <c r="S73" s="54"/>
-      <c r="T73" s="559" t="s">
-        <v>152</v>
-      </c>
-      <c r="U73" s="560"/>
-      <c r="V73" s="560"/>
-      <c r="W73" s="470"/>
-      <c r="X73" s="453"/>
-      <c r="Y73" s="488"/>
+      <c r="T73" s="483" t="s">
+        <v>151</v>
+      </c>
+      <c r="U73" s="484"/>
+      <c r="V73" s="484"/>
+      <c r="W73" s="472"/>
+      <c r="X73" s="473"/>
+      <c r="Y73" s="474"/>
     </row>
     <row r="74" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="479"/>
-      <c r="C74" s="479"/>
-      <c r="D74" s="479"/>
-      <c r="E74" s="479"/>
-      <c r="F74" s="479"/>
+        <v>152</v>
+      </c>
+      <c r="B74" s="556"/>
+      <c r="C74" s="556"/>
+      <c r="D74" s="556"/>
+      <c r="E74" s="556"/>
+      <c r="F74" s="556"/>
       <c r="G74" s="130" t="s">
         <v>25</v>
       </c>
@@ -6795,44 +6795,44 @@
     </row>
     <row r="75" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="478"/>
-      <c r="C75" s="478"/>
-      <c r="D75" s="478"/>
-      <c r="E75" s="478">
+        <v>153</v>
+      </c>
+      <c r="B75" s="555"/>
+      <c r="C75" s="555"/>
+      <c r="D75" s="555"/>
+      <c r="E75" s="555">
         <v>31</v>
       </c>
-      <c r="F75" s="478"/>
+      <c r="F75" s="555"/>
       <c r="G75" s="138"/>
-      <c r="H75" s="569"/>
-      <c r="I75" s="465"/>
-      <c r="J75" s="549"/>
-      <c r="K75" s="454"/>
-      <c r="L75" s="455"/>
-      <c r="M75" s="455"/>
+      <c r="H75" s="530"/>
+      <c r="I75" s="531"/>
+      <c r="J75" s="532"/>
+      <c r="K75" s="458"/>
+      <c r="L75" s="453"/>
+      <c r="M75" s="453"/>
       <c r="N75" s="56"/>
       <c r="O75" s="51"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="56"/>
       <c r="R75" s="51"/>
       <c r="S75" s="51"/>
-      <c r="T75" s="628"/>
-      <c r="U75" s="629"/>
-      <c r="V75" s="630"/>
+      <c r="T75" s="558"/>
+      <c r="U75" s="559"/>
+      <c r="V75" s="560"/>
       <c r="W75" s="286"/>
       <c r="X75" s="248"/>
       <c r="Y75" s="287"/>
     </row>
     <row r="76" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" s="479"/>
-      <c r="C76" s="479"/>
-      <c r="D76" s="479"/>
-      <c r="E76" s="479"/>
-      <c r="F76" s="479"/>
+        <v>153</v>
+      </c>
+      <c r="B76" s="556"/>
+      <c r="C76" s="556"/>
+      <c r="D76" s="556"/>
+      <c r="E76" s="556"/>
+      <c r="F76" s="556"/>
       <c r="G76" s="130" t="s">
         <v>35</v>
       </c>
@@ -6849,13 +6849,13 @@
       <c r="R76" s="93"/>
       <c r="S76" s="93"/>
       <c r="T76" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U76" s="288" t="s">
         <v>43</v>
       </c>
       <c r="V76" s="289" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W76" s="68"/>
       <c r="X76" s="290"/>
@@ -6883,16 +6883,16 @@
       <c r="Q77" s="56"/>
       <c r="R77" s="57"/>
       <c r="S77" s="57"/>
-      <c r="T77" s="520"/>
-      <c r="U77" s="521"/>
-      <c r="V77" s="522"/>
+      <c r="T77" s="517"/>
+      <c r="U77" s="518"/>
+      <c r="V77" s="519"/>
       <c r="W77" s="56"/>
       <c r="X77" s="57"/>
       <c r="Y77" s="58"/>
     </row>
     <row r="78" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -6900,7 +6900,7 @@
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H78" s="131"/>
       <c r="I78" s="40"/>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="79" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="74"/>
       <c r="C79" s="74"/>
@@ -6958,7 +6958,7 @@
       <c r="E80" s="75"/>
       <c r="F80" s="75"/>
       <c r="G80" s="130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H80" s="234"/>
       <c r="I80" s="294"/>
@@ -7014,7 +7014,7 @@
       <c r="E82" s="250"/>
       <c r="F82" s="250"/>
       <c r="G82" s="161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H82" s="308"/>
       <c r="I82" s="309"/>
@@ -7066,27 +7066,27 @@
       <c r="A84" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="480">
+      <c r="B84" s="557">
         <v>10</v>
       </c>
-      <c r="C84" s="480">
+      <c r="C84" s="557">
         <v>10</v>
       </c>
-      <c r="D84" s="480">
+      <c r="D84" s="557">
         <v>7</v>
       </c>
-      <c r="E84" s="480">
+      <c r="E84" s="557">
         <v>5</v>
       </c>
-      <c r="F84" s="480">
+      <c r="F84" s="557">
         <v>2</v>
       </c>
-      <c r="G84" s="587" t="s">
+      <c r="G84" s="573" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="454"/>
-      <c r="I84" s="455"/>
-      <c r="J84" s="456"/>
+      <c r="H84" s="458"/>
+      <c r="I84" s="453"/>
+      <c r="J84" s="459"/>
       <c r="K84" s="281"/>
       <c r="L84" s="281"/>
       <c r="M84" s="318"/>
@@ -7107,12 +7107,12 @@
       <c r="A85" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="479"/>
-      <c r="C85" s="479"/>
-      <c r="D85" s="479"/>
-      <c r="E85" s="479"/>
-      <c r="F85" s="479"/>
-      <c r="G85" s="567"/>
+      <c r="B85" s="556"/>
+      <c r="C85" s="556"/>
+      <c r="D85" s="556"/>
+      <c r="E85" s="556"/>
+      <c r="F85" s="556"/>
+      <c r="G85" s="571"/>
       <c r="H85" s="63"/>
       <c r="I85" s="4"/>
       <c r="J85" s="64"/>
@@ -7136,65 +7136,65 @@
       <c r="A86" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="478">
+      <c r="B86" s="555">
         <v>24</v>
       </c>
-      <c r="C86" s="478">
+      <c r="C86" s="555">
         <v>24</v>
       </c>
-      <c r="D86" s="478">
+      <c r="D86" s="555">
         <v>21</v>
       </c>
-      <c r="E86" s="478">
+      <c r="E86" s="555">
         <v>19</v>
       </c>
       <c r="F86" s="49"/>
-      <c r="G86" s="566" t="s">
+      <c r="G86" s="570" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="565" t="s">
-        <v>156</v>
-      </c>
-      <c r="I86" s="455"/>
-      <c r="J86" s="456"/>
+      <c r="H86" s="496" t="s">
+        <v>155</v>
+      </c>
+      <c r="I86" s="453"/>
+      <c r="J86" s="459"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
       <c r="N86" s="53"/>
       <c r="O86" s="54"/>
       <c r="P86" s="55"/>
-      <c r="Q86" s="454" t="s">
+      <c r="Q86" s="458" t="s">
         <v>39</v>
       </c>
-      <c r="R86" s="455"/>
-      <c r="S86" s="455"/>
+      <c r="R86" s="453"/>
+      <c r="S86" s="453"/>
       <c r="T86" s="328"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
-      <c r="W86" s="454" t="s">
-        <v>157</v>
-      </c>
-      <c r="X86" s="455"/>
-      <c r="Y86" s="487"/>
+      <c r="W86" s="458" t="s">
+        <v>156</v>
+      </c>
+      <c r="X86" s="453"/>
+      <c r="Y86" s="454"/>
     </row>
     <row r="87" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="479"/>
-      <c r="C87" s="479"/>
-      <c r="D87" s="479"/>
-      <c r="E87" s="479"/>
+      <c r="B87" s="556"/>
+      <c r="C87" s="556"/>
+      <c r="D87" s="556"/>
+      <c r="E87" s="556"/>
       <c r="F87" s="38"/>
-      <c r="G87" s="567"/>
+      <c r="G87" s="571"/>
       <c r="H87" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I87" s="40" t="s">
         <v>30</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K87" s="68"/>
       <c r="L87" s="40"/>
@@ -7215,62 +7215,62 @@
       <c r="U87" s="81"/>
       <c r="V87" s="81"/>
       <c r="W87" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X87" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y87" s="94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="478"/>
-      <c r="C88" s="478"/>
-      <c r="D88" s="478"/>
-      <c r="E88" s="478"/>
-      <c r="F88" s="478"/>
-      <c r="G88" s="566" t="s">
+      <c r="B88" s="555"/>
+      <c r="C88" s="555"/>
+      <c r="D88" s="555"/>
+      <c r="E88" s="555"/>
+      <c r="F88" s="555"/>
+      <c r="G88" s="570" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="565" t="s">
+      <c r="H88" s="496" t="s">
         <v>36</v>
       </c>
-      <c r="I88" s="455"/>
-      <c r="J88" s="456"/>
+      <c r="I88" s="453"/>
+      <c r="J88" s="459"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
       <c r="M88" s="55"/>
       <c r="N88" s="53"/>
       <c r="O88" s="54"/>
       <c r="P88" s="55"/>
-      <c r="Q88" s="454" t="s">
+      <c r="Q88" s="458" t="s">
         <v>39</v>
       </c>
-      <c r="R88" s="455"/>
-      <c r="S88" s="455"/>
+      <c r="R88" s="453"/>
+      <c r="S88" s="453"/>
       <c r="T88" s="152"/>
       <c r="U88" s="61"/>
       <c r="V88" s="61"/>
-      <c r="W88" s="470" t="s">
-        <v>157</v>
-      </c>
-      <c r="X88" s="453"/>
-      <c r="Y88" s="488"/>
+      <c r="W88" s="472" t="s">
+        <v>156</v>
+      </c>
+      <c r="X88" s="473"/>
+      <c r="Y88" s="474"/>
     </row>
     <row r="89" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="479"/>
-      <c r="C89" s="479"/>
-      <c r="D89" s="479"/>
-      <c r="E89" s="479"/>
-      <c r="F89" s="479"/>
-      <c r="G89" s="567"/>
+      <c r="B89" s="556"/>
+      <c r="C89" s="556"/>
+      <c r="D89" s="556"/>
+      <c r="E89" s="556"/>
+      <c r="F89" s="556"/>
+      <c r="G89" s="571"/>
       <c r="H89" s="76" t="s">
         <v>41</v>
       </c>
@@ -7293,62 +7293,62 @@
         <v>33</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T89" s="330"/>
       <c r="U89" s="77"/>
       <c r="V89" s="77"/>
-      <c r="W89" s="457"/>
-      <c r="X89" s="458"/>
-      <c r="Y89" s="481"/>
+      <c r="W89" s="455"/>
+      <c r="X89" s="456"/>
+      <c r="Y89" s="457"/>
     </row>
     <row r="90" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="555"/>
+      <c r="C90" s="555"/>
+      <c r="D90" s="555"/>
+      <c r="E90" s="555"/>
+      <c r="F90" s="555"/>
+      <c r="G90" s="570" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="478"/>
-      <c r="C90" s="478"/>
-      <c r="D90" s="478"/>
-      <c r="E90" s="478"/>
-      <c r="F90" s="478"/>
-      <c r="G90" s="566" t="s">
-        <v>48</v>
-      </c>
-      <c r="H90" s="454" t="s">
+      <c r="H90" s="458" t="s">
         <v>26</v>
       </c>
-      <c r="I90" s="455"/>
-      <c r="J90" s="456"/>
-      <c r="K90" s="470" t="s">
-        <v>131</v>
-      </c>
-      <c r="L90" s="453"/>
-      <c r="M90" s="471"/>
+      <c r="I90" s="453"/>
+      <c r="J90" s="459"/>
+      <c r="K90" s="472" t="s">
+        <v>130</v>
+      </c>
+      <c r="L90" s="473"/>
+      <c r="M90" s="485"/>
       <c r="N90" s="54"/>
       <c r="O90" s="54"/>
       <c r="P90" s="55"/>
-      <c r="Q90" s="454" t="s">
-        <v>125</v>
-      </c>
-      <c r="R90" s="455"/>
-      <c r="S90" s="455"/>
+      <c r="Q90" s="458" t="s">
+        <v>124</v>
+      </c>
+      <c r="R90" s="453"/>
+      <c r="S90" s="453"/>
       <c r="T90" s="142"/>
       <c r="U90" s="57"/>
       <c r="V90" s="57"/>
-      <c r="W90" s="457"/>
-      <c r="X90" s="458"/>
-      <c r="Y90" s="481"/>
+      <c r="W90" s="455"/>
+      <c r="X90" s="456"/>
+      <c r="Y90" s="457"/>
     </row>
     <row r="91" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="479"/>
-      <c r="C91" s="479"/>
-      <c r="D91" s="479"/>
-      <c r="E91" s="479"/>
-      <c r="F91" s="479"/>
-      <c r="G91" s="567"/>
+        <v>50</v>
+      </c>
+      <c r="B91" s="556"/>
+      <c r="C91" s="556"/>
+      <c r="D91" s="556"/>
+      <c r="E91" s="556"/>
+      <c r="F91" s="556"/>
+      <c r="G91" s="571"/>
       <c r="H91" s="60" t="s">
         <v>29</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>31</v>
       </c>
       <c r="K91" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L91" s="81" t="s">
         <v>43</v>
@@ -7371,7 +7371,7 @@
       <c r="O91" s="40"/>
       <c r="P91" s="132"/>
       <c r="Q91" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R91" s="40" t="s">
         <v>33</v>
@@ -7380,69 +7380,69 @@
         <v>31</v>
       </c>
       <c r="T91" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U91" s="40"/>
       <c r="V91" s="93"/>
       <c r="W91" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="X91" s="290" t="s">
         <v>159</v>
       </c>
-      <c r="X91" s="290" t="s">
-        <v>160</v>
-      </c>
       <c r="Y91" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="478"/>
-      <c r="C92" s="478"/>
-      <c r="D92" s="478"/>
-      <c r="E92" s="478"/>
-      <c r="F92" s="478"/>
-      <c r="G92" s="566" t="s">
-        <v>60</v>
-      </c>
-      <c r="H92" s="565" t="s">
+      <c r="B92" s="555"/>
+      <c r="C92" s="555"/>
+      <c r="D92" s="555"/>
+      <c r="E92" s="555"/>
+      <c r="F92" s="555"/>
+      <c r="G92" s="570" t="s">
+        <v>59</v>
+      </c>
+      <c r="H92" s="496" t="s">
         <v>26</v>
       </c>
-      <c r="I92" s="455"/>
-      <c r="J92" s="456"/>
-      <c r="K92" s="454" t="s">
-        <v>139</v>
-      </c>
-      <c r="L92" s="455"/>
-      <c r="M92" s="456"/>
+      <c r="I92" s="453"/>
+      <c r="J92" s="459"/>
+      <c r="K92" s="458" t="s">
+        <v>138</v>
+      </c>
+      <c r="L92" s="453"/>
+      <c r="M92" s="459"/>
       <c r="N92" s="54"/>
       <c r="O92" s="54"/>
       <c r="P92" s="55"/>
-      <c r="Q92" s="454"/>
-      <c r="R92" s="455"/>
-      <c r="S92" s="455"/>
-      <c r="T92" s="494" t="s">
-        <v>161</v>
-      </c>
-      <c r="U92" s="455"/>
-      <c r="V92" s="456"/>
-      <c r="W92" s="503" t="s">
-        <v>111</v>
-      </c>
-      <c r="X92" s="455"/>
-      <c r="Y92" s="487"/>
+      <c r="Q92" s="458"/>
+      <c r="R92" s="453"/>
+      <c r="S92" s="453"/>
+      <c r="T92" s="593" t="s">
+        <v>160</v>
+      </c>
+      <c r="U92" s="453"/>
+      <c r="V92" s="459"/>
+      <c r="W92" s="452" t="s">
+        <v>110</v>
+      </c>
+      <c r="X92" s="453"/>
+      <c r="Y92" s="454"/>
     </row>
     <row r="93" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="479"/>
-      <c r="C93" s="479"/>
-      <c r="D93" s="479"/>
-      <c r="E93" s="479"/>
-      <c r="F93" s="479"/>
-      <c r="G93" s="567"/>
+        <v>61</v>
+      </c>
+      <c r="B93" s="556"/>
+      <c r="C93" s="556"/>
+      <c r="D93" s="556"/>
+      <c r="E93" s="556"/>
+      <c r="F93" s="556"/>
+      <c r="G93" s="571"/>
       <c r="H93" s="331" t="s">
         <v>29</v>
       </c>
@@ -7450,10 +7450,10 @@
         <v>30</v>
       </c>
       <c r="J93" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K93" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L93" s="81" t="s">
         <v>43</v>
@@ -7467,16 +7467,16 @@
       <c r="Q93" s="68"/>
       <c r="R93" s="40"/>
       <c r="S93" s="93"/>
-      <c r="T93" s="610" t="s">
+      <c r="T93" s="553" t="s">
+        <v>161</v>
+      </c>
+      <c r="U93" s="456"/>
+      <c r="V93" s="554"/>
+      <c r="W93" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="U93" s="458"/>
-      <c r="V93" s="459"/>
-      <c r="W93" s="68" t="s">
+      <c r="X93" s="40" t="s">
         <v>163</v>
-      </c>
-      <c r="X93" s="40" t="s">
-        <v>164</v>
       </c>
       <c r="Y93" s="94" t="s">
         <v>31</v>
@@ -7484,30 +7484,30 @@
     </row>
     <row r="94" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94" s="73"/>
       <c r="C94" s="73"/>
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
       <c r="F94" s="74"/>
-      <c r="G94" s="566" t="s">
-        <v>70</v>
+      <c r="G94" s="570" t="s">
+        <v>69</v>
       </c>
       <c r="H94" s="88"/>
       <c r="I94" s="109"/>
       <c r="J94" s="252"/>
-      <c r="K94" s="454" t="s">
-        <v>139</v>
-      </c>
-      <c r="L94" s="455"/>
-      <c r="M94" s="456"/>
-      <c r="N94" s="470"/>
-      <c r="O94" s="608"/>
-      <c r="P94" s="609"/>
-      <c r="Q94" s="454"/>
-      <c r="R94" s="455"/>
-      <c r="S94" s="455"/>
+      <c r="K94" s="458" t="s">
+        <v>138</v>
+      </c>
+      <c r="L94" s="453"/>
+      <c r="M94" s="459"/>
+      <c r="N94" s="472"/>
+      <c r="O94" s="551"/>
+      <c r="P94" s="552"/>
+      <c r="Q94" s="458"/>
+      <c r="R94" s="453"/>
+      <c r="S94" s="453"/>
       <c r="T94" s="332"/>
       <c r="U94" s="333"/>
       <c r="V94" s="334"/>
@@ -7522,18 +7522,18 @@
       <c r="D95" s="116"/>
       <c r="E95" s="116"/>
       <c r="F95" s="116"/>
-      <c r="G95" s="574"/>
+      <c r="G95" s="578"/>
       <c r="H95" s="337"/>
       <c r="I95" s="338"/>
       <c r="J95" s="217"/>
       <c r="K95" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L95" s="81" t="s">
         <v>43</v>
       </c>
       <c r="M95" s="132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N95" s="339"/>
       <c r="O95" s="340"/>
@@ -7542,13 +7542,13 @@
       <c r="R95" s="119"/>
       <c r="S95" s="171"/>
       <c r="T95" s="342" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U95" s="343" t="s">
         <v>45</v>
       </c>
       <c r="V95" s="344" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W95" s="345"/>
       <c r="X95" s="340"/>
@@ -7556,27 +7556,27 @@
     </row>
     <row r="96" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120"/>
-      <c r="B96" s="480">
+      <c r="B96" s="557">
         <v>11</v>
       </c>
-      <c r="C96" s="480">
+      <c r="C96" s="557">
         <v>11</v>
       </c>
-      <c r="D96" s="480">
+      <c r="D96" s="557">
         <v>8</v>
       </c>
-      <c r="E96" s="480">
+      <c r="E96" s="557">
         <v>6</v>
       </c>
-      <c r="F96" s="480">
+      <c r="F96" s="557">
         <v>3</v>
       </c>
-      <c r="G96" s="587" t="s">
+      <c r="G96" s="573" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="463"/>
-      <c r="I96" s="463"/>
-      <c r="J96" s="463"/>
+      <c r="H96" s="506"/>
+      <c r="I96" s="506"/>
+      <c r="J96" s="506"/>
       <c r="K96" s="125"/>
       <c r="L96" s="123"/>
       <c r="M96" s="124"/>
@@ -7595,12 +7595,12 @@
     </row>
     <row r="97" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="129"/>
-      <c r="B97" s="479"/>
-      <c r="C97" s="479"/>
-      <c r="D97" s="479"/>
-      <c r="E97" s="479"/>
-      <c r="F97" s="479"/>
-      <c r="G97" s="567"/>
+      <c r="B97" s="556"/>
+      <c r="C97" s="556"/>
+      <c r="D97" s="556"/>
+      <c r="E97" s="556"/>
+      <c r="F97" s="556"/>
+      <c r="G97" s="571"/>
       <c r="H97" s="109"/>
       <c r="I97" s="347"/>
       <c r="J97" s="183"/>
@@ -7622,32 +7622,32 @@
     </row>
     <row r="98" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="B98" s="478">
+        <v>74</v>
+      </c>
+      <c r="B98" s="555">
         <v>25</v>
       </c>
-      <c r="C98" s="478">
+      <c r="C98" s="555">
         <v>25</v>
       </c>
-      <c r="D98" s="478">
+      <c r="D98" s="555">
         <v>22</v>
       </c>
-      <c r="E98" s="478">
+      <c r="E98" s="555">
         <v>20</v>
       </c>
-      <c r="F98" s="478"/>
-      <c r="G98" s="566" t="s">
+      <c r="F98" s="555"/>
+      <c r="G98" s="570" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="465"/>
-      <c r="I98" s="465"/>
-      <c r="J98" s="465"/>
-      <c r="K98" s="454" t="s">
-        <v>156</v>
-      </c>
-      <c r="L98" s="455"/>
-      <c r="M98" s="456"/>
+      <c r="H98" s="531"/>
+      <c r="I98" s="531"/>
+      <c r="J98" s="531"/>
+      <c r="K98" s="458" t="s">
+        <v>155</v>
+      </c>
+      <c r="L98" s="453"/>
+      <c r="M98" s="459"/>
       <c r="N98" s="348"/>
       <c r="O98" s="349"/>
       <c r="P98" s="350"/>
@@ -7657,28 +7657,28 @@
       <c r="T98" s="142"/>
       <c r="U98" s="57"/>
       <c r="V98" s="57"/>
-      <c r="W98" s="499"/>
-      <c r="X98" s="500"/>
-      <c r="Y98" s="501"/>
+      <c r="W98" s="475"/>
+      <c r="X98" s="476"/>
+      <c r="Y98" s="477"/>
     </row>
     <row r="99" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="479"/>
-      <c r="C99" s="479"/>
-      <c r="D99" s="479"/>
-      <c r="E99" s="479"/>
-      <c r="F99" s="479"/>
-      <c r="G99" s="567"/>
+        <v>79</v>
+      </c>
+      <c r="B99" s="556"/>
+      <c r="C99" s="556"/>
+      <c r="D99" s="556"/>
+      <c r="E99" s="556"/>
+      <c r="F99" s="556"/>
+      <c r="G99" s="571"/>
       <c r="H99" s="60"/>
       <c r="I99" s="61"/>
       <c r="J99" s="61"/>
       <c r="K99" s="351" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L99" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M99" s="98" t="s">
         <v>31</v>
@@ -7700,61 +7700,61 @@
       <c r="A100" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="478"/>
-      <c r="C100" s="478"/>
-      <c r="D100" s="478"/>
-      <c r="E100" s="478"/>
-      <c r="F100" s="478"/>
-      <c r="G100" s="566" t="s">
+      <c r="B100" s="555"/>
+      <c r="C100" s="555"/>
+      <c r="D100" s="555"/>
+      <c r="E100" s="555"/>
+      <c r="F100" s="555"/>
+      <c r="G100" s="570" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="454" t="s">
-        <v>139</v>
-      </c>
-      <c r="I100" s="455"/>
-      <c r="J100" s="456"/>
-      <c r="K100" s="600" t="s">
-        <v>167</v>
-      </c>
-      <c r="L100" s="601"/>
-      <c r="M100" s="602"/>
-      <c r="N100" s="454"/>
-      <c r="O100" s="455"/>
-      <c r="P100" s="456"/>
-      <c r="Q100" s="470"/>
-      <c r="R100" s="453"/>
-      <c r="S100" s="453"/>
+      <c r="H100" s="458" t="s">
+        <v>138</v>
+      </c>
+      <c r="I100" s="453"/>
+      <c r="J100" s="459"/>
+      <c r="K100" s="495" t="s">
+        <v>166</v>
+      </c>
+      <c r="L100" s="463"/>
+      <c r="M100" s="464"/>
+      <c r="N100" s="458"/>
+      <c r="O100" s="453"/>
+      <c r="P100" s="459"/>
+      <c r="Q100" s="472"/>
+      <c r="R100" s="473"/>
+      <c r="S100" s="473"/>
       <c r="T100" s="357"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="499"/>
-      <c r="X100" s="500"/>
-      <c r="Y100" s="501"/>
+      <c r="W100" s="475"/>
+      <c r="X100" s="476"/>
+      <c r="Y100" s="477"/>
     </row>
     <row r="101" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B101" s="479"/>
-      <c r="C101" s="479"/>
-      <c r="D101" s="479"/>
-      <c r="E101" s="479"/>
-      <c r="F101" s="479"/>
-      <c r="G101" s="567"/>
+        <v>85</v>
+      </c>
+      <c r="B101" s="556"/>
+      <c r="C101" s="556"/>
+      <c r="D101" s="556"/>
+      <c r="E101" s="556"/>
+      <c r="F101" s="556"/>
+      <c r="G101" s="571"/>
       <c r="H101" s="131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I101" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J101" s="98" t="s">
         <v>31</v>
       </c>
       <c r="K101" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L101" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M101" s="98" t="s">
         <v>31</v>
@@ -7781,70 +7781,70 @@
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
       <c r="F102" s="74"/>
-      <c r="G102" s="566" t="s">
-        <v>48</v>
-      </c>
-      <c r="H102" s="454" t="s">
-        <v>139</v>
-      </c>
-      <c r="I102" s="455"/>
-      <c r="J102" s="456"/>
-      <c r="K102" s="600" t="s">
-        <v>167</v>
-      </c>
-      <c r="L102" s="601"/>
-      <c r="M102" s="602"/>
-      <c r="N102" s="470" t="s">
-        <v>150</v>
-      </c>
-      <c r="O102" s="453"/>
-      <c r="P102" s="453"/>
-      <c r="Q102" s="453"/>
-      <c r="R102" s="453"/>
-      <c r="S102" s="453"/>
-      <c r="T102" s="538"/>
-      <c r="U102" s="453"/>
-      <c r="V102" s="453"/>
+      <c r="G102" s="570" t="s">
+        <v>47</v>
+      </c>
+      <c r="H102" s="458" t="s">
+        <v>138</v>
+      </c>
+      <c r="I102" s="453"/>
+      <c r="J102" s="459"/>
+      <c r="K102" s="495" t="s">
+        <v>166</v>
+      </c>
+      <c r="L102" s="463"/>
+      <c r="M102" s="464"/>
+      <c r="N102" s="472" t="s">
+        <v>149</v>
+      </c>
+      <c r="O102" s="473"/>
+      <c r="P102" s="473"/>
+      <c r="Q102" s="473"/>
+      <c r="R102" s="473"/>
+      <c r="S102" s="473"/>
+      <c r="T102" s="564"/>
+      <c r="U102" s="473"/>
+      <c r="V102" s="473"/>
       <c r="W102" s="63"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="358"/>
     </row>
     <row r="103" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B103" s="85"/>
       <c r="C103" s="85"/>
       <c r="D103" s="85"/>
       <c r="E103" s="85"/>
       <c r="F103" s="85"/>
-      <c r="G103" s="567"/>
+      <c r="G103" s="571"/>
       <c r="H103" s="131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I103" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J103" s="98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K103" s="359"/>
       <c r="L103" s="61"/>
       <c r="M103" s="163"/>
       <c r="N103" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O103" s="83"/>
-      <c r="P103" s="477"/>
-      <c r="Q103" s="477"/>
+      <c r="P103" s="492"/>
+      <c r="Q103" s="492"/>
       <c r="R103" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S103" s="43" t="s">
         <v>31</v>
       </c>
       <c r="T103" s="91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U103" s="101"/>
       <c r="V103" s="134"/>
@@ -7854,43 +7854,43 @@
     </row>
     <row r="104" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B104" s="73"/>
       <c r="C104" s="73"/>
       <c r="D104" s="73"/>
       <c r="E104" s="73"/>
       <c r="F104" s="74"/>
-      <c r="G104" s="566" t="s">
-        <v>60</v>
-      </c>
-      <c r="H104" s="452" t="s">
-        <v>78</v>
-      </c>
-      <c r="I104" s="453"/>
-      <c r="J104" s="471"/>
+      <c r="G104" s="570" t="s">
+        <v>59</v>
+      </c>
+      <c r="H104" s="494" t="s">
+        <v>77</v>
+      </c>
+      <c r="I104" s="473"/>
+      <c r="J104" s="485"/>
       <c r="K104" s="360" t="s">
+        <v>51</v>
+      </c>
+      <c r="L104" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="L104" s="597" t="s">
-        <v>53</v>
-      </c>
-      <c r="M104" s="599"/>
-      <c r="N104" s="454" t="s">
+      <c r="M104" s="490"/>
+      <c r="N104" s="458" t="s">
+        <v>149</v>
+      </c>
+      <c r="O104" s="453"/>
+      <c r="P104" s="459"/>
+      <c r="Q104" s="547" t="s">
+        <v>49</v>
+      </c>
+      <c r="R104" s="531"/>
+      <c r="S104" s="531"/>
+      <c r="T104" s="469" t="s">
         <v>150</v>
       </c>
-      <c r="O104" s="455"/>
-      <c r="P104" s="456"/>
-      <c r="Q104" s="464" t="s">
-        <v>50</v>
-      </c>
-      <c r="R104" s="465"/>
-      <c r="S104" s="465"/>
-      <c r="T104" s="489" t="s">
-        <v>151</v>
-      </c>
-      <c r="U104" s="490"/>
-      <c r="V104" s="491"/>
+      <c r="U104" s="470"/>
+      <c r="V104" s="471"/>
       <c r="W104" s="56"/>
       <c r="X104" s="57"/>
       <c r="Y104" s="159"/>
@@ -7902,41 +7902,41 @@
       <c r="D105" s="85"/>
       <c r="E105" s="85"/>
       <c r="F105" s="85"/>
-      <c r="G105" s="567"/>
+      <c r="G105" s="571"/>
       <c r="H105" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I105" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J105" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="486" t="s">
-        <v>170</v>
-      </c>
-      <c r="L105" s="477"/>
-      <c r="M105" s="523"/>
+      <c r="K105" s="491" t="s">
+        <v>169</v>
+      </c>
+      <c r="L105" s="492"/>
+      <c r="M105" s="493"/>
       <c r="N105" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O105" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P105" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q105" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="Q105" s="90" t="s">
-        <v>56</v>
-      </c>
       <c r="R105" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S105" s="4" t="s">
         <v>31</v>
       </c>
       <c r="T105" s="361" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U105" s="190" t="s">
         <v>43</v>
@@ -7955,32 +7955,32 @@
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
       <c r="F106" s="74"/>
-      <c r="G106" s="566" t="s">
-        <v>70</v>
-      </c>
-      <c r="H106" s="452" t="s">
-        <v>78</v>
-      </c>
-      <c r="I106" s="453"/>
-      <c r="J106" s="471"/>
-      <c r="K106" s="470"/>
-      <c r="L106" s="453"/>
-      <c r="M106" s="453"/>
-      <c r="N106" s="454" t="s">
-        <v>171</v>
-      </c>
-      <c r="O106" s="455"/>
-      <c r="P106" s="456"/>
-      <c r="Q106" s="464" t="s">
-        <v>50</v>
-      </c>
-      <c r="R106" s="465"/>
-      <c r="S106" s="465"/>
-      <c r="T106" s="489" t="s">
-        <v>151</v>
-      </c>
-      <c r="U106" s="490"/>
-      <c r="V106" s="491"/>
+      <c r="G106" s="570" t="s">
+        <v>69</v>
+      </c>
+      <c r="H106" s="494" t="s">
+        <v>77</v>
+      </c>
+      <c r="I106" s="473"/>
+      <c r="J106" s="485"/>
+      <c r="K106" s="472"/>
+      <c r="L106" s="473"/>
+      <c r="M106" s="473"/>
+      <c r="N106" s="458" t="s">
+        <v>170</v>
+      </c>
+      <c r="O106" s="453"/>
+      <c r="P106" s="459"/>
+      <c r="Q106" s="547" t="s">
+        <v>49</v>
+      </c>
+      <c r="R106" s="531"/>
+      <c r="S106" s="531"/>
+      <c r="T106" s="469" t="s">
+        <v>150</v>
+      </c>
+      <c r="U106" s="470"/>
+      <c r="V106" s="471"/>
       <c r="W106" s="56"/>
       <c r="X106" s="57"/>
       <c r="Y106" s="58"/>
@@ -7992,45 +7992,45 @@
       <c r="D107" s="116"/>
       <c r="E107" s="116"/>
       <c r="F107" s="116"/>
-      <c r="G107" s="574"/>
+      <c r="G107" s="578"/>
       <c r="H107" s="109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I107" s="240" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J107" s="195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K107" s="218"/>
       <c r="L107" s="171"/>
       <c r="M107" s="171"/>
       <c r="N107" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="O107" s="240" t="s">
+        <v>81</v>
+      </c>
+      <c r="P107" s="195" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q107" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="R107" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="O107" s="240" t="s">
-        <v>82</v>
-      </c>
-      <c r="P107" s="195" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q107" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="R107" s="40" t="s">
-        <v>103</v>
-      </c>
       <c r="S107" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T107" s="361" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U107" s="190" t="s">
         <v>43</v>
       </c>
       <c r="V107" s="362" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W107" s="68"/>
       <c r="X107" s="40"/>
@@ -8038,34 +8038,34 @@
     </row>
     <row r="108" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120"/>
-      <c r="B108" s="480">
+      <c r="B108" s="557">
         <v>12</v>
       </c>
-      <c r="C108" s="480">
+      <c r="C108" s="557">
         <v>12</v>
       </c>
-      <c r="D108" s="480">
+      <c r="D108" s="557">
         <v>9</v>
       </c>
-      <c r="E108" s="480">
+      <c r="E108" s="557">
         <v>7</v>
       </c>
-      <c r="F108" s="480">
+      <c r="F108" s="557">
         <v>4</v>
       </c>
-      <c r="G108" s="587" t="s">
+      <c r="G108" s="573" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="592"/>
-      <c r="I108" s="463"/>
-      <c r="J108" s="593"/>
-      <c r="K108" s="454" t="s">
+      <c r="H108" s="572"/>
+      <c r="I108" s="506"/>
+      <c r="J108" s="507"/>
+      <c r="K108" s="458" t="s">
         <v>27</v>
       </c>
-      <c r="L108" s="455"/>
-      <c r="M108" s="456"/>
+      <c r="L108" s="453"/>
+      <c r="M108" s="459"/>
       <c r="N108" s="363" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O108" s="364"/>
       <c r="P108" s="365"/>
@@ -8081,17 +8081,17 @@
     </row>
     <row r="109" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="178" t="s">
-        <v>97</v>
-      </c>
-      <c r="B109" s="479"/>
-      <c r="C109" s="479"/>
-      <c r="D109" s="479"/>
-      <c r="E109" s="479"/>
-      <c r="F109" s="479"/>
-      <c r="G109" s="567"/>
+        <v>96</v>
+      </c>
+      <c r="B109" s="556"/>
+      <c r="C109" s="556"/>
+      <c r="D109" s="556"/>
+      <c r="E109" s="556"/>
+      <c r="F109" s="556"/>
+      <c r="G109" s="571"/>
       <c r="H109" s="153"/>
-      <c r="I109" s="477"/>
-      <c r="J109" s="523"/>
+      <c r="I109" s="492"/>
+      <c r="J109" s="493"/>
       <c r="K109" s="63" t="s">
         <v>32</v>
       </c>
@@ -8101,9 +8101,9 @@
       <c r="M109" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N109" s="492"/>
-      <c r="O109" s="493"/>
-      <c r="P109" s="611"/>
+      <c r="N109" s="460"/>
+      <c r="O109" s="461"/>
+      <c r="P109" s="462"/>
       <c r="Q109" s="302"/>
       <c r="R109" s="302"/>
       <c r="S109" s="40"/>
@@ -8116,60 +8116,60 @@
     </row>
     <row r="110" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="137"/>
-      <c r="B110" s="478">
+      <c r="B110" s="555">
         <v>26</v>
       </c>
-      <c r="C110" s="478">
+      <c r="C110" s="555">
         <v>26</v>
       </c>
-      <c r="D110" s="478">
+      <c r="D110" s="555">
         <v>23</v>
       </c>
-      <c r="E110" s="478">
+      <c r="E110" s="555">
         <v>21</v>
       </c>
-      <c r="F110" s="478"/>
-      <c r="G110" s="566" t="s">
+      <c r="F110" s="555"/>
+      <c r="G110" s="570" t="s">
         <v>25</v>
       </c>
       <c r="H110" s="369"/>
       <c r="I110" s="370"/>
       <c r="J110" s="371"/>
-      <c r="K110" s="454" t="s">
-        <v>49</v>
-      </c>
-      <c r="L110" s="455"/>
-      <c r="M110" s="456"/>
-      <c r="N110" s="492" t="s">
-        <v>172</v>
-      </c>
-      <c r="O110" s="493"/>
-      <c r="P110" s="611"/>
+      <c r="K110" s="458" t="s">
+        <v>48</v>
+      </c>
+      <c r="L110" s="453"/>
+      <c r="M110" s="459"/>
+      <c r="N110" s="460" t="s">
+        <v>171</v>
+      </c>
+      <c r="O110" s="461"/>
+      <c r="P110" s="462"/>
       <c r="Q110" s="372"/>
       <c r="R110" s="372"/>
       <c r="S110" s="248"/>
       <c r="T110" s="265"/>
-      <c r="U110" s="455"/>
-      <c r="V110" s="455"/>
-      <c r="W110" s="470"/>
-      <c r="X110" s="453"/>
-      <c r="Y110" s="488"/>
+      <c r="U110" s="453"/>
+      <c r="V110" s="453"/>
+      <c r="W110" s="472"/>
+      <c r="X110" s="473"/>
+      <c r="Y110" s="474"/>
     </row>
     <row r="111" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B111" s="479"/>
-      <c r="C111" s="479"/>
-      <c r="D111" s="479"/>
-      <c r="E111" s="479"/>
-      <c r="F111" s="479"/>
-      <c r="G111" s="567"/>
+        <v>85</v>
+      </c>
+      <c r="B111" s="556"/>
+      <c r="C111" s="556"/>
+      <c r="D111" s="556"/>
+      <c r="E111" s="556"/>
+      <c r="F111" s="556"/>
+      <c r="G111" s="571"/>
       <c r="H111" s="373"/>
       <c r="I111" s="70"/>
       <c r="J111" s="98"/>
       <c r="K111" s="88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L111" s="4" t="s">
         <v>30</v>
@@ -8177,11 +8177,11 @@
       <c r="M111" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N111" s="486" t="s">
-        <v>173</v>
-      </c>
-      <c r="O111" s="477"/>
-      <c r="P111" s="523"/>
+      <c r="N111" s="491" t="s">
+        <v>172</v>
+      </c>
+      <c r="O111" s="492"/>
+      <c r="P111" s="493"/>
       <c r="Q111" s="77"/>
       <c r="R111" s="77"/>
       <c r="S111" s="93"/>
@@ -8189,54 +8189,54 @@
       <c r="U111" s="81"/>
       <c r="V111" s="81"/>
       <c r="W111" s="40"/>
-      <c r="X111" s="477"/>
-      <c r="Y111" s="482"/>
+      <c r="X111" s="492"/>
+      <c r="Y111" s="613"/>
     </row>
     <row r="112" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="137"/>
-      <c r="B112" s="478"/>
-      <c r="C112" s="478"/>
-      <c r="D112" s="478"/>
-      <c r="E112" s="478"/>
+      <c r="B112" s="555"/>
+      <c r="C112" s="555"/>
+      <c r="D112" s="555"/>
+      <c r="E112" s="555"/>
       <c r="F112" s="191"/>
-      <c r="G112" s="566" t="s">
+      <c r="G112" s="570" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="565"/>
-      <c r="I112" s="455"/>
-      <c r="J112" s="456"/>
-      <c r="K112" s="454" t="s">
+      <c r="H112" s="496"/>
+      <c r="I112" s="453"/>
+      <c r="J112" s="459"/>
+      <c r="K112" s="458" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="455"/>
-      <c r="M112" s="456"/>
+      <c r="L112" s="453"/>
+      <c r="M112" s="459"/>
       <c r="N112" s="374"/>
       <c r="O112" s="374"/>
       <c r="P112" s="375"/>
       <c r="Q112" s="263" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R112" s="140"/>
       <c r="S112" s="140"/>
       <c r="T112" s="376"/>
-      <c r="U112" s="601"/>
-      <c r="V112" s="602"/>
-      <c r="W112" s="499" t="s">
-        <v>174</v>
-      </c>
-      <c r="X112" s="500"/>
-      <c r="Y112" s="501"/>
+      <c r="U112" s="463"/>
+      <c r="V112" s="464"/>
+      <c r="W112" s="475" t="s">
+        <v>173</v>
+      </c>
+      <c r="X112" s="476"/>
+      <c r="Y112" s="477"/>
     </row>
     <row r="113" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="479"/>
-      <c r="C113" s="479"/>
-      <c r="D113" s="479"/>
-      <c r="E113" s="479"/>
+      <c r="B113" s="556"/>
+      <c r="C113" s="556"/>
+      <c r="D113" s="556"/>
+      <c r="E113" s="556"/>
       <c r="F113" s="38"/>
-      <c r="G113" s="567"/>
+      <c r="G113" s="571"/>
       <c r="H113" s="76"/>
       <c r="I113" s="81"/>
       <c r="J113" s="89"/>
@@ -8246,9 +8246,9 @@
       <c r="N113" s="380"/>
       <c r="O113" s="42"/>
       <c r="P113" s="98"/>
-      <c r="Q113" s="492"/>
-      <c r="R113" s="493"/>
-      <c r="S113" s="493"/>
+      <c r="Q113" s="460"/>
+      <c r="R113" s="461"/>
+      <c r="S113" s="461"/>
       <c r="T113" s="330"/>
       <c r="U113" s="77"/>
       <c r="V113" s="79"/>
@@ -8256,7 +8256,7 @@
         <v>44</v>
       </c>
       <c r="X113" s="145" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y113" s="146" t="s">
         <v>31</v>
@@ -8269,37 +8269,37 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="74"/>
-      <c r="G114" s="566" t="s">
-        <v>48</v>
-      </c>
-      <c r="H114" s="597"/>
-      <c r="I114" s="598"/>
-      <c r="J114" s="599"/>
+      <c r="G114" s="570" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" s="489"/>
+      <c r="I114" s="595"/>
+      <c r="J114" s="490"/>
       <c r="K114" s="360" t="s">
+        <v>51</v>
+      </c>
+      <c r="L114" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="L114" s="597" t="s">
-        <v>53</v>
-      </c>
-      <c r="M114" s="599"/>
-      <c r="N114" s="470" t="s">
-        <v>136</v>
-      </c>
-      <c r="O114" s="453"/>
-      <c r="P114" s="471"/>
-      <c r="Q114" s="492" t="s">
-        <v>84</v>
-      </c>
-      <c r="R114" s="493"/>
-      <c r="S114" s="493"/>
+      <c r="M114" s="490"/>
+      <c r="N114" s="472" t="s">
+        <v>135</v>
+      </c>
+      <c r="O114" s="473"/>
+      <c r="P114" s="485"/>
+      <c r="Q114" s="460" t="s">
+        <v>83</v>
+      </c>
+      <c r="R114" s="461"/>
+      <c r="S114" s="461"/>
       <c r="T114" s="265"/>
-      <c r="U114" s="455"/>
-      <c r="V114" s="456"/>
-      <c r="W114" s="499" t="s">
-        <v>174</v>
-      </c>
-      <c r="X114" s="500"/>
-      <c r="Y114" s="501"/>
+      <c r="U114" s="453"/>
+      <c r="V114" s="459"/>
+      <c r="W114" s="475" t="s">
+        <v>173</v>
+      </c>
+      <c r="X114" s="476"/>
+      <c r="Y114" s="477"/>
     </row>
     <row r="115" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="137" t="s">
@@ -8310,29 +8310,29 @@
       <c r="D115" s="85"/>
       <c r="E115" s="85"/>
       <c r="F115" s="85"/>
-      <c r="G115" s="567"/>
+      <c r="G115" s="571"/>
       <c r="H115" s="78"/>
       <c r="I115" s="77"/>
       <c r="J115" s="89"/>
-      <c r="K115" s="637" t="s">
-        <v>175</v>
-      </c>
-      <c r="L115" s="618"/>
-      <c r="M115" s="619"/>
+      <c r="K115" s="486" t="s">
+        <v>174</v>
+      </c>
+      <c r="L115" s="487"/>
+      <c r="M115" s="488"/>
       <c r="N115" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P115" s="295" t="s">
         <v>31</v>
       </c>
-      <c r="Q115" s="486" t="s">
-        <v>176</v>
-      </c>
-      <c r="R115" s="477"/>
-      <c r="S115" s="477"/>
+      <c r="Q115" s="491" t="s">
+        <v>175</v>
+      </c>
+      <c r="R115" s="492"/>
+      <c r="S115" s="492"/>
       <c r="T115" s="326"/>
       <c r="U115" s="81"/>
       <c r="V115" s="89"/>
@@ -8340,10 +8340,10 @@
         <v>44</v>
       </c>
       <c r="X115" s="145" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y115" s="146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -8353,40 +8353,40 @@
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
       <c r="F116" s="74"/>
-      <c r="G116" s="566" t="s">
-        <v>60</v>
+      <c r="G116" s="570" t="s">
+        <v>59</v>
       </c>
       <c r="H116" s="381"/>
       <c r="I116" s="249"/>
       <c r="J116" s="292"/>
-      <c r="K116" s="454"/>
-      <c r="L116" s="455"/>
-      <c r="M116" s="455"/>
-      <c r="N116" s="470" t="s">
-        <v>136</v>
-      </c>
-      <c r="O116" s="453"/>
-      <c r="P116" s="471"/>
-      <c r="Q116" s="510"/>
-      <c r="R116" s="511"/>
-      <c r="S116" s="511"/>
-      <c r="T116" s="489"/>
-      <c r="U116" s="490"/>
-      <c r="V116" s="491"/>
-      <c r="W116" s="511"/>
-      <c r="X116" s="511"/>
-      <c r="Y116" s="512"/>
+      <c r="K116" s="458"/>
+      <c r="L116" s="453"/>
+      <c r="M116" s="453"/>
+      <c r="N116" s="472" t="s">
+        <v>135</v>
+      </c>
+      <c r="O116" s="473"/>
+      <c r="P116" s="485"/>
+      <c r="Q116" s="512"/>
+      <c r="R116" s="465"/>
+      <c r="S116" s="465"/>
+      <c r="T116" s="469"/>
+      <c r="U116" s="470"/>
+      <c r="V116" s="471"/>
+      <c r="W116" s="465"/>
+      <c r="X116" s="465"/>
+      <c r="Y116" s="466"/>
     </row>
     <row r="117" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="85"/>
       <c r="C117" s="85"/>
       <c r="D117" s="85"/>
       <c r="E117" s="85"/>
       <c r="F117" s="85"/>
-      <c r="G117" s="567"/>
+      <c r="G117" s="571"/>
       <c r="H117" s="80"/>
       <c r="I117" s="81"/>
       <c r="J117" s="89"/>
@@ -8394,23 +8394,23 @@
       <c r="L117" s="382"/>
       <c r="M117" s="383"/>
       <c r="N117" s="80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P117" s="303" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q117" s="513"/>
-      <c r="R117" s="514"/>
-      <c r="S117" s="514"/>
+      <c r="R117" s="467"/>
+      <c r="S117" s="467"/>
       <c r="T117" s="361"/>
       <c r="U117" s="190"/>
       <c r="V117" s="362"/>
-      <c r="W117" s="514"/>
-      <c r="X117" s="514"/>
-      <c r="Y117" s="515"/>
+      <c r="W117" s="467"/>
+      <c r="X117" s="467"/>
+      <c r="Y117" s="468"/>
     </row>
     <row r="118" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="137"/>
@@ -8419,21 +8419,21 @@
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
       <c r="F118" s="74"/>
-      <c r="G118" s="566" t="s">
-        <v>70</v>
-      </c>
-      <c r="K118" s="454"/>
-      <c r="L118" s="455"/>
-      <c r="M118" s="455"/>
+      <c r="G118" s="570" t="s">
+        <v>69</v>
+      </c>
+      <c r="K118" s="458"/>
+      <c r="L118" s="453"/>
+      <c r="M118" s="453"/>
       <c r="N118" s="381"/>
       <c r="O118" s="249"/>
       <c r="P118" s="292"/>
       <c r="Q118" s="63"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="507"/>
-      <c r="U118" s="508"/>
-      <c r="V118" s="509"/>
+      <c r="T118" s="561"/>
+      <c r="U118" s="562"/>
+      <c r="V118" s="563"/>
       <c r="W118" s="63"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="358"/>
@@ -8445,7 +8445,7 @@
       <c r="D119" s="116"/>
       <c r="E119" s="116"/>
       <c r="F119" s="116"/>
-      <c r="G119" s="574"/>
+      <c r="G119" s="578"/>
       <c r="K119" s="63"/>
       <c r="L119" s="134"/>
       <c r="M119" s="134"/>
@@ -8464,51 +8464,51 @@
     </row>
     <row r="120" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A120" s="120"/>
-      <c r="B120" s="480">
+      <c r="B120" s="557">
         <v>13</v>
       </c>
-      <c r="C120" s="575">
+      <c r="C120" s="581">
         <v>13</v>
       </c>
-      <c r="D120" s="480">
+      <c r="D120" s="557">
         <v>10</v>
       </c>
-      <c r="E120" s="575">
+      <c r="E120" s="581">
         <v>8</v>
       </c>
-      <c r="F120" s="480">
+      <c r="F120" s="557">
         <v>5</v>
       </c>
-      <c r="G120" s="587" t="s">
+      <c r="G120" s="573" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="624"/>
-      <c r="I120" s="625"/>
-      <c r="J120" s="626"/>
-      <c r="K120" s="462"/>
-      <c r="L120" s="463"/>
-      <c r="M120" s="603"/>
+      <c r="H120" s="537"/>
+      <c r="I120" s="538"/>
+      <c r="J120" s="539"/>
+      <c r="K120" s="505"/>
+      <c r="L120" s="506"/>
+      <c r="M120" s="565"/>
       <c r="N120" s="110"/>
       <c r="O120" s="111"/>
       <c r="P120" s="155"/>
       <c r="Q120" s="110"/>
       <c r="R120" s="111"/>
       <c r="S120" s="111"/>
-      <c r="T120" s="561"/>
-      <c r="U120" s="562"/>
-      <c r="V120" s="563"/>
+      <c r="T120" s="520"/>
+      <c r="U120" s="521"/>
+      <c r="V120" s="522"/>
       <c r="W120" s="110"/>
       <c r="X120" s="111"/>
       <c r="Y120" s="225"/>
     </row>
     <row r="121" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="178"/>
-      <c r="B121" s="479"/>
-      <c r="C121" s="573"/>
-      <c r="D121" s="479"/>
-      <c r="E121" s="573"/>
-      <c r="F121" s="479"/>
-      <c r="G121" s="567"/>
+      <c r="B121" s="556"/>
+      <c r="C121" s="582"/>
+      <c r="D121" s="556"/>
+      <c r="E121" s="582"/>
+      <c r="F121" s="556"/>
+      <c r="G121" s="571"/>
       <c r="H121" s="388"/>
       <c r="I121" s="389"/>
       <c r="J121" s="390"/>
@@ -8530,41 +8530,41 @@
     </row>
     <row r="122" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="178" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="572">
+        <v>116</v>
+      </c>
+      <c r="B122" s="585">
         <v>27</v>
       </c>
-      <c r="C122" s="478">
+      <c r="C122" s="555">
         <v>27</v>
       </c>
-      <c r="D122" s="478">
+      <c r="D122" s="555">
         <v>24</v>
       </c>
-      <c r="E122" s="478">
+      <c r="E122" s="555">
         <v>22</v>
       </c>
       <c r="F122" s="49"/>
-      <c r="G122" s="566" t="s">
+      <c r="G122" s="570" t="s">
         <v>25</v>
       </c>
-      <c r="H122" s="621"/>
-      <c r="I122" s="484"/>
-      <c r="J122" s="485"/>
-      <c r="K122" s="470" t="s">
+      <c r="H122" s="524"/>
+      <c r="I122" s="525"/>
+      <c r="J122" s="526"/>
+      <c r="K122" s="472" t="s">
         <v>37</v>
       </c>
-      <c r="L122" s="453"/>
-      <c r="M122" s="471"/>
+      <c r="L122" s="473"/>
+      <c r="M122" s="485"/>
       <c r="N122" s="54"/>
       <c r="O122" s="54"/>
       <c r="P122" s="54"/>
       <c r="Q122" s="56"/>
       <c r="R122" s="57"/>
       <c r="S122" s="57"/>
-      <c r="T122" s="520"/>
-      <c r="U122" s="521"/>
-      <c r="V122" s="522"/>
+      <c r="T122" s="517"/>
+      <c r="U122" s="518"/>
+      <c r="V122" s="519"/>
       <c r="W122" s="56"/>
       <c r="X122" s="57"/>
       <c r="Y122" s="58"/>
@@ -8573,12 +8573,12 @@
       <c r="A123" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="573"/>
-      <c r="C123" s="479"/>
-      <c r="D123" s="479"/>
-      <c r="E123" s="479"/>
+      <c r="B123" s="582"/>
+      <c r="C123" s="556"/>
+      <c r="D123" s="556"/>
+      <c r="E123" s="556"/>
       <c r="F123" s="38"/>
-      <c r="G123" s="567"/>
+      <c r="G123" s="571"/>
       <c r="H123" s="391"/>
       <c r="I123" s="392"/>
       <c r="J123" s="393"/>
@@ -8586,7 +8586,7 @@
         <v>29</v>
       </c>
       <c r="L123" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M123" s="79" t="s">
         <v>31</v>
@@ -8606,49 +8606,49 @@
     </row>
     <row r="124" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="B124" s="478"/>
-      <c r="C124" s="478"/>
-      <c r="D124" s="478"/>
-      <c r="E124" s="478"/>
-      <c r="F124" s="478"/>
-      <c r="G124" s="566" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124" s="555"/>
+      <c r="C124" s="555"/>
+      <c r="D124" s="555"/>
+      <c r="E124" s="555"/>
+      <c r="F124" s="555"/>
+      <c r="G124" s="570" t="s">
         <v>35</v>
       </c>
       <c r="H124" s="394"/>
       <c r="I124" s="395"/>
       <c r="J124" s="396"/>
-      <c r="K124" s="470" t="s">
+      <c r="K124" s="472" t="s">
         <v>37</v>
       </c>
-      <c r="L124" s="453"/>
-      <c r="M124" s="471"/>
+      <c r="L124" s="473"/>
+      <c r="M124" s="485"/>
       <c r="N124" s="54"/>
       <c r="O124" s="54"/>
       <c r="P124" s="54"/>
-      <c r="Q124" s="470" t="s">
-        <v>119</v>
-      </c>
-      <c r="R124" s="453"/>
-      <c r="S124" s="453"/>
-      <c r="T124" s="520"/>
-      <c r="U124" s="521"/>
-      <c r="V124" s="522"/>
+      <c r="Q124" s="472" t="s">
+        <v>118</v>
+      </c>
+      <c r="R124" s="473"/>
+      <c r="S124" s="473"/>
+      <c r="T124" s="517"/>
+      <c r="U124" s="518"/>
+      <c r="V124" s="519"/>
       <c r="W124" s="397"/>
       <c r="X124" s="4"/>
       <c r="Y124" s="358"/>
     </row>
     <row r="125" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="B125" s="479"/>
-      <c r="C125" s="479"/>
-      <c r="D125" s="479"/>
-      <c r="E125" s="479"/>
-      <c r="F125" s="479"/>
-      <c r="G125" s="567"/>
+        <v>74</v>
+      </c>
+      <c r="B125" s="556"/>
+      <c r="C125" s="556"/>
+      <c r="D125" s="556"/>
+      <c r="E125" s="556"/>
+      <c r="F125" s="556"/>
+      <c r="G125" s="571"/>
       <c r="H125" s="398"/>
       <c r="I125" s="399"/>
       <c r="J125" s="400"/>
@@ -8659,7 +8659,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R125" s="77" t="s">
         <v>45</v>
@@ -8678,56 +8678,56 @@
       <c r="A126" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="478"/>
-      <c r="C126" s="478"/>
-      <c r="D126" s="478"/>
-      <c r="E126" s="478"/>
-      <c r="F126" s="478"/>
-      <c r="G126" s="566" t="s">
-        <v>48</v>
-      </c>
-      <c r="H126" s="565" t="s">
+      <c r="B126" s="555"/>
+      <c r="C126" s="555"/>
+      <c r="D126" s="555"/>
+      <c r="E126" s="555"/>
+      <c r="F126" s="555"/>
+      <c r="G126" s="570" t="s">
+        <v>47</v>
+      </c>
+      <c r="H126" s="496" t="s">
         <v>37</v>
       </c>
-      <c r="I126" s="455"/>
-      <c r="J126" s="456"/>
+      <c r="I126" s="453"/>
+      <c r="J126" s="459"/>
       <c r="K126" s="360" t="s">
+        <v>51</v>
+      </c>
+      <c r="L126" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="L126" s="597" t="s">
-        <v>53</v>
-      </c>
-      <c r="M126" s="599"/>
+      <c r="M126" s="490"/>
       <c r="N126" s="54"/>
       <c r="O126" s="54"/>
       <c r="P126" s="54"/>
-      <c r="Q126" s="470" t="s">
-        <v>119</v>
-      </c>
-      <c r="R126" s="453"/>
-      <c r="S126" s="453"/>
-      <c r="T126" s="561"/>
-      <c r="U126" s="562"/>
-      <c r="V126" s="563"/>
+      <c r="Q126" s="472" t="s">
+        <v>118</v>
+      </c>
+      <c r="R126" s="473"/>
+      <c r="S126" s="473"/>
+      <c r="T126" s="520"/>
+      <c r="U126" s="521"/>
+      <c r="V126" s="522"/>
       <c r="W126" s="53"/>
       <c r="X126" s="54"/>
       <c r="Y126" s="401"/>
     </row>
     <row r="127" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B127" s="479"/>
-      <c r="C127" s="479"/>
-      <c r="D127" s="479"/>
-      <c r="E127" s="479"/>
-      <c r="F127" s="479"/>
-      <c r="G127" s="567"/>
+        <v>85</v>
+      </c>
+      <c r="B127" s="556"/>
+      <c r="C127" s="556"/>
+      <c r="D127" s="556"/>
+      <c r="E127" s="556"/>
+      <c r="F127" s="556"/>
+      <c r="G127" s="571"/>
       <c r="H127" s="131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I127" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J127" s="84" t="s">
         <v>31</v>
@@ -8736,22 +8736,22 @@
         <v>29</v>
       </c>
       <c r="L127" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M127" s="132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N127" s="40"/>
       <c r="O127" s="40"/>
       <c r="P127" s="93"/>
       <c r="Q127" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R127" s="77" t="s">
         <v>45</v>
       </c>
       <c r="S127" s="77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T127" s="204"/>
       <c r="U127" s="213"/>
@@ -8762,33 +8762,33 @@
     </row>
     <row r="128" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" s="73"/>
       <c r="C128" s="73"/>
       <c r="D128" s="73"/>
       <c r="E128" s="73"/>
       <c r="F128" s="73"/>
-      <c r="G128" s="566" t="s">
-        <v>60</v>
-      </c>
-      <c r="H128" s="569" t="s">
-        <v>118</v>
-      </c>
-      <c r="I128" s="465"/>
-      <c r="J128" s="549"/>
+      <c r="G128" s="570" t="s">
+        <v>59</v>
+      </c>
+      <c r="H128" s="530" t="s">
+        <v>117</v>
+      </c>
+      <c r="I128" s="531"/>
+      <c r="J128" s="532"/>
       <c r="K128" s="56"/>
       <c r="L128" s="57"/>
       <c r="M128" s="402"/>
-      <c r="N128" s="622"/>
-      <c r="O128" s="583"/>
-      <c r="P128" s="584"/>
+      <c r="N128" s="533"/>
+      <c r="O128" s="528"/>
+      <c r="P128" s="529"/>
       <c r="Q128" s="403"/>
       <c r="R128" s="207"/>
       <c r="S128" s="207"/>
-      <c r="T128" s="520"/>
-      <c r="U128" s="521"/>
-      <c r="V128" s="522"/>
+      <c r="T128" s="517"/>
+      <c r="U128" s="518"/>
+      <c r="V128" s="519"/>
       <c r="W128" s="403"/>
       <c r="X128" s="207"/>
       <c r="Y128" s="404"/>
@@ -8800,14 +8800,14 @@
       <c r="D129" s="75"/>
       <c r="E129" s="75"/>
       <c r="F129" s="75"/>
-      <c r="G129" s="567"/>
+      <c r="G129" s="571"/>
       <c r="H129" s="234" t="s">
-        <v>58</v>
-      </c>
-      <c r="I129" s="460" t="s">
-        <v>120</v>
-      </c>
-      <c r="J129" s="461"/>
+        <v>57</v>
+      </c>
+      <c r="I129" s="540" t="s">
+        <v>119</v>
+      </c>
+      <c r="J129" s="541"/>
       <c r="K129" s="80"/>
       <c r="L129" s="81"/>
       <c r="M129" s="89"/>
@@ -8831,14 +8831,14 @@
       <c r="D130" s="73"/>
       <c r="E130" s="73"/>
       <c r="F130" s="74"/>
-      <c r="G130" s="566" t="s">
-        <v>70</v>
-      </c>
-      <c r="H130" s="569" t="s">
-        <v>118</v>
-      </c>
-      <c r="I130" s="465"/>
-      <c r="J130" s="549"/>
+      <c r="G130" s="570" t="s">
+        <v>69</v>
+      </c>
+      <c r="H130" s="530" t="s">
+        <v>117</v>
+      </c>
+      <c r="I130" s="531"/>
+      <c r="J130" s="532"/>
       <c r="K130" s="88"/>
       <c r="L130" s="109"/>
       <c r="M130" s="252"/>
@@ -8848,9 +8848,9 @@
       <c r="Q130" s="56"/>
       <c r="R130" s="57"/>
       <c r="S130" s="57"/>
-      <c r="T130" s="520"/>
-      <c r="U130" s="521"/>
-      <c r="V130" s="522"/>
+      <c r="T130" s="517"/>
+      <c r="U130" s="518"/>
+      <c r="V130" s="519"/>
       <c r="W130" s="56"/>
       <c r="X130" s="57"/>
       <c r="Y130" s="58"/>
@@ -8862,14 +8862,14 @@
       <c r="D131" s="250"/>
       <c r="E131" s="250"/>
       <c r="F131" s="250"/>
-      <c r="G131" s="574"/>
+      <c r="G131" s="578"/>
       <c r="H131" s="234" t="s">
-        <v>58</v>
-      </c>
-      <c r="I131" s="460" t="s">
-        <v>177</v>
-      </c>
-      <c r="J131" s="461"/>
+        <v>57</v>
+      </c>
+      <c r="I131" s="540" t="s">
+        <v>176</v>
+      </c>
+      <c r="J131" s="541"/>
       <c r="K131" s="337"/>
       <c r="L131" s="338"/>
       <c r="M131" s="217"/>
@@ -8888,32 +8888,32 @@
     </row>
     <row r="132" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A132" s="120"/>
-      <c r="B132" s="480">
+      <c r="B132" s="557">
         <v>14</v>
       </c>
-      <c r="C132" s="480">
+      <c r="C132" s="557">
         <v>14</v>
       </c>
-      <c r="D132" s="480">
+      <c r="D132" s="557">
         <v>11</v>
       </c>
-      <c r="E132" s="553">
+      <c r="E132" s="583">
         <v>9</v>
       </c>
-      <c r="F132" s="480">
+      <c r="F132" s="557">
         <v>6</v>
       </c>
-      <c r="G132" s="587" t="s">
+      <c r="G132" s="573" t="s">
         <v>22</v>
       </c>
       <c r="H132" s="280"/>
       <c r="I132" s="281"/>
       <c r="J132" s="318"/>
-      <c r="K132" s="462" t="s">
-        <v>124</v>
-      </c>
-      <c r="L132" s="463"/>
-      <c r="M132" s="593"/>
+      <c r="K132" s="505" t="s">
+        <v>123</v>
+      </c>
+      <c r="L132" s="506"/>
+      <c r="M132" s="507"/>
       <c r="N132" s="53"/>
       <c r="O132" s="411"/>
       <c r="P132" s="412"/>
@@ -8929,20 +8929,20 @@
     </row>
     <row r="133" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="178"/>
-      <c r="B133" s="479"/>
-      <c r="C133" s="479"/>
-      <c r="D133" s="479"/>
-      <c r="E133" s="554"/>
-      <c r="F133" s="479"/>
-      <c r="G133" s="567"/>
+      <c r="B133" s="556"/>
+      <c r="C133" s="556"/>
+      <c r="D133" s="556"/>
+      <c r="E133" s="584"/>
+      <c r="F133" s="556"/>
+      <c r="G133" s="571"/>
       <c r="H133" s="88"/>
       <c r="I133" s="109"/>
       <c r="J133" s="64"/>
       <c r="K133" s="109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L133" s="109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M133" s="252" t="s">
         <v>31</v>
@@ -8964,79 +8964,79 @@
       <c r="A134" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B134" s="478">
+      <c r="B134" s="555">
         <v>28</v>
       </c>
-      <c r="C134" s="478">
+      <c r="C134" s="555">
         <v>28</v>
       </c>
-      <c r="D134" s="478">
+      <c r="D134" s="555">
         <v>25</v>
       </c>
-      <c r="E134" s="478">
+      <c r="E134" s="555">
         <v>23</v>
       </c>
-      <c r="F134" s="478"/>
-      <c r="G134" s="566" t="s">
+      <c r="F134" s="555"/>
+      <c r="G134" s="570" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="569" t="s">
-        <v>99</v>
-      </c>
-      <c r="I134" s="465"/>
-      <c r="J134" s="549"/>
-      <c r="K134" s="454" t="s">
-        <v>124</v>
-      </c>
-      <c r="L134" s="455"/>
-      <c r="M134" s="456"/>
-      <c r="N134" s="470" t="s">
-        <v>96</v>
-      </c>
-      <c r="O134" s="453"/>
-      <c r="P134" s="453"/>
-      <c r="Q134" s="453"/>
-      <c r="R134" s="453"/>
-      <c r="S134" s="453"/>
-      <c r="T134" s="520"/>
-      <c r="U134" s="521"/>
-      <c r="V134" s="522"/>
-      <c r="W134" s="454"/>
-      <c r="X134" s="455"/>
-      <c r="Y134" s="487"/>
+      <c r="H134" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="I134" s="531"/>
+      <c r="J134" s="532"/>
+      <c r="K134" s="458" t="s">
+        <v>123</v>
+      </c>
+      <c r="L134" s="453"/>
+      <c r="M134" s="459"/>
+      <c r="N134" s="472" t="s">
+        <v>95</v>
+      </c>
+      <c r="O134" s="473"/>
+      <c r="P134" s="473"/>
+      <c r="Q134" s="473"/>
+      <c r="R134" s="473"/>
+      <c r="S134" s="473"/>
+      <c r="T134" s="517"/>
+      <c r="U134" s="518"/>
+      <c r="V134" s="519"/>
+      <c r="W134" s="458"/>
+      <c r="X134" s="453"/>
+      <c r="Y134" s="454"/>
     </row>
     <row r="135" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="B135" s="479"/>
-      <c r="C135" s="479"/>
-      <c r="D135" s="479"/>
-      <c r="E135" s="479"/>
-      <c r="F135" s="479"/>
-      <c r="G135" s="567"/>
+        <v>140</v>
+      </c>
+      <c r="B135" s="556"/>
+      <c r="C135" s="556"/>
+      <c r="D135" s="556"/>
+      <c r="E135" s="556"/>
+      <c r="F135" s="556"/>
+      <c r="G135" s="571"/>
       <c r="H135" s="184" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I135" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J135" s="186" t="s">
         <v>31</v>
       </c>
       <c r="K135" s="360" t="s">
+        <v>51</v>
+      </c>
+      <c r="L135" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="L135" s="597" t="s">
-        <v>53</v>
-      </c>
-      <c r="M135" s="599"/>
+      <c r="M135" s="490"/>
       <c r="N135" s="68" t="s">
         <v>42</v>
       </c>
       <c r="O135" s="40"/>
-      <c r="P135" s="477"/>
-      <c r="Q135" s="477"/>
+      <c r="P135" s="492"/>
+      <c r="Q135" s="492"/>
       <c r="R135" s="83" t="s">
         <v>43</v>
       </c>
@@ -9052,42 +9052,42 @@
     </row>
     <row r="136" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="B136" s="478"/>
-      <c r="C136" s="478"/>
-      <c r="D136" s="478"/>
-      <c r="E136" s="478"/>
-      <c r="F136" s="478"/>
-      <c r="G136" s="566" t="s">
+        <v>79</v>
+      </c>
+      <c r="B136" s="555"/>
+      <c r="C136" s="555"/>
+      <c r="D136" s="555"/>
+      <c r="E136" s="555"/>
+      <c r="F136" s="555"/>
+      <c r="G136" s="570" t="s">
         <v>35</v>
       </c>
-      <c r="H136" s="582" t="s">
-        <v>115</v>
-      </c>
-      <c r="I136" s="583"/>
-      <c r="J136" s="584"/>
+      <c r="H136" s="527" t="s">
+        <v>114</v>
+      </c>
+      <c r="I136" s="528"/>
+      <c r="J136" s="529"/>
       <c r="K136" s="359"/>
       <c r="L136" s="61"/>
       <c r="M136" s="62"/>
-      <c r="N136" s="454" t="s">
-        <v>96</v>
-      </c>
-      <c r="O136" s="455"/>
-      <c r="P136" s="456"/>
-      <c r="Q136" s="454" t="s">
-        <v>100</v>
-      </c>
-      <c r="R136" s="455"/>
-      <c r="S136" s="455"/>
-      <c r="T136" s="520"/>
-      <c r="U136" s="521"/>
-      <c r="V136" s="522"/>
+      <c r="N136" s="458" t="s">
+        <v>95</v>
+      </c>
+      <c r="O136" s="453"/>
+      <c r="P136" s="459"/>
+      <c r="Q136" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="R136" s="453"/>
+      <c r="S136" s="453"/>
+      <c r="T136" s="517"/>
+      <c r="U136" s="518"/>
+      <c r="V136" s="519"/>
       <c r="W136" s="419" t="s">
+        <v>177</v>
+      </c>
+      <c r="X136" s="411" t="s">
         <v>178</v>
-      </c>
-      <c r="X136" s="411" t="s">
-        <v>179</v>
       </c>
       <c r="Y136" s="401"/>
     </row>
@@ -9095,29 +9095,29 @@
       <c r="A137" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="479"/>
-      <c r="C137" s="479"/>
-      <c r="D137" s="479"/>
-      <c r="E137" s="479"/>
-      <c r="F137" s="479"/>
-      <c r="G137" s="567"/>
+      <c r="B137" s="556"/>
+      <c r="C137" s="556"/>
+      <c r="D137" s="556"/>
+      <c r="E137" s="556"/>
+      <c r="F137" s="556"/>
+      <c r="G137" s="571"/>
       <c r="H137" s="131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I137" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J137" s="186" t="s">
         <v>31</v>
       </c>
       <c r="K137" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L137" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M137" s="183" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N137" s="68" t="s">
         <v>42</v>
@@ -9126,13 +9126,13 @@
         <v>43</v>
       </c>
       <c r="P137" s="93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q137" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="R137" s="190" t="s">
         <v>102</v>
-      </c>
-      <c r="R137" s="190" t="s">
-        <v>103</v>
       </c>
       <c r="S137" s="134" t="s">
         <v>31</v>
@@ -9141,72 +9141,72 @@
       <c r="U137" s="205"/>
       <c r="V137" s="418"/>
       <c r="W137" s="420" t="s">
+        <v>180</v>
+      </c>
+      <c r="X137" s="232" t="s">
         <v>181</v>
-      </c>
-      <c r="X137" s="232" t="s">
-        <v>182</v>
       </c>
       <c r="Y137" s="198"/>
     </row>
     <row r="138" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B138" s="73"/>
       <c r="C138" s="73"/>
       <c r="D138" s="73"/>
       <c r="E138" s="73"/>
       <c r="F138" s="74"/>
-      <c r="G138" s="566" t="s">
-        <v>48</v>
-      </c>
-      <c r="H138" s="582" t="s">
-        <v>115</v>
-      </c>
-      <c r="I138" s="583"/>
-      <c r="J138" s="584"/>
+      <c r="G138" s="570" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138" s="527" t="s">
+        <v>114</v>
+      </c>
+      <c r="I138" s="528"/>
+      <c r="J138" s="529"/>
       <c r="K138" s="249"/>
       <c r="L138" s="4"/>
       <c r="M138" s="64"/>
-      <c r="N138" s="454" t="s">
+      <c r="N138" s="458" t="s">
         <v>38</v>
       </c>
-      <c r="O138" s="455"/>
-      <c r="P138" s="456"/>
-      <c r="Q138" s="454" t="s">
-        <v>100</v>
-      </c>
-      <c r="R138" s="455"/>
-      <c r="S138" s="455"/>
-      <c r="T138" s="483"/>
-      <c r="U138" s="484"/>
-      <c r="V138" s="485"/>
+      <c r="O138" s="453"/>
+      <c r="P138" s="459"/>
+      <c r="Q138" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="R138" s="453"/>
+      <c r="S138" s="453"/>
+      <c r="T138" s="627"/>
+      <c r="U138" s="525"/>
+      <c r="V138" s="526"/>
       <c r="W138" s="421" t="s">
+        <v>182</v>
+      </c>
+      <c r="X138" s="626" t="s">
         <v>183</v>
       </c>
-      <c r="X138" s="498" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y138" s="481"/>
+      <c r="Y138" s="457"/>
     </row>
     <row r="139" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="75"/>
       <c r="C139" s="75"/>
       <c r="D139" s="75"/>
       <c r="E139" s="75"/>
       <c r="F139" s="75"/>
-      <c r="G139" s="567"/>
+      <c r="G139" s="571"/>
       <c r="H139" s="131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I139" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J139" s="186" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139" s="81"/>
       <c r="L139" s="81"/>
@@ -9221,61 +9221,61 @@
         <v>31</v>
       </c>
       <c r="Q139" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="R139" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="R139" s="190" t="s">
-        <v>103</v>
-      </c>
       <c r="S139" s="134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T139" s="91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U139" s="205"/>
       <c r="V139" s="418"/>
-      <c r="W139" s="486" t="s">
-        <v>185</v>
-      </c>
-      <c r="X139" s="477"/>
-      <c r="Y139" s="482"/>
+      <c r="W139" s="491" t="s">
+        <v>184</v>
+      </c>
+      <c r="X139" s="492"/>
+      <c r="Y139" s="613"/>
     </row>
     <row r="140" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B140" s="73"/>
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
       <c r="F140" s="74"/>
-      <c r="G140" s="566" t="s">
-        <v>60</v>
-      </c>
-      <c r="H140" s="464"/>
-      <c r="I140" s="465"/>
-      <c r="J140" s="549"/>
+      <c r="G140" s="570" t="s">
+        <v>59</v>
+      </c>
+      <c r="H140" s="547"/>
+      <c r="I140" s="531"/>
+      <c r="J140" s="532"/>
       <c r="K140" s="249"/>
       <c r="L140" s="249"/>
       <c r="M140" s="292"/>
-      <c r="N140" s="470" t="s">
+      <c r="N140" s="472" t="s">
+        <v>185</v>
+      </c>
+      <c r="O140" s="473"/>
+      <c r="P140" s="473"/>
+      <c r="Q140" s="473"/>
+      <c r="R140" s="473"/>
+      <c r="S140" s="473"/>
+      <c r="T140" s="469" t="s">
+        <v>147</v>
+      </c>
+      <c r="U140" s="470"/>
+      <c r="V140" s="471"/>
+      <c r="W140" s="458" t="s">
         <v>186</v>
       </c>
-      <c r="O140" s="453"/>
-      <c r="P140" s="453"/>
-      <c r="Q140" s="453"/>
-      <c r="R140" s="453"/>
-      <c r="S140" s="453"/>
-      <c r="T140" s="489" t="s">
-        <v>148</v>
-      </c>
-      <c r="U140" s="490"/>
-      <c r="V140" s="491"/>
-      <c r="W140" s="454" t="s">
-        <v>187</v>
-      </c>
-      <c r="X140" s="455"/>
-      <c r="Y140" s="487"/>
+      <c r="X140" s="453"/>
+      <c r="Y140" s="454"/>
     </row>
     <row r="141" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="137"/>
@@ -9284,7 +9284,7 @@
       <c r="D141" s="75"/>
       <c r="E141" s="75"/>
       <c r="F141" s="75"/>
-      <c r="G141" s="567"/>
+      <c r="G141" s="571"/>
       <c r="H141" s="68"/>
       <c r="I141" s="40"/>
       <c r="J141" s="89"/>
@@ -9292,34 +9292,34 @@
       <c r="L141" s="81"/>
       <c r="M141" s="89"/>
       <c r="N141" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O141" s="228"/>
-      <c r="P141" s="618"/>
-      <c r="Q141" s="618"/>
+      <c r="P141" s="487"/>
+      <c r="Q141" s="487"/>
       <c r="R141" s="93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S141" s="93" t="s">
         <v>31</v>
       </c>
       <c r="T141" s="361" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U141" s="190" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V141" s="362" t="s">
         <v>31</v>
       </c>
       <c r="W141" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X141" s="81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y141" s="422" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9329,12 +9329,12 @@
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
       <c r="F142" s="74"/>
-      <c r="G142" s="566" t="s">
-        <v>70</v>
-      </c>
-      <c r="H142" s="623"/>
-      <c r="I142" s="551"/>
-      <c r="J142" s="552"/>
+      <c r="G142" s="570" t="s">
+        <v>69</v>
+      </c>
+      <c r="H142" s="534"/>
+      <c r="I142" s="535"/>
+      <c r="J142" s="536"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -9344,11 +9344,11 @@
       <c r="Q142" s="50"/>
       <c r="R142" s="51"/>
       <c r="S142" s="51"/>
-      <c r="T142" s="489" t="s">
-        <v>148</v>
-      </c>
-      <c r="U142" s="490"/>
-      <c r="V142" s="491"/>
+      <c r="T142" s="469" t="s">
+        <v>147</v>
+      </c>
+      <c r="U142" s="470"/>
+      <c r="V142" s="471"/>
       <c r="W142" s="50"/>
       <c r="X142" s="51"/>
       <c r="Y142" s="159"/>
@@ -9360,7 +9360,7 @@
       <c r="D143" s="250"/>
       <c r="E143" s="250"/>
       <c r="F143" s="250"/>
-      <c r="G143" s="574"/>
+      <c r="G143" s="578"/>
       <c r="H143" s="218"/>
       <c r="I143" s="119"/>
       <c r="J143" s="424"/>
@@ -9374,13 +9374,13 @@
       <c r="R143" s="383"/>
       <c r="S143" s="383"/>
       <c r="T143" s="361" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U143" s="190" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V143" s="362" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W143" s="78"/>
       <c r="X143" s="383"/>
@@ -9388,53 +9388,53 @@
     </row>
     <row r="144" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A144" s="120"/>
-      <c r="B144" s="480">
+      <c r="B144" s="557">
         <v>15</v>
       </c>
-      <c r="C144" s="480">
+      <c r="C144" s="557">
         <v>1</v>
       </c>
-      <c r="D144" s="480">
+      <c r="D144" s="557">
         <v>12</v>
       </c>
-      <c r="E144" s="553">
+      <c r="E144" s="583">
         <v>10</v>
       </c>
-      <c r="F144" s="480">
+      <c r="F144" s="557">
         <v>7</v>
       </c>
-      <c r="G144" s="587" t="s">
+      <c r="G144" s="573" t="s">
         <v>22</v>
       </c>
-      <c r="H144" s="596"/>
-      <c r="I144" s="463"/>
-      <c r="J144" s="593"/>
+      <c r="H144" s="577"/>
+      <c r="I144" s="506"/>
+      <c r="J144" s="507"/>
       <c r="K144" s="280"/>
       <c r="L144" s="281"/>
       <c r="M144" s="281"/>
-      <c r="N144" s="462" t="s">
-        <v>189</v>
-      </c>
-      <c r="O144" s="463"/>
-      <c r="P144" s="593"/>
+      <c r="N144" s="505" t="s">
+        <v>188</v>
+      </c>
+      <c r="O144" s="506"/>
+      <c r="P144" s="507"/>
       <c r="Q144" s="125"/>
       <c r="R144" s="123"/>
       <c r="S144" s="123"/>
-      <c r="T144" s="495"/>
-      <c r="U144" s="496"/>
-      <c r="V144" s="497"/>
+      <c r="T144" s="623"/>
+      <c r="U144" s="624"/>
+      <c r="V144" s="625"/>
       <c r="W144" s="125"/>
       <c r="X144" s="123"/>
       <c r="Y144" s="127"/>
     </row>
     <row r="145" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="178"/>
-      <c r="B145" s="479"/>
-      <c r="C145" s="479"/>
-      <c r="D145" s="479"/>
-      <c r="E145" s="554"/>
-      <c r="F145" s="479"/>
-      <c r="G145" s="567"/>
+      <c r="B145" s="556"/>
+      <c r="C145" s="556"/>
+      <c r="D145" s="556"/>
+      <c r="E145" s="584"/>
+      <c r="F145" s="556"/>
+      <c r="G145" s="571"/>
       <c r="H145" s="427"/>
       <c r="I145" s="134"/>
       <c r="J145" s="163"/>
@@ -9442,10 +9442,10 @@
       <c r="L145" s="40"/>
       <c r="M145" s="40"/>
       <c r="N145" s="88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O145" s="134" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P145" s="134" t="s">
         <v>31</v>
@@ -9462,63 +9462,63 @@
     </row>
     <row r="146" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="178" t="s">
-        <v>97</v>
-      </c>
-      <c r="B146" s="478"/>
-      <c r="C146" s="478">
+        <v>96</v>
+      </c>
+      <c r="B146" s="555"/>
+      <c r="C146" s="555">
         <v>15</v>
       </c>
-      <c r="D146" s="478">
+      <c r="D146" s="555">
         <v>26</v>
       </c>
-      <c r="E146" s="478">
+      <c r="E146" s="555">
         <v>24</v>
       </c>
-      <c r="F146" s="478"/>
-      <c r="G146" s="566" t="s">
+      <c r="F146" s="555"/>
+      <c r="G146" s="570" t="s">
         <v>25</v>
       </c>
-      <c r="H146" s="620"/>
-      <c r="I146" s="455"/>
-      <c r="J146" s="456"/>
-      <c r="N146" s="454" t="s">
-        <v>189</v>
-      </c>
-      <c r="O146" s="455"/>
-      <c r="P146" s="456"/>
+      <c r="H146" s="523"/>
+      <c r="I146" s="453"/>
+      <c r="J146" s="459"/>
+      <c r="N146" s="458" t="s">
+        <v>188</v>
+      </c>
+      <c r="O146" s="453"/>
+      <c r="P146" s="459"/>
       <c r="Q146" s="197"/>
       <c r="R146" s="54"/>
       <c r="S146" s="54"/>
-      <c r="T146" s="507" t="s">
-        <v>191</v>
-      </c>
-      <c r="U146" s="508"/>
-      <c r="V146" s="509"/>
+      <c r="T146" s="561" t="s">
+        <v>190</v>
+      </c>
+      <c r="U146" s="562"/>
+      <c r="V146" s="563"/>
       <c r="W146" s="197"/>
       <c r="X146" s="54"/>
       <c r="Y146" s="401"/>
     </row>
     <row r="147" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B147" s="479"/>
-      <c r="C147" s="479"/>
-      <c r="D147" s="479"/>
-      <c r="E147" s="479"/>
-      <c r="F147" s="479"/>
-      <c r="G147" s="567"/>
+        <v>152</v>
+      </c>
+      <c r="B147" s="556"/>
+      <c r="C147" s="556"/>
+      <c r="D147" s="556"/>
+      <c r="E147" s="556"/>
+      <c r="F147" s="556"/>
+      <c r="G147" s="571"/>
       <c r="H147" s="428"/>
       <c r="I147" s="93"/>
       <c r="J147" s="132"/>
       <c r="N147" s="68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O147" s="93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P147" s="132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q147" s="68"/>
       <c r="R147" s="40"/>
@@ -9532,47 +9532,47 @@
     </row>
     <row r="148" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="B148" s="478"/>
-      <c r="C148" s="478">
+        <v>153</v>
+      </c>
+      <c r="B148" s="555"/>
+      <c r="C148" s="555">
         <v>29</v>
       </c>
-      <c r="D148" s="478"/>
-      <c r="E148" s="478"/>
-      <c r="F148" s="478"/>
-      <c r="G148" s="566" t="s">
+      <c r="D148" s="555"/>
+      <c r="E148" s="555"/>
+      <c r="F148" s="555"/>
+      <c r="G148" s="570" t="s">
         <v>35</v>
       </c>
-      <c r="H148" s="594"/>
-      <c r="I148" s="476"/>
-      <c r="J148" s="595"/>
-      <c r="K148" s="454"/>
-      <c r="L148" s="455"/>
-      <c r="M148" s="455"/>
-      <c r="N148" s="454"/>
-      <c r="O148" s="455"/>
-      <c r="P148" s="455"/>
-      <c r="Q148" s="510"/>
-      <c r="R148" s="511"/>
-      <c r="S148" s="511"/>
-      <c r="T148" s="507"/>
-      <c r="U148" s="508"/>
-      <c r="V148" s="509"/>
-      <c r="W148" s="510"/>
-      <c r="X148" s="511"/>
-      <c r="Y148" s="512"/>
+      <c r="H148" s="574"/>
+      <c r="I148" s="575"/>
+      <c r="J148" s="576"/>
+      <c r="K148" s="458"/>
+      <c r="L148" s="453"/>
+      <c r="M148" s="453"/>
+      <c r="N148" s="458"/>
+      <c r="O148" s="453"/>
+      <c r="P148" s="453"/>
+      <c r="Q148" s="512"/>
+      <c r="R148" s="465"/>
+      <c r="S148" s="465"/>
+      <c r="T148" s="561"/>
+      <c r="U148" s="562"/>
+      <c r="V148" s="563"/>
+      <c r="W148" s="512"/>
+      <c r="X148" s="465"/>
+      <c r="Y148" s="466"/>
     </row>
     <row r="149" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149" s="479"/>
-      <c r="C149" s="479"/>
-      <c r="D149" s="479"/>
-      <c r="E149" s="479"/>
-      <c r="F149" s="479"/>
-      <c r="G149" s="567"/>
+        <v>153</v>
+      </c>
+      <c r="B149" s="556"/>
+      <c r="C149" s="556"/>
+      <c r="D149" s="556"/>
+      <c r="E149" s="556"/>
+      <c r="F149" s="556"/>
+      <c r="G149" s="571"/>
       <c r="H149" s="143"/>
       <c r="I149" s="87"/>
       <c r="J149" s="64"/>
@@ -9583,20 +9583,20 @@
       <c r="O149" s="93"/>
       <c r="P149" s="93"/>
       <c r="Q149" s="513"/>
-      <c r="R149" s="514"/>
-      <c r="S149" s="514"/>
+      <c r="R149" s="467"/>
+      <c r="S149" s="467"/>
       <c r="T149" s="361" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U149" s="190" t="s">
         <v>45</v>
       </c>
       <c r="V149" s="432" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W149" s="513"/>
-      <c r="X149" s="514"/>
-      <c r="Y149" s="515"/>
+      <c r="X149" s="467"/>
+      <c r="Y149" s="468"/>
     </row>
     <row r="150" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="137" t="s">
@@ -9607,8 +9607,8 @@
       <c r="D150" s="191"/>
       <c r="E150" s="191"/>
       <c r="F150" s="191"/>
-      <c r="G150" s="585" t="s">
-        <v>48</v>
+      <c r="G150" s="579" t="s">
+        <v>47</v>
       </c>
       <c r="H150" s="433"/>
       <c r="I150" s="57"/>
@@ -9619,26 +9619,26 @@
       <c r="N150" s="150"/>
       <c r="O150" s="150"/>
       <c r="P150" s="151"/>
-      <c r="Q150" s="510"/>
-      <c r="R150" s="511"/>
-      <c r="S150" s="511"/>
+      <c r="Q150" s="512"/>
+      <c r="R150" s="465"/>
+      <c r="S150" s="465"/>
       <c r="T150" s="435"/>
       <c r="U150" s="436"/>
       <c r="V150" s="437"/>
-      <c r="W150" s="510"/>
-      <c r="X150" s="511"/>
-      <c r="Y150" s="512"/>
+      <c r="W150" s="512"/>
+      <c r="X150" s="465"/>
+      <c r="Y150" s="466"/>
     </row>
     <row r="151" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B151" s="75"/>
       <c r="C151" s="75"/>
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
       <c r="F151" s="38"/>
-      <c r="G151" s="586"/>
+      <c r="G151" s="580"/>
       <c r="H151" s="131"/>
       <c r="I151" s="40"/>
       <c r="J151" s="84"/>
@@ -9649,45 +9649,45 @@
       <c r="O151" s="77"/>
       <c r="P151" s="132"/>
       <c r="Q151" s="513"/>
-      <c r="R151" s="514"/>
-      <c r="S151" s="514"/>
+      <c r="R151" s="467"/>
+      <c r="S151" s="467"/>
       <c r="T151" s="361"/>
       <c r="U151" s="190"/>
       <c r="V151" s="432"/>
       <c r="W151" s="513"/>
-      <c r="X151" s="514"/>
-      <c r="Y151" s="515"/>
+      <c r="X151" s="467"/>
+      <c r="Y151" s="468"/>
     </row>
     <row r="152" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B152" s="74"/>
       <c r="C152" s="74"/>
       <c r="D152" s="74"/>
       <c r="E152" s="74"/>
       <c r="F152" s="74"/>
-      <c r="G152" s="566" t="s">
-        <v>60</v>
+      <c r="G152" s="570" t="s">
+        <v>59</v>
       </c>
       <c r="H152" s="56"/>
       <c r="I152" s="57"/>
       <c r="J152" s="57"/>
-      <c r="K152" s="454"/>
-      <c r="L152" s="455"/>
-      <c r="M152" s="455"/>
-      <c r="N152" s="499"/>
-      <c r="O152" s="500"/>
-      <c r="P152" s="570"/>
-      <c r="Q152" s="499"/>
-      <c r="R152" s="500"/>
-      <c r="S152" s="500"/>
+      <c r="K152" s="458"/>
+      <c r="L152" s="453"/>
+      <c r="M152" s="453"/>
+      <c r="N152" s="475"/>
+      <c r="O152" s="476"/>
+      <c r="P152" s="508"/>
+      <c r="Q152" s="475"/>
+      <c r="R152" s="476"/>
+      <c r="S152" s="476"/>
       <c r="T152" s="438"/>
       <c r="U152" s="392"/>
       <c r="V152" s="392"/>
-      <c r="W152" s="499"/>
-      <c r="X152" s="500"/>
-      <c r="Y152" s="501"/>
+      <c r="W152" s="475"/>
+      <c r="X152" s="476"/>
+      <c r="Y152" s="477"/>
     </row>
     <row r="153" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="137"/>
@@ -9696,25 +9696,25 @@
       <c r="D153" s="75"/>
       <c r="E153" s="75"/>
       <c r="F153" s="75"/>
-      <c r="G153" s="567"/>
+      <c r="G153" s="571"/>
       <c r="H153" s="99"/>
       <c r="I153" s="83"/>
       <c r="J153" s="439"/>
       <c r="K153" s="68"/>
       <c r="L153" s="93"/>
       <c r="M153" s="93"/>
-      <c r="N153" s="516"/>
-      <c r="O153" s="517"/>
-      <c r="P153" s="571"/>
-      <c r="Q153" s="516"/>
-      <c r="R153" s="517"/>
-      <c r="S153" s="517"/>
+      <c r="N153" s="514"/>
+      <c r="O153" s="515"/>
+      <c r="P153" s="516"/>
+      <c r="Q153" s="514"/>
+      <c r="R153" s="515"/>
+      <c r="S153" s="515"/>
       <c r="T153" s="438"/>
       <c r="U153" s="392"/>
       <c r="V153" s="392"/>
-      <c r="W153" s="516"/>
-      <c r="X153" s="517"/>
-      <c r="Y153" s="518"/>
+      <c r="W153" s="514"/>
+      <c r="X153" s="515"/>
+      <c r="Y153" s="617"/>
     </row>
     <row r="154" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="137"/>
@@ -9723,8 +9723,8 @@
       <c r="D154" s="73"/>
       <c r="E154" s="73"/>
       <c r="F154" s="74"/>
-      <c r="G154" s="566" t="s">
-        <v>70</v>
+      <c r="G154" s="570" t="s">
+        <v>69</v>
       </c>
       <c r="H154" s="286"/>
       <c r="I154" s="248"/>
@@ -9732,18 +9732,18 @@
       <c r="K154" s="381"/>
       <c r="L154" s="249"/>
       <c r="M154" s="249"/>
-      <c r="N154" s="499"/>
-      <c r="O154" s="500"/>
-      <c r="P154" s="570"/>
-      <c r="Q154" s="499"/>
-      <c r="R154" s="500"/>
-      <c r="S154" s="500"/>
+      <c r="N154" s="475"/>
+      <c r="O154" s="476"/>
+      <c r="P154" s="508"/>
+      <c r="Q154" s="475"/>
+      <c r="R154" s="476"/>
+      <c r="S154" s="476"/>
       <c r="T154" s="440"/>
       <c r="U154" s="441"/>
       <c r="V154" s="442"/>
-      <c r="W154" s="499"/>
-      <c r="X154" s="500"/>
-      <c r="Y154" s="501"/>
+      <c r="W154" s="475"/>
+      <c r="X154" s="476"/>
+      <c r="Y154" s="477"/>
     </row>
     <row r="155" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="160"/>
@@ -9752,25 +9752,25 @@
       <c r="D155" s="250"/>
       <c r="E155" s="250"/>
       <c r="F155" s="250"/>
-      <c r="G155" s="574"/>
+      <c r="G155" s="578"/>
       <c r="H155" s="218"/>
       <c r="I155" s="119"/>
       <c r="J155" s="253"/>
       <c r="K155" s="167"/>
       <c r="L155" s="168"/>
       <c r="M155" s="168"/>
-      <c r="N155" s="504"/>
-      <c r="O155" s="505"/>
-      <c r="P155" s="627"/>
-      <c r="Q155" s="504"/>
-      <c r="R155" s="505"/>
-      <c r="S155" s="505"/>
+      <c r="N155" s="509"/>
+      <c r="O155" s="510"/>
+      <c r="P155" s="511"/>
+      <c r="Q155" s="509"/>
+      <c r="R155" s="510"/>
+      <c r="S155" s="510"/>
       <c r="T155" s="443"/>
       <c r="U155" s="444"/>
       <c r="V155" s="445"/>
-      <c r="W155" s="504"/>
-      <c r="X155" s="505"/>
-      <c r="Y155" s="506"/>
+      <c r="W155" s="509"/>
+      <c r="X155" s="510"/>
+      <c r="Y155" s="616"/>
     </row>
     <row r="156" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A156" s="446"/>
@@ -9781,7 +9781,7 @@
       <c r="F156" s="446"/>
       <c r="G156" s="446"/>
       <c r="H156" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="5"/>
@@ -9802,7 +9802,7 @@
       <c r="F157" s="446"/>
       <c r="G157" s="446"/>
       <c r="H157" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="5"/>
@@ -9823,7 +9823,7 @@
       <c r="F158" s="446"/>
       <c r="G158" s="446"/>
       <c r="H158" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I158" s="6"/>
       <c r="J158" s="5"/>
@@ -10478,116 +10478,395 @@
     </row>
   </sheetData>
   <mergeCells count="526">
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="W44:Y45"/>
-    <mergeCell ref="W56:Y57"/>
-    <mergeCell ref="N136:P136"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="N63:S63"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="U112:V112"/>
-    <mergeCell ref="W116:Y117"/>
-    <mergeCell ref="U114:V114"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W73:Y73"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W98:Y98"/>
-    <mergeCell ref="W100:Y100"/>
-    <mergeCell ref="W92:Y92"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T67:V67"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="N154:P155"/>
-    <mergeCell ref="Q148:S149"/>
-    <mergeCell ref="Q150:S151"/>
-    <mergeCell ref="Q152:S153"/>
-    <mergeCell ref="Q154:S155"/>
-    <mergeCell ref="N152:P153"/>
-    <mergeCell ref="N148:P148"/>
-    <mergeCell ref="T134:V134"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="T130:V130"/>
-    <mergeCell ref="T128:V128"/>
-    <mergeCell ref="N140:S140"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="N134:S134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="N146:P146"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="Q116:S117"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="Q136:S136"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W16:Y17"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N61:S61"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="W89:Y90"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="W154:Y155"/>
+    <mergeCell ref="T148:V148"/>
+    <mergeCell ref="W148:Y149"/>
+    <mergeCell ref="W150:Y151"/>
+    <mergeCell ref="W152:Y153"/>
+    <mergeCell ref="T140:V140"/>
+    <mergeCell ref="T142:V142"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="T146:V146"/>
+    <mergeCell ref="T136:V136"/>
+    <mergeCell ref="T71:V71"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="T144:V144"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="X138:Y138"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="W110:Y110"/>
+    <mergeCell ref="W112:Y112"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="T138:V138"/>
+    <mergeCell ref="W86:Y86"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K148:M148"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="T122:V122"/>
+    <mergeCell ref="T124:V124"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="Q124:S124"/>
     <mergeCell ref="T93:V93"/>
     <mergeCell ref="N102:S102"/>
     <mergeCell ref="P103:Q103"/>
@@ -10612,398 +10891,119 @@
     <mergeCell ref="T102:V102"/>
     <mergeCell ref="K94:M94"/>
     <mergeCell ref="N100:P100"/>
-    <mergeCell ref="T122:V122"/>
-    <mergeCell ref="T124:V124"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="K148:M148"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="W154:Y155"/>
-    <mergeCell ref="T148:V148"/>
-    <mergeCell ref="W148:Y149"/>
-    <mergeCell ref="W150:Y151"/>
-    <mergeCell ref="W152:Y153"/>
-    <mergeCell ref="T140:V140"/>
-    <mergeCell ref="T142:V142"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="U64:V64"/>
-    <mergeCell ref="T146:V146"/>
-    <mergeCell ref="T136:V136"/>
-    <mergeCell ref="T71:V71"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="T144:V144"/>
-    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="N146:P146"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="Q116:S117"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="N128:P128"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="Q136:S136"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="L135:M135"/>
     <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="N154:P155"/>
+    <mergeCell ref="Q148:S149"/>
+    <mergeCell ref="Q150:S151"/>
+    <mergeCell ref="Q152:S153"/>
+    <mergeCell ref="Q154:S155"/>
+    <mergeCell ref="N152:P153"/>
+    <mergeCell ref="N148:P148"/>
+    <mergeCell ref="T134:V134"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="T130:V130"/>
+    <mergeCell ref="T128:V128"/>
+    <mergeCell ref="N140:S140"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="N134:S134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="N94:P94"/>
     <mergeCell ref="Q104:S104"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="X138:Y138"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="W110:Y110"/>
-    <mergeCell ref="W112:Y112"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="T138:V138"/>
     <mergeCell ref="Q115:S115"/>
-    <mergeCell ref="W86:Y86"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="W89:Y90"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W16:Y17"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N61:S61"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N35:S35"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="W44:Y45"/>
+    <mergeCell ref="W56:Y57"/>
+    <mergeCell ref="N136:P136"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N63:S63"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="W116:Y117"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W98:Y98"/>
+    <mergeCell ref="W100:Y100"/>
+    <mergeCell ref="W92:Y92"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="P62:Q62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/www/fei4_140213.xlsx
+++ b/www/fei4_140213.xlsx
@@ -3116,28 +3116,182 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3146,59 +3300,414 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3208,515 +3717,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4026,8 +4026,8 @@
   </sheetPr>
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q16" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16:Y17"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4239,26 +4239,26 @@
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="604" t="s">
+      <c r="N9" s="555" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="605"/>
-      <c r="P9" s="606"/>
-      <c r="Q9" s="604" t="s">
+      <c r="O9" s="556"/>
+      <c r="P9" s="557"/>
+      <c r="Q9" s="555" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="605"/>
-      <c r="S9" s="606"/>
+      <c r="R9" s="556"/>
+      <c r="S9" s="557"/>
       <c r="T9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="607" t="s">
+      <c r="W9" s="558" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="605"/>
-      <c r="Y9" s="606"/>
+      <c r="X9" s="556"/>
+      <c r="Y9" s="557"/>
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
@@ -4293,22 +4293,22 @@
       <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="557">
+      <c r="B11" s="483">
         <v>17</v>
       </c>
-      <c r="C11" s="557">
+      <c r="C11" s="483">
         <v>3</v>
       </c>
-      <c r="D11" s="557">
+      <c r="D11" s="483">
         <v>14</v>
       </c>
-      <c r="E11" s="557">
+      <c r="E11" s="483">
         <v>12</v>
       </c>
-      <c r="F11" s="557">
+      <c r="F11" s="483">
         <v>9</v>
       </c>
-      <c r="G11" s="566" t="s">
+      <c r="G11" s="601" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="29"/>
@@ -4334,12 +4334,12 @@
       <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="556"/>
-      <c r="C12" s="556"/>
-      <c r="D12" s="556"/>
-      <c r="E12" s="556"/>
-      <c r="F12" s="556"/>
-      <c r="G12" s="567"/>
+      <c r="B12" s="472"/>
+      <c r="C12" s="472"/>
+      <c r="D12" s="472"/>
+      <c r="E12" s="472"/>
+      <c r="F12" s="472"/>
+      <c r="G12" s="602"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
@@ -4363,29 +4363,29 @@
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="555"/>
-      <c r="C13" s="555">
+      <c r="B13" s="471"/>
+      <c r="C13" s="471">
         <v>17</v>
       </c>
-      <c r="D13" s="555">
+      <c r="D13" s="471">
         <v>28</v>
       </c>
-      <c r="E13" s="555">
+      <c r="E13" s="471">
         <v>26</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="568" t="s">
+      <c r="G13" s="603" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="458" t="s">
+      <c r="H13" s="457" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="453"/>
+      <c r="I13" s="458"/>
       <c r="J13" s="459"/>
-      <c r="K13" s="458" t="s">
+      <c r="K13" s="457" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="453"/>
+      <c r="L13" s="458"/>
       <c r="M13" s="459"/>
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
@@ -4393,9 +4393,9 @@
       <c r="Q13" s="56"/>
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
-      <c r="T13" s="608"/>
-      <c r="U13" s="531"/>
-      <c r="V13" s="532"/>
+      <c r="T13" s="559"/>
+      <c r="U13" s="470"/>
+      <c r="V13" s="560"/>
       <c r="W13" s="56"/>
       <c r="X13" s="57"/>
       <c r="Y13" s="58"/>
@@ -4404,12 +4404,12 @@
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="556"/>
-      <c r="C14" s="556"/>
-      <c r="D14" s="556"/>
-      <c r="E14" s="556"/>
+      <c r="B14" s="472"/>
+      <c r="C14" s="472"/>
+      <c r="D14" s="472"/>
+      <c r="E14" s="472"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="567"/>
+      <c r="G14" s="602"/>
       <c r="H14" s="60" t="s">
         <v>29</v>
       </c>
@@ -4446,54 +4446,54 @@
         <v>34</v>
       </c>
       <c r="B15" s="73"/>
-      <c r="C15" s="555">
+      <c r="C15" s="471">
         <v>31</v>
       </c>
-      <c r="D15" s="555"/>
+      <c r="D15" s="471"/>
       <c r="E15" s="73"/>
       <c r="F15" s="74"/>
-      <c r="G15" s="568" t="s">
+      <c r="G15" s="603" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="494" t="s">
+      <c r="H15" s="463" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="473"/>
-      <c r="J15" s="473"/>
-      <c r="K15" s="472" t="s">
+      <c r="I15" s="455"/>
+      <c r="J15" s="455"/>
+      <c r="K15" s="454" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="473"/>
-      <c r="M15" s="485"/>
-      <c r="N15" s="458" t="s">
+      <c r="L15" s="455"/>
+      <c r="M15" s="456"/>
+      <c r="N15" s="457" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="453"/>
+      <c r="O15" s="458"/>
       <c r="P15" s="459"/>
-      <c r="Q15" s="458" t="s">
+      <c r="Q15" s="457" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="453"/>
-      <c r="S15" s="453"/>
-      <c r="T15" s="609"/>
-      <c r="U15" s="535"/>
-      <c r="V15" s="536"/>
-      <c r="W15" s="473" t="s">
+      <c r="R15" s="458"/>
+      <c r="S15" s="458"/>
+      <c r="T15" s="561"/>
+      <c r="U15" s="562"/>
+      <c r="V15" s="563"/>
+      <c r="W15" s="455" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="473"/>
-      <c r="Y15" s="474"/>
+      <c r="X15" s="455"/>
+      <c r="Y15" s="489"/>
     </row>
     <row r="16" spans="1:27" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="75"/>
-      <c r="C16" s="556"/>
-      <c r="D16" s="556"/>
+      <c r="C16" s="472"/>
+      <c r="D16" s="472"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
-      <c r="G16" s="567"/>
+      <c r="G16" s="602"/>
       <c r="H16" s="76" t="s">
         <v>41</v>
       </c>
@@ -4531,13 +4531,13 @@
         <v>31</v>
       </c>
       <c r="T16" s="82"/>
-      <c r="U16" s="492"/>
-      <c r="V16" s="493"/>
-      <c r="W16" s="629" t="s">
+      <c r="U16" s="479"/>
+      <c r="V16" s="480"/>
+      <c r="W16" s="492" t="s">
         <v>195</v>
       </c>
-      <c r="X16" s="629"/>
-      <c r="Y16" s="630"/>
+      <c r="X16" s="492"/>
+      <c r="Y16" s="493"/>
     </row>
     <row r="17" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -4548,35 +4548,35 @@
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="568" t="s">
+      <c r="G17" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="494" t="s">
+      <c r="H17" s="463" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="473"/>
-      <c r="J17" s="485"/>
-      <c r="K17" s="458" t="s">
+      <c r="I17" s="455"/>
+      <c r="J17" s="456"/>
+      <c r="K17" s="457" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="453"/>
+      <c r="L17" s="458"/>
       <c r="M17" s="459"/>
-      <c r="N17" s="458" t="s">
+      <c r="N17" s="457" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="453"/>
+      <c r="O17" s="458"/>
       <c r="P17" s="459"/>
-      <c r="Q17" s="547" t="s">
+      <c r="Q17" s="469" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="531"/>
-      <c r="S17" s="531"/>
-      <c r="T17" s="610"/>
-      <c r="U17" s="504"/>
-      <c r="V17" s="611"/>
-      <c r="W17" s="629"/>
-      <c r="X17" s="629"/>
-      <c r="Y17" s="630"/>
+      <c r="R17" s="470"/>
+      <c r="S17" s="470"/>
+      <c r="T17" s="564"/>
+      <c r="U17" s="565"/>
+      <c r="V17" s="566"/>
+      <c r="W17" s="492"/>
+      <c r="X17" s="492"/>
+      <c r="Y17" s="493"/>
     </row>
     <row r="18" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
@@ -4587,14 +4587,14 @@
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
-      <c r="G18" s="567"/>
+      <c r="G18" s="602"/>
       <c r="H18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="540" t="s">
+      <c r="I18" s="461" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="541"/>
+      <c r="J18" s="462"/>
       <c r="K18" s="88" t="s">
         <v>53</v>
       </c>
@@ -4625,15 +4625,15 @@
       <c r="T18" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="502"/>
-      <c r="V18" s="612"/>
+      <c r="U18" s="567"/>
+      <c r="V18" s="568"/>
       <c r="W18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="602" t="s">
+      <c r="X18" s="553" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="603"/>
+      <c r="Y18" s="554"/>
     </row>
     <row r="19" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
@@ -4644,7 +4644,7 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="74"/>
-      <c r="G19" s="568" t="s">
+      <c r="G19" s="603" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="95"/>
@@ -4653,26 +4653,26 @@
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
-      <c r="N19" s="458" t="s">
+      <c r="N19" s="457" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="453"/>
+      <c r="O19" s="458"/>
       <c r="P19" s="459"/>
-      <c r="Q19" s="547" t="s">
+      <c r="Q19" s="469" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="531"/>
-      <c r="S19" s="531"/>
-      <c r="T19" s="483" t="s">
+      <c r="R19" s="470"/>
+      <c r="S19" s="470"/>
+      <c r="T19" s="536" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="484"/>
-      <c r="V19" s="484"/>
-      <c r="W19" s="472" t="s">
+      <c r="U19" s="537"/>
+      <c r="V19" s="537"/>
+      <c r="W19" s="454" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="473"/>
-      <c r="Y19" s="474"/>
+      <c r="X19" s="455"/>
+      <c r="Y19" s="489"/>
     </row>
     <row r="20" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -4683,7 +4683,7 @@
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="567"/>
+      <c r="G20" s="602"/>
       <c r="H20" s="76" t="s">
         <v>41</v>
       </c>
@@ -4696,16 +4696,16 @@
       <c r="K20" s="99"/>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="455" t="s">
+      <c r="N20" s="464" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="456"/>
-      <c r="P20" s="554"/>
-      <c r="Q20" s="545" t="s">
+      <c r="O20" s="465"/>
+      <c r="P20" s="466"/>
+      <c r="Q20" s="452" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="643"/>
-      <c r="S20" s="643"/>
+      <c r="R20" s="453"/>
+      <c r="S20" s="453"/>
       <c r="T20" s="104" t="s">
         <v>66</v>
       </c>
@@ -4718,10 +4718,10 @@
       <c r="W20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X20" s="492" t="s">
+      <c r="X20" s="479" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" s="613"/>
+      <c r="Y20" s="514"/>
     </row>
     <row r="21" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
@@ -4732,7 +4732,7 @@
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="568" t="s">
+      <c r="G21" s="603" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="96"/>
@@ -4747,16 +4747,16 @@
       <c r="Q21" s="113"/>
       <c r="R21" s="96"/>
       <c r="S21" s="114"/>
-      <c r="T21" s="483" t="s">
+      <c r="T21" s="536" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="484"/>
-      <c r="V21" s="484"/>
-      <c r="W21" s="495" t="s">
+      <c r="U21" s="537"/>
+      <c r="V21" s="537"/>
+      <c r="W21" s="475" t="s">
         <v>70</v>
       </c>
-      <c r="X21" s="614"/>
-      <c r="Y21" s="615"/>
+      <c r="X21" s="569"/>
+      <c r="Y21" s="570"/>
     </row>
     <row r="22" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
@@ -4765,7 +4765,7 @@
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="116"/>
-      <c r="G22" s="569"/>
+      <c r="G22" s="604"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
       <c r="J22" s="118"/>
@@ -4811,19 +4811,19 @@
     </row>
     <row r="23" spans="1:25" s="128" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120"/>
-      <c r="B23" s="557">
+      <c r="B23" s="483">
         <v>18</v>
       </c>
-      <c r="C23" s="557">
+      <c r="C23" s="483">
         <v>4</v>
       </c>
-      <c r="D23" s="557">
+      <c r="D23" s="483">
         <v>1</v>
       </c>
-      <c r="E23" s="557">
+      <c r="E23" s="483">
         <v>13</v>
       </c>
-      <c r="F23" s="557">
+      <c r="F23" s="483">
         <v>10</v>
       </c>
       <c r="G23" s="121"/>
@@ -4836,9 +4836,9 @@
       <c r="N23" s="125"/>
       <c r="O23" s="123"/>
       <c r="P23" s="124"/>
-      <c r="Q23" s="505"/>
-      <c r="R23" s="506"/>
-      <c r="S23" s="506"/>
+      <c r="Q23" s="467"/>
+      <c r="R23" s="468"/>
+      <c r="S23" s="468"/>
       <c r="T23" s="126"/>
       <c r="U23" s="123"/>
       <c r="V23" s="123"/>
@@ -4848,11 +4848,11 @@
     </row>
     <row r="24" spans="1:25" s="136" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="129"/>
-      <c r="B24" s="556"/>
-      <c r="C24" s="556"/>
-      <c r="D24" s="556"/>
-      <c r="E24" s="556"/>
-      <c r="F24" s="556"/>
+      <c r="B24" s="472"/>
+      <c r="C24" s="472"/>
+      <c r="D24" s="472"/>
+      <c r="E24" s="472"/>
+      <c r="F24" s="472"/>
       <c r="G24" s="130" t="s">
         <v>22</v>
       </c>
@@ -4879,68 +4879,68 @@
       <c r="A25" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="555"/>
-      <c r="C25" s="555">
+      <c r="B25" s="471"/>
+      <c r="C25" s="471">
         <v>18</v>
       </c>
-      <c r="D25" s="555">
+      <c r="D25" s="471">
         <v>15</v>
       </c>
-      <c r="E25" s="555">
+      <c r="E25" s="471">
         <v>27</v>
       </c>
-      <c r="F25" s="555"/>
+      <c r="F25" s="471"/>
       <c r="G25" s="138"/>
       <c r="H25" s="139" t="s">
         <v>75</v>
       </c>
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
-      <c r="K25" s="472" t="s">
+      <c r="K25" s="454" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="473"/>
-      <c r="M25" s="485"/>
-      <c r="N25" s="475"/>
-      <c r="O25" s="476"/>
-      <c r="P25" s="508"/>
-      <c r="Q25" s="458" t="s">
+      <c r="L25" s="455"/>
+      <c r="M25" s="456"/>
+      <c r="N25" s="515"/>
+      <c r="O25" s="516"/>
+      <c r="P25" s="583"/>
+      <c r="Q25" s="457" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="453"/>
-      <c r="S25" s="453"/>
+      <c r="R25" s="458"/>
+      <c r="S25" s="458"/>
       <c r="T25" s="142"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
-      <c r="W25" s="632" t="s">
+      <c r="W25" s="497" t="s">
         <v>78</v>
       </c>
-      <c r="X25" s="633"/>
-      <c r="Y25" s="634"/>
+      <c r="X25" s="498"/>
+      <c r="Y25" s="499"/>
     </row>
     <row r="26" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="556"/>
-      <c r="C26" s="556"/>
-      <c r="D26" s="556"/>
-      <c r="E26" s="556"/>
-      <c r="F26" s="556"/>
+      <c r="B26" s="472"/>
+      <c r="C26" s="472"/>
+      <c r="D26" s="472"/>
+      <c r="E26" s="472"/>
+      <c r="F26" s="472"/>
       <c r="G26" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="542"/>
-      <c r="I26" s="461"/>
-      <c r="J26" s="462"/>
-      <c r="K26" s="586" t="s">
+      <c r="H26" s="574"/>
+      <c r="I26" s="511"/>
+      <c r="J26" s="615"/>
+      <c r="K26" s="460" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="540"/>
-      <c r="M26" s="541"/>
-      <c r="N26" s="514"/>
-      <c r="O26" s="515"/>
-      <c r="P26" s="516"/>
+      <c r="L26" s="461"/>
+      <c r="M26" s="462"/>
+      <c r="N26" s="530"/>
+      <c r="O26" s="531"/>
+      <c r="P26" s="584"/>
       <c r="Q26" s="68" t="s">
         <v>80</v>
       </c>
@@ -4967,54 +4967,54 @@
       <c r="A27" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="555"/>
-      <c r="C27" s="555"/>
-      <c r="D27" s="555"/>
-      <c r="E27" s="555"/>
-      <c r="F27" s="555"/>
+      <c r="B27" s="471"/>
+      <c r="C27" s="471"/>
+      <c r="D27" s="471"/>
+      <c r="E27" s="471"/>
+      <c r="F27" s="471"/>
       <c r="G27" s="138"/>
-      <c r="H27" s="542" t="s">
+      <c r="H27" s="574" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="461"/>
-      <c r="J27" s="461"/>
+      <c r="I27" s="511"/>
+      <c r="J27" s="511"/>
       <c r="K27" s="147"/>
       <c r="L27" s="148"/>
       <c r="M27" s="149"/>
       <c r="N27" s="150"/>
       <c r="O27" s="150"/>
       <c r="P27" s="151"/>
-      <c r="Q27" s="458" t="s">
+      <c r="Q27" s="457" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="453"/>
-      <c r="S27" s="453"/>
+      <c r="R27" s="458"/>
+      <c r="S27" s="458"/>
       <c r="T27" s="152"/>
       <c r="U27" s="61"/>
       <c r="V27" s="61"/>
-      <c r="W27" s="635" t="s">
+      <c r="W27" s="500" t="s">
         <v>84</v>
       </c>
-      <c r="X27" s="636"/>
-      <c r="Y27" s="637"/>
+      <c r="X27" s="501"/>
+      <c r="Y27" s="502"/>
     </row>
     <row r="28" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="556"/>
-      <c r="C28" s="556"/>
-      <c r="D28" s="556"/>
-      <c r="E28" s="556"/>
-      <c r="F28" s="556"/>
+      <c r="B28" s="472"/>
+      <c r="C28" s="472"/>
+      <c r="D28" s="472"/>
+      <c r="E28" s="472"/>
+      <c r="F28" s="472"/>
       <c r="G28" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="500" t="s">
+      <c r="H28" s="624" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="492"/>
-      <c r="J28" s="492"/>
+      <c r="I28" s="479"/>
+      <c r="J28" s="479"/>
       <c r="K28" s="78" t="s">
         <v>87</v>
       </c>
@@ -5027,19 +5027,19 @@
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
       <c r="P28" s="132"/>
-      <c r="Q28" s="641" t="s">
+      <c r="Q28" s="505" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="642"/>
-      <c r="S28" s="642"/>
+      <c r="R28" s="506"/>
+      <c r="S28" s="506"/>
       <c r="T28" s="135"/>
       <c r="U28" s="93"/>
       <c r="V28" s="40"/>
-      <c r="W28" s="599" t="s">
+      <c r="W28" s="550" t="s">
         <v>90</v>
       </c>
-      <c r="X28" s="600"/>
-      <c r="Y28" s="601"/>
+      <c r="X28" s="551"/>
+      <c r="Y28" s="552"/>
     </row>
     <row r="29" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="137" t="s">
@@ -5054,23 +5054,23 @@
       <c r="H29" s="154"/>
       <c r="I29" s="111"/>
       <c r="J29" s="155"/>
-      <c r="K29" s="472" t="s">
+      <c r="K29" s="454" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="473"/>
-      <c r="M29" s="485"/>
+      <c r="L29" s="455"/>
+      <c r="M29" s="456"/>
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
       <c r="P29" s="55"/>
-      <c r="Q29" s="640"/>
-      <c r="R29" s="575"/>
-      <c r="S29" s="575"/>
-      <c r="T29" s="564"/>
-      <c r="U29" s="473"/>
-      <c r="V29" s="473"/>
-      <c r="W29" s="596"/>
-      <c r="X29" s="597"/>
-      <c r="Y29" s="598"/>
+      <c r="Q29" s="504"/>
+      <c r="R29" s="491"/>
+      <c r="S29" s="491"/>
+      <c r="T29" s="549"/>
+      <c r="U29" s="455"/>
+      <c r="V29" s="455"/>
+      <c r="W29" s="546"/>
+      <c r="X29" s="547"/>
+      <c r="Y29" s="548"/>
     </row>
     <row r="30" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
@@ -5133,28 +5133,28 @@
       <c r="E31" s="73"/>
       <c r="F31" s="74"/>
       <c r="G31" s="138"/>
-      <c r="H31" s="496"/>
-      <c r="I31" s="453"/>
+      <c r="H31" s="575"/>
+      <c r="I31" s="458"/>
       <c r="J31" s="459"/>
-      <c r="K31" s="472" t="s">
+      <c r="K31" s="454" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="473"/>
-      <c r="M31" s="485"/>
-      <c r="N31" s="458"/>
-      <c r="O31" s="453"/>
+      <c r="L31" s="455"/>
+      <c r="M31" s="456"/>
+      <c r="N31" s="457"/>
+      <c r="O31" s="458"/>
       <c r="P31" s="459"/>
-      <c r="Q31" s="458"/>
-      <c r="R31" s="453"/>
-      <c r="S31" s="453"/>
-      <c r="T31" s="564" t="s">
+      <c r="Q31" s="457"/>
+      <c r="R31" s="458"/>
+      <c r="S31" s="458"/>
+      <c r="T31" s="549" t="s">
         <v>92</v>
       </c>
-      <c r="U31" s="473"/>
-      <c r="V31" s="473"/>
-      <c r="W31" s="472"/>
-      <c r="X31" s="473"/>
-      <c r="Y31" s="474"/>
+      <c r="U31" s="455"/>
+      <c r="V31" s="455"/>
+      <c r="W31" s="454"/>
+      <c r="X31" s="455"/>
+      <c r="Y31" s="489"/>
     </row>
     <row r="32" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="137"/>
@@ -5166,14 +5166,14 @@
       <c r="G32" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="550"/>
-      <c r="I32" s="487"/>
-      <c r="J32" s="488"/>
-      <c r="K32" s="586" t="s">
+      <c r="H32" s="621"/>
+      <c r="I32" s="622"/>
+      <c r="J32" s="623"/>
+      <c r="K32" s="460" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="540"/>
-      <c r="M32" s="541"/>
+      <c r="L32" s="461"/>
+      <c r="M32" s="462"/>
       <c r="N32" s="80"/>
       <c r="O32" s="81"/>
       <c r="P32" s="158"/>
@@ -5207,17 +5207,17 @@
       <c r="K33" s="147"/>
       <c r="L33" s="148"/>
       <c r="M33" s="149"/>
-      <c r="N33" s="458"/>
-      <c r="O33" s="453"/>
+      <c r="N33" s="457"/>
+      <c r="O33" s="458"/>
       <c r="P33" s="459"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="51"/>
       <c r="S33" s="51"/>
-      <c r="T33" s="564" t="s">
+      <c r="T33" s="549" t="s">
         <v>92</v>
       </c>
-      <c r="U33" s="473"/>
-      <c r="V33" s="473"/>
+      <c r="U33" s="455"/>
+      <c r="V33" s="455"/>
       <c r="W33" s="50"/>
       <c r="X33" s="51"/>
       <c r="Y33" s="159"/>
@@ -5265,19 +5265,19 @@
     </row>
     <row r="35" spans="1:25" s="128" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120"/>
-      <c r="B35" s="557">
+      <c r="B35" s="483">
         <v>19</v>
       </c>
-      <c r="C35" s="557">
+      <c r="C35" s="483">
         <v>5</v>
       </c>
-      <c r="D35" s="557">
+      <c r="D35" s="483">
         <v>2</v>
       </c>
-      <c r="E35" s="581">
+      <c r="E35" s="585">
         <v>14</v>
       </c>
-      <c r="F35" s="581">
+      <c r="F35" s="585">
         <v>11</v>
       </c>
       <c r="G35" s="121"/>
@@ -5287,14 +5287,14 @@
       <c r="K35" s="110"/>
       <c r="L35" s="111"/>
       <c r="M35" s="157"/>
-      <c r="N35" s="505" t="s">
+      <c r="N35" s="467" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="506"/>
-      <c r="P35" s="506"/>
-      <c r="Q35" s="506"/>
-      <c r="R35" s="506"/>
-      <c r="S35" s="506"/>
+      <c r="O35" s="468"/>
+      <c r="P35" s="468"/>
+      <c r="Q35" s="468"/>
+      <c r="R35" s="468"/>
+      <c r="S35" s="468"/>
       <c r="T35" s="126"/>
       <c r="U35" s="123"/>
       <c r="V35" s="176"/>
@@ -5306,11 +5306,11 @@
       <c r="A36" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="556"/>
-      <c r="C36" s="556"/>
-      <c r="D36" s="556"/>
-      <c r="E36" s="582"/>
-      <c r="F36" s="582"/>
+      <c r="B36" s="472"/>
+      <c r="C36" s="472"/>
+      <c r="D36" s="472"/>
+      <c r="E36" s="586"/>
+      <c r="F36" s="586"/>
       <c r="G36" s="130" t="s">
         <v>22</v>
       </c>
@@ -5324,8 +5324,8 @@
         <v>42</v>
       </c>
       <c r="O36" s="40"/>
-      <c r="P36" s="492"/>
-      <c r="Q36" s="492"/>
+      <c r="P36" s="479"/>
+      <c r="Q36" s="479"/>
       <c r="R36" s="182" t="s">
         <v>97</v>
       </c>
@@ -5341,52 +5341,52 @@
     </row>
     <row r="37" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="137"/>
-      <c r="B37" s="555"/>
-      <c r="C37" s="555">
+      <c r="B37" s="471"/>
+      <c r="C37" s="471">
         <v>19</v>
       </c>
-      <c r="D37" s="555">
+      <c r="D37" s="471">
         <v>16</v>
       </c>
-      <c r="E37" s="555">
+      <c r="E37" s="471">
         <v>28</v>
       </c>
-      <c r="F37" s="555"/>
+      <c r="F37" s="471"/>
       <c r="G37" s="138"/>
-      <c r="H37" s="530" t="s">
+      <c r="H37" s="579" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="531"/>
-      <c r="J37" s="532"/>
+      <c r="I37" s="470"/>
+      <c r="J37" s="560"/>
       <c r="K37" s="53"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
-      <c r="N37" s="458" t="s">
+      <c r="N37" s="457" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="453"/>
+      <c r="O37" s="458"/>
       <c r="P37" s="459"/>
-      <c r="Q37" s="458" t="s">
+      <c r="Q37" s="457" t="s">
         <v>99</v>
       </c>
-      <c r="R37" s="453"/>
-      <c r="S37" s="453"/>
-      <c r="T37" s="478"/>
-      <c r="U37" s="479"/>
-      <c r="V37" s="631"/>
-      <c r="W37" s="458"/>
-      <c r="X37" s="453"/>
-      <c r="Y37" s="454"/>
+      <c r="R37" s="458"/>
+      <c r="S37" s="458"/>
+      <c r="T37" s="494"/>
+      <c r="U37" s="495"/>
+      <c r="V37" s="496"/>
+      <c r="W37" s="457"/>
+      <c r="X37" s="458"/>
+      <c r="Y37" s="485"/>
     </row>
     <row r="38" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="556"/>
-      <c r="C38" s="556"/>
-      <c r="D38" s="556"/>
-      <c r="E38" s="556"/>
-      <c r="F38" s="556"/>
+      <c r="B38" s="472"/>
+      <c r="C38" s="472"/>
+      <c r="D38" s="472"/>
+      <c r="E38" s="472"/>
+      <c r="F38" s="472"/>
       <c r="G38" s="130" t="s">
         <v>25</v>
       </c>
@@ -5429,51 +5429,51 @@
     </row>
     <row r="39" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="137"/>
-      <c r="B39" s="555"/>
-      <c r="C39" s="555"/>
-      <c r="D39" s="555">
+      <c r="B39" s="471"/>
+      <c r="C39" s="471"/>
+      <c r="D39" s="471">
         <v>30</v>
       </c>
-      <c r="E39" s="555"/>
+      <c r="E39" s="471"/>
       <c r="F39" s="191"/>
       <c r="G39" s="138"/>
       <c r="H39" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="543" t="s">
+      <c r="I39" s="616" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="544"/>
-      <c r="K39" s="458" t="s">
+      <c r="J39" s="617"/>
+      <c r="K39" s="457" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="453"/>
+      <c r="L39" s="458"/>
       <c r="M39" s="459"/>
-      <c r="N39" s="458" t="s">
+      <c r="N39" s="457" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="453"/>
+      <c r="O39" s="458"/>
       <c r="P39" s="459"/>
-      <c r="Q39" s="458" t="s">
+      <c r="Q39" s="457" t="s">
         <v>95</v>
       </c>
-      <c r="R39" s="453"/>
-      <c r="S39" s="453"/>
-      <c r="T39" s="478"/>
-      <c r="U39" s="479"/>
-      <c r="V39" s="631"/>
-      <c r="W39" s="472"/>
-      <c r="X39" s="473"/>
-      <c r="Y39" s="474"/>
+      <c r="R39" s="458"/>
+      <c r="S39" s="458"/>
+      <c r="T39" s="494"/>
+      <c r="U39" s="495"/>
+      <c r="V39" s="496"/>
+      <c r="W39" s="454"/>
+      <c r="X39" s="455"/>
+      <c r="Y39" s="489"/>
     </row>
     <row r="40" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="556"/>
-      <c r="C40" s="556"/>
-      <c r="D40" s="556"/>
-      <c r="E40" s="556"/>
+      <c r="B40" s="472"/>
+      <c r="C40" s="472"/>
+      <c r="D40" s="472"/>
+      <c r="E40" s="472"/>
       <c r="F40" s="38"/>
       <c r="G40" s="130" t="s">
         <v>35</v>
@@ -5524,31 +5524,31 @@
       <c r="H41" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="545" t="s">
+      <c r="I41" s="452" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="546"/>
-      <c r="K41" s="586" t="s">
+      <c r="J41" s="618"/>
+      <c r="K41" s="460" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="540"/>
-      <c r="M41" s="541"/>
-      <c r="N41" s="458" t="s">
+      <c r="L41" s="461"/>
+      <c r="M41" s="462"/>
+      <c r="N41" s="457" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="453"/>
+      <c r="O41" s="458"/>
       <c r="P41" s="459"/>
-      <c r="Q41" s="638"/>
-      <c r="R41" s="639"/>
-      <c r="S41" s="639"/>
+      <c r="Q41" s="481"/>
+      <c r="R41" s="482"/>
+      <c r="S41" s="482"/>
       <c r="T41" s="200"/>
       <c r="U41" s="201"/>
       <c r="V41" s="202"/>
-      <c r="W41" s="452" t="s">
+      <c r="W41" s="484" t="s">
         <v>110</v>
       </c>
-      <c r="X41" s="453"/>
-      <c r="Y41" s="454"/>
+      <c r="X41" s="458"/>
+      <c r="Y41" s="485"/>
     </row>
     <row r="42" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="137" t="s">
@@ -5611,15 +5611,15 @@
       <c r="E43" s="73"/>
       <c r="F43" s="74"/>
       <c r="G43" s="138"/>
-      <c r="H43" s="527" t="s">
+      <c r="H43" s="593" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="528"/>
-      <c r="J43" s="529"/>
-      <c r="K43" s="458" t="s">
+      <c r="I43" s="594"/>
+      <c r="J43" s="595"/>
+      <c r="K43" s="457" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="453"/>
+      <c r="L43" s="458"/>
       <c r="M43" s="459"/>
       <c r="N43" s="53"/>
       <c r="O43" s="54"/>
@@ -5627,9 +5627,9 @@
       <c r="Q43" s="50"/>
       <c r="R43" s="208"/>
       <c r="S43" s="208"/>
-      <c r="T43" s="520"/>
-      <c r="U43" s="521"/>
-      <c r="V43" s="522"/>
+      <c r="T43" s="571"/>
+      <c r="U43" s="572"/>
+      <c r="V43" s="573"/>
       <c r="W43" s="209" t="s">
         <v>110</v>
       </c>
@@ -5669,9 +5669,9 @@
       <c r="T44" s="204"/>
       <c r="U44" s="213"/>
       <c r="V44" s="214"/>
-      <c r="W44" s="455"/>
-      <c r="X44" s="456"/>
-      <c r="Y44" s="457"/>
+      <c r="W44" s="464"/>
+      <c r="X44" s="465"/>
+      <c r="Y44" s="513"/>
     </row>
     <row r="45" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="137"/>
@@ -5684,23 +5684,23 @@
       <c r="H45" s="215"/>
       <c r="I45" s="109"/>
       <c r="J45" s="112"/>
-      <c r="K45" s="586" t="s">
+      <c r="K45" s="460" t="s">
         <v>52</v>
       </c>
-      <c r="L45" s="540"/>
-      <c r="M45" s="541"/>
+      <c r="L45" s="461"/>
+      <c r="M45" s="462"/>
       <c r="N45" s="100"/>
       <c r="O45" s="87"/>
       <c r="P45" s="155"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="87"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="517"/>
-      <c r="U45" s="518"/>
-      <c r="V45" s="519"/>
-      <c r="W45" s="455"/>
-      <c r="X45" s="456"/>
-      <c r="Y45" s="457"/>
+      <c r="T45" s="486"/>
+      <c r="U45" s="487"/>
+      <c r="V45" s="488"/>
+      <c r="W45" s="464"/>
+      <c r="X45" s="465"/>
+      <c r="Y45" s="513"/>
     </row>
     <row r="46" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="160"/>
@@ -5745,28 +5745,28 @@
     </row>
     <row r="47" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="120"/>
-      <c r="B47" s="557">
+      <c r="B47" s="483">
         <v>20</v>
       </c>
-      <c r="C47" s="557">
+      <c r="C47" s="483">
         <v>6</v>
       </c>
-      <c r="D47" s="557">
+      <c r="D47" s="483">
         <v>3</v>
       </c>
-      <c r="E47" s="583">
+      <c r="E47" s="473">
         <v>1</v>
       </c>
-      <c r="F47" s="583">
+      <c r="F47" s="473">
         <v>12</v>
       </c>
       <c r="G47" s="223"/>
       <c r="H47" s="590"/>
       <c r="I47" s="591"/>
       <c r="J47" s="592"/>
-      <c r="K47" s="505"/>
-      <c r="L47" s="506"/>
-      <c r="M47" s="507"/>
+      <c r="K47" s="467"/>
+      <c r="L47" s="468"/>
+      <c r="M47" s="606"/>
       <c r="N47" s="110"/>
       <c r="O47" s="111"/>
       <c r="P47" s="155"/>
@@ -5782,11 +5782,11 @@
     </row>
     <row r="48" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="178"/>
-      <c r="B48" s="556"/>
-      <c r="C48" s="556"/>
-      <c r="D48" s="556"/>
-      <c r="E48" s="584"/>
-      <c r="F48" s="584"/>
+      <c r="B48" s="472"/>
+      <c r="C48" s="472"/>
+      <c r="D48" s="472"/>
+      <c r="E48" s="474"/>
+      <c r="F48" s="474"/>
       <c r="G48" s="226" t="s">
         <v>22</v>
       </c>
@@ -5813,37 +5813,37 @@
       <c r="A49" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="555"/>
-      <c r="C49" s="555">
+      <c r="B49" s="471"/>
+      <c r="C49" s="471">
         <v>20</v>
       </c>
-      <c r="D49" s="555">
+      <c r="D49" s="471">
         <v>17</v>
       </c>
-      <c r="E49" s="555">
+      <c r="E49" s="471">
         <v>15</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="230"/>
-      <c r="H49" s="530" t="s">
+      <c r="H49" s="579" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="531"/>
-      <c r="J49" s="532"/>
-      <c r="K49" s="458"/>
-      <c r="L49" s="453"/>
+      <c r="I49" s="470"/>
+      <c r="J49" s="560"/>
+      <c r="K49" s="457"/>
+      <c r="L49" s="458"/>
       <c r="M49" s="459"/>
-      <c r="N49" s="472"/>
-      <c r="O49" s="473"/>
-      <c r="P49" s="485"/>
-      <c r="Q49" s="472" t="s">
+      <c r="N49" s="454"/>
+      <c r="O49" s="455"/>
+      <c r="P49" s="456"/>
+      <c r="Q49" s="454" t="s">
         <v>118</v>
       </c>
-      <c r="R49" s="473"/>
-      <c r="S49" s="473"/>
-      <c r="T49" s="478"/>
-      <c r="U49" s="479"/>
-      <c r="V49" s="479"/>
+      <c r="R49" s="455"/>
+      <c r="S49" s="455"/>
+      <c r="T49" s="494"/>
+      <c r="U49" s="495"/>
+      <c r="V49" s="495"/>
       <c r="W49" s="231"/>
       <c r="X49" s="232"/>
       <c r="Y49" s="233"/>
@@ -5852,10 +5852,10 @@
       <c r="A50" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="556"/>
-      <c r="C50" s="556"/>
-      <c r="D50" s="556"/>
-      <c r="E50" s="556"/>
+      <c r="B50" s="472"/>
+      <c r="C50" s="472"/>
+      <c r="D50" s="472"/>
+      <c r="E50" s="472"/>
       <c r="F50" s="38"/>
       <c r="G50" s="226" t="s">
         <v>25</v>
@@ -5863,10 +5863,10 @@
       <c r="H50" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="540" t="s">
+      <c r="I50" s="461" t="s">
         <v>119</v>
       </c>
-      <c r="J50" s="541"/>
+      <c r="J50" s="462"/>
       <c r="K50" s="68"/>
       <c r="L50" s="93"/>
       <c r="M50" s="132"/>
@@ -5893,52 +5893,52 @@
       <c r="A51" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="555"/>
-      <c r="C51" s="555"/>
-      <c r="D51" s="555"/>
-      <c r="E51" s="555">
+      <c r="B51" s="471"/>
+      <c r="C51" s="471"/>
+      <c r="D51" s="471"/>
+      <c r="E51" s="471">
         <v>29</v>
       </c>
-      <c r="F51" s="555"/>
+      <c r="F51" s="471"/>
       <c r="G51" s="230"/>
       <c r="H51" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="547" t="s">
+      <c r="I51" s="469" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="532"/>
-      <c r="K51" s="458" t="s">
+      <c r="J51" s="560"/>
+      <c r="K51" s="457" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="453"/>
+      <c r="L51" s="458"/>
       <c r="M51" s="459"/>
-      <c r="N51" s="472" t="s">
+      <c r="N51" s="454" t="s">
         <v>118</v>
       </c>
-      <c r="O51" s="473"/>
-      <c r="P51" s="485"/>
-      <c r="Q51" s="458" t="s">
+      <c r="O51" s="455"/>
+      <c r="P51" s="456"/>
+      <c r="Q51" s="457" t="s">
         <v>124</v>
       </c>
-      <c r="R51" s="453"/>
-      <c r="S51" s="453"/>
-      <c r="T51" s="480"/>
-      <c r="U51" s="481"/>
-      <c r="V51" s="482"/>
-      <c r="W51" s="452"/>
-      <c r="X51" s="453"/>
-      <c r="Y51" s="454"/>
+      <c r="R51" s="458"/>
+      <c r="S51" s="458"/>
+      <c r="T51" s="641"/>
+      <c r="U51" s="642"/>
+      <c r="V51" s="643"/>
+      <c r="W51" s="484"/>
+      <c r="X51" s="458"/>
+      <c r="Y51" s="485"/>
     </row>
     <row r="52" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="556"/>
-      <c r="C52" s="556"/>
-      <c r="D52" s="556"/>
-      <c r="E52" s="556"/>
-      <c r="F52" s="556"/>
+      <c r="B52" s="472"/>
+      <c r="C52" s="472"/>
+      <c r="D52" s="472"/>
+      <c r="E52" s="472"/>
+      <c r="F52" s="472"/>
       <c r="G52" s="239" t="s">
         <v>35</v>
       </c>
@@ -5985,60 +5985,60 @@
       <c r="A53" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="555"/>
-      <c r="C53" s="555"/>
-      <c r="D53" s="555"/>
-      <c r="E53" s="555"/>
-      <c r="F53" s="555"/>
+      <c r="B53" s="471"/>
+      <c r="C53" s="471"/>
+      <c r="D53" s="471"/>
+      <c r="E53" s="471"/>
+      <c r="F53" s="471"/>
       <c r="G53" s="243"/>
       <c r="H53" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="I53" s="489" t="s">
+      <c r="I53" s="580" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="490"/>
-      <c r="K53" s="472" t="s">
+      <c r="J53" s="582"/>
+      <c r="K53" s="454" t="s">
         <v>130</v>
       </c>
-      <c r="L53" s="473"/>
-      <c r="M53" s="485"/>
-      <c r="N53" s="472" t="s">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456"/>
+      <c r="N53" s="454" t="s">
         <v>118</v>
       </c>
-      <c r="O53" s="473"/>
-      <c r="P53" s="485"/>
-      <c r="Q53" s="458" t="s">
+      <c r="O53" s="455"/>
+      <c r="P53" s="456"/>
+      <c r="Q53" s="457" t="s">
         <v>124</v>
       </c>
-      <c r="R53" s="453"/>
-      <c r="S53" s="453"/>
-      <c r="T53" s="480"/>
-      <c r="U53" s="481"/>
-      <c r="V53" s="482"/>
-      <c r="W53" s="452"/>
-      <c r="X53" s="453"/>
-      <c r="Y53" s="454"/>
+      <c r="R53" s="458"/>
+      <c r="S53" s="458"/>
+      <c r="T53" s="641"/>
+      <c r="U53" s="642"/>
+      <c r="V53" s="643"/>
+      <c r="W53" s="484"/>
+      <c r="X53" s="458"/>
+      <c r="Y53" s="485"/>
     </row>
     <row r="54" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="556"/>
-      <c r="C54" s="556"/>
-      <c r="D54" s="556"/>
-      <c r="E54" s="556"/>
-      <c r="F54" s="556"/>
+      <c r="B54" s="472"/>
+      <c r="C54" s="472"/>
+      <c r="D54" s="472"/>
+      <c r="E54" s="472"/>
+      <c r="F54" s="472"/>
       <c r="G54" s="239" t="s">
         <v>47</v>
       </c>
       <c r="H54" s="245" t="s">
         <v>131</v>
       </c>
-      <c r="I54" s="548" t="s">
+      <c r="I54" s="619" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="549"/>
+      <c r="J54" s="620"/>
       <c r="K54" s="80" t="s">
         <v>133</v>
       </c>
@@ -6083,27 +6083,27 @@
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
       <c r="G55" s="230"/>
-      <c r="H55" s="496" t="s">
+      <c r="H55" s="575" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="453"/>
+      <c r="I55" s="458"/>
       <c r="J55" s="459"/>
-      <c r="K55" s="472" t="s">
+      <c r="K55" s="454" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="473"/>
-      <c r="M55" s="485"/>
-      <c r="N55" s="472" t="s">
+      <c r="L55" s="455"/>
+      <c r="M55" s="456"/>
+      <c r="N55" s="454" t="s">
         <v>135</v>
       </c>
-      <c r="O55" s="473"/>
-      <c r="P55" s="485"/>
+      <c r="O55" s="455"/>
+      <c r="P55" s="456"/>
       <c r="Q55" s="56"/>
       <c r="R55" s="57"/>
       <c r="S55" s="57"/>
-      <c r="T55" s="517"/>
-      <c r="U55" s="518"/>
-      <c r="V55" s="519"/>
+      <c r="T55" s="486"/>
+      <c r="U55" s="487"/>
+      <c r="V55" s="488"/>
       <c r="W55" s="209"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
@@ -6151,9 +6151,9 @@
       <c r="T56" s="204"/>
       <c r="U56" s="205"/>
       <c r="V56" s="247"/>
-      <c r="W56" s="455"/>
-      <c r="X56" s="456"/>
-      <c r="Y56" s="457"/>
+      <c r="W56" s="464"/>
+      <c r="X56" s="465"/>
+      <c r="Y56" s="513"/>
     </row>
     <row r="57" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="137"/>
@@ -6166,23 +6166,23 @@
       <c r="H57" s="215"/>
       <c r="I57" s="109"/>
       <c r="J57" s="102"/>
-      <c r="K57" s="458" t="s">
+      <c r="K57" s="457" t="s">
         <v>138</v>
       </c>
-      <c r="L57" s="453"/>
+      <c r="L57" s="458"/>
       <c r="M57" s="459"/>
-      <c r="N57" s="458"/>
-      <c r="O57" s="453"/>
+      <c r="N57" s="457"/>
+      <c r="O57" s="458"/>
       <c r="P57" s="459"/>
       <c r="Q57" s="197"/>
       <c r="R57" s="248"/>
       <c r="S57" s="249"/>
-      <c r="T57" s="517"/>
-      <c r="U57" s="518"/>
-      <c r="V57" s="519"/>
-      <c r="W57" s="455"/>
-      <c r="X57" s="456"/>
-      <c r="Y57" s="457"/>
+      <c r="T57" s="486"/>
+      <c r="U57" s="487"/>
+      <c r="V57" s="488"/>
+      <c r="W57" s="464"/>
+      <c r="X57" s="465"/>
+      <c r="Y57" s="513"/>
     </row>
     <row r="58" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="160"/>
@@ -6221,19 +6221,19 @@
     </row>
     <row r="59" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A59" s="120"/>
-      <c r="B59" s="557">
+      <c r="B59" s="483">
         <v>21</v>
       </c>
-      <c r="C59" s="581">
+      <c r="C59" s="585">
         <v>7</v>
       </c>
-      <c r="D59" s="557">
+      <c r="D59" s="483">
         <v>4</v>
       </c>
-      <c r="E59" s="583">
+      <c r="E59" s="473">
         <v>2</v>
       </c>
-      <c r="F59" s="583">
+      <c r="F59" s="473">
         <v>13</v>
       </c>
       <c r="G59" s="121"/>
@@ -6249,20 +6249,20 @@
       <c r="Q59" s="125"/>
       <c r="R59" s="111"/>
       <c r="S59" s="109"/>
-      <c r="T59" s="628"/>
-      <c r="U59" s="506"/>
-      <c r="V59" s="506"/>
+      <c r="T59" s="503"/>
+      <c r="U59" s="468"/>
+      <c r="V59" s="468"/>
       <c r="W59" s="125"/>
       <c r="X59" s="111"/>
       <c r="Y59" s="256"/>
     </row>
     <row r="60" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="178"/>
-      <c r="B60" s="556"/>
-      <c r="C60" s="582"/>
-      <c r="D60" s="556"/>
-      <c r="E60" s="584"/>
-      <c r="F60" s="584"/>
+      <c r="B60" s="472"/>
+      <c r="C60" s="586"/>
+      <c r="D60" s="472"/>
+      <c r="E60" s="474"/>
+      <c r="F60" s="474"/>
       <c r="G60" s="130" t="s">
         <v>22</v>
       </c>
@@ -6289,17 +6289,17 @@
       <c r="A61" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="555"/>
-      <c r="C61" s="555">
+      <c r="B61" s="471"/>
+      <c r="C61" s="471">
         <v>21</v>
       </c>
-      <c r="D61" s="555">
+      <c r="D61" s="471">
         <v>18</v>
       </c>
-      <c r="E61" s="555">
+      <c r="E61" s="471">
         <v>16</v>
       </c>
-      <c r="F61" s="555"/>
+      <c r="F61" s="471"/>
       <c r="G61" s="138"/>
       <c r="H61" s="139"/>
       <c r="I61" s="140"/>
@@ -6307,15 +6307,15 @@
       <c r="K61" s="56"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
-      <c r="N61" s="458"/>
-      <c r="O61" s="453"/>
-      <c r="P61" s="453"/>
-      <c r="Q61" s="453"/>
-      <c r="R61" s="453"/>
-      <c r="S61" s="453"/>
-      <c r="T61" s="618"/>
-      <c r="U61" s="575"/>
-      <c r="V61" s="575"/>
+      <c r="N61" s="457"/>
+      <c r="O61" s="458"/>
+      <c r="P61" s="458"/>
+      <c r="Q61" s="458"/>
+      <c r="R61" s="458"/>
+      <c r="S61" s="458"/>
+      <c r="T61" s="490"/>
+      <c r="U61" s="491"/>
+      <c r="V61" s="491"/>
       <c r="W61" s="56"/>
       <c r="X61" s="57"/>
       <c r="Y61" s="262"/>
@@ -6324,29 +6324,29 @@
       <c r="A62" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="556"/>
-      <c r="C62" s="556"/>
-      <c r="D62" s="556"/>
-      <c r="E62" s="556"/>
-      <c r="F62" s="556"/>
+      <c r="B62" s="472"/>
+      <c r="C62" s="472"/>
+      <c r="D62" s="472"/>
+      <c r="E62" s="472"/>
+      <c r="F62" s="472"/>
       <c r="G62" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="542"/>
-      <c r="I62" s="461"/>
-      <c r="J62" s="462"/>
+      <c r="H62" s="574"/>
+      <c r="I62" s="511"/>
+      <c r="J62" s="615"/>
       <c r="K62" s="88"/>
       <c r="L62" s="109"/>
       <c r="M62" s="109"/>
       <c r="N62" s="68"/>
       <c r="O62" s="83"/>
-      <c r="P62" s="492"/>
-      <c r="Q62" s="492"/>
+      <c r="P62" s="479"/>
+      <c r="Q62" s="479"/>
       <c r="R62" s="83"/>
       <c r="S62" s="83"/>
       <c r="T62" s="69"/>
-      <c r="U62" s="492"/>
-      <c r="V62" s="493"/>
+      <c r="U62" s="479"/>
+      <c r="V62" s="480"/>
       <c r="W62" s="99"/>
       <c r="X62" s="83"/>
       <c r="Y62" s="107"/>
@@ -6355,33 +6355,33 @@
       <c r="A63" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="555"/>
-      <c r="C63" s="555"/>
-      <c r="D63" s="555"/>
-      <c r="E63" s="555">
+      <c r="B63" s="471"/>
+      <c r="C63" s="471"/>
+      <c r="D63" s="471"/>
+      <c r="E63" s="471">
         <v>30</v>
       </c>
-      <c r="F63" s="555"/>
+      <c r="F63" s="471"/>
       <c r="G63" s="138"/>
-      <c r="H63" s="497"/>
-      <c r="I63" s="498"/>
-      <c r="J63" s="499"/>
+      <c r="H63" s="633"/>
+      <c r="I63" s="634"/>
+      <c r="J63" s="635"/>
       <c r="K63" s="263" t="s">
         <v>75</v>
       </c>
       <c r="L63" s="140"/>
       <c r="M63" s="141"/>
-      <c r="N63" s="458" t="s">
+      <c r="N63" s="457" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="453"/>
-      <c r="P63" s="453"/>
-      <c r="Q63" s="453"/>
-      <c r="R63" s="453"/>
-      <c r="S63" s="453"/>
-      <c r="T63" s="618"/>
-      <c r="U63" s="575"/>
-      <c r="V63" s="575"/>
+      <c r="O63" s="458"/>
+      <c r="P63" s="458"/>
+      <c r="Q63" s="458"/>
+      <c r="R63" s="458"/>
+      <c r="S63" s="458"/>
+      <c r="T63" s="490"/>
+      <c r="U63" s="491"/>
+      <c r="V63" s="491"/>
       <c r="W63" s="156"/>
       <c r="X63" s="157"/>
       <c r="Y63" s="264"/>
@@ -6390,26 +6390,26 @@
       <c r="A64" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="556"/>
-      <c r="C64" s="556"/>
-      <c r="D64" s="556"/>
-      <c r="E64" s="556"/>
-      <c r="F64" s="556"/>
+      <c r="B64" s="472"/>
+      <c r="C64" s="472"/>
+      <c r="D64" s="472"/>
+      <c r="E64" s="472"/>
+      <c r="F64" s="472"/>
       <c r="G64" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="500"/>
-      <c r="I64" s="492"/>
-      <c r="J64" s="493"/>
-      <c r="K64" s="460"/>
-      <c r="L64" s="461"/>
-      <c r="M64" s="462"/>
+      <c r="H64" s="624"/>
+      <c r="I64" s="479"/>
+      <c r="J64" s="480"/>
+      <c r="K64" s="510"/>
+      <c r="L64" s="511"/>
+      <c r="M64" s="615"/>
       <c r="N64" s="68" t="s">
         <v>101</v>
       </c>
       <c r="O64" s="83"/>
-      <c r="P64" s="492"/>
-      <c r="Q64" s="492"/>
+      <c r="P64" s="479"/>
+      <c r="Q64" s="479"/>
       <c r="R64" s="83" t="s">
         <v>43</v>
       </c>
@@ -6417,8 +6417,8 @@
         <v>31</v>
       </c>
       <c r="T64" s="82"/>
-      <c r="U64" s="456"/>
-      <c r="V64" s="554"/>
+      <c r="U64" s="465"/>
+      <c r="V64" s="466"/>
       <c r="W64" s="68"/>
       <c r="X64" s="40"/>
       <c r="Y64" s="72"/>
@@ -6433,30 +6433,30 @@
       <c r="E65" s="73"/>
       <c r="F65" s="74"/>
       <c r="G65" s="138"/>
-      <c r="H65" s="503"/>
-      <c r="I65" s="504"/>
-      <c r="J65" s="504"/>
-      <c r="K65" s="460" t="s">
+      <c r="H65" s="637"/>
+      <c r="I65" s="565"/>
+      <c r="J65" s="565"/>
+      <c r="K65" s="510" t="s">
         <v>142</v>
       </c>
-      <c r="L65" s="461"/>
-      <c r="M65" s="462"/>
-      <c r="N65" s="458" t="s">
+      <c r="L65" s="511"/>
+      <c r="M65" s="615"/>
+      <c r="N65" s="457" t="s">
         <v>143</v>
       </c>
-      <c r="O65" s="453"/>
+      <c r="O65" s="458"/>
       <c r="P65" s="459"/>
-      <c r="Q65" s="458" t="s">
+      <c r="Q65" s="457" t="s">
         <v>141</v>
       </c>
-      <c r="R65" s="453"/>
-      <c r="S65" s="453"/>
-      <c r="T65" s="593"/>
-      <c r="U65" s="453"/>
+      <c r="R65" s="458"/>
+      <c r="S65" s="458"/>
+      <c r="T65" s="512"/>
+      <c r="U65" s="458"/>
       <c r="V65" s="459"/>
-      <c r="W65" s="458"/>
-      <c r="X65" s="453"/>
-      <c r="Y65" s="454"/>
+      <c r="W65" s="457"/>
+      <c r="X65" s="458"/>
+      <c r="Y65" s="485"/>
     </row>
     <row r="66" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="137" t="s">
@@ -6470,14 +6470,14 @@
       <c r="G66" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="H66" s="501"/>
-      <c r="I66" s="502"/>
-      <c r="J66" s="502"/>
-      <c r="K66" s="491" t="s">
+      <c r="H66" s="636"/>
+      <c r="I66" s="567"/>
+      <c r="J66" s="567"/>
+      <c r="K66" s="478" t="s">
         <v>145</v>
       </c>
-      <c r="L66" s="492"/>
-      <c r="M66" s="493"/>
+      <c r="L66" s="479"/>
+      <c r="M66" s="480"/>
       <c r="N66" s="80" t="s">
         <v>146</v>
       </c>
@@ -6499,8 +6499,8 @@
       <c r="T66" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="U66" s="492"/>
-      <c r="V66" s="493"/>
+      <c r="U66" s="479"/>
+      <c r="V66" s="480"/>
       <c r="W66" s="68"/>
       <c r="X66" s="93"/>
       <c r="Y66" s="94"/>
@@ -6518,27 +6518,27 @@
       <c r="H67" s="266"/>
       <c r="I67" s="267"/>
       <c r="J67" s="268"/>
-      <c r="K67" s="458"/>
-      <c r="L67" s="453"/>
+      <c r="K67" s="457"/>
+      <c r="L67" s="458"/>
       <c r="M67" s="459"/>
-      <c r="N67" s="458" t="s">
+      <c r="N67" s="457" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="453"/>
+      <c r="O67" s="458"/>
       <c r="P67" s="459"/>
-      <c r="Q67" s="458" t="s">
+      <c r="Q67" s="457" t="s">
         <v>143</v>
       </c>
-      <c r="R67" s="453"/>
-      <c r="S67" s="453"/>
-      <c r="T67" s="483" t="s">
+      <c r="R67" s="458"/>
+      <c r="S67" s="458"/>
+      <c r="T67" s="536" t="s">
         <v>147</v>
       </c>
-      <c r="U67" s="484"/>
-      <c r="V67" s="484"/>
-      <c r="W67" s="458"/>
-      <c r="X67" s="453"/>
-      <c r="Y67" s="454"/>
+      <c r="U67" s="537"/>
+      <c r="V67" s="537"/>
+      <c r="W67" s="457"/>
+      <c r="X67" s="458"/>
+      <c r="Y67" s="485"/>
     </row>
     <row r="68" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="137"/>
@@ -6601,19 +6601,19 @@
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
-      <c r="N69" s="458" t="s">
+      <c r="N69" s="457" t="s">
         <v>149</v>
       </c>
-      <c r="O69" s="453"/>
-      <c r="P69" s="453"/>
-      <c r="Q69" s="453"/>
-      <c r="R69" s="453"/>
-      <c r="S69" s="453"/>
-      <c r="T69" s="483" t="s">
+      <c r="O69" s="458"/>
+      <c r="P69" s="458"/>
+      <c r="Q69" s="458"/>
+      <c r="R69" s="458"/>
+      <c r="S69" s="458"/>
+      <c r="T69" s="536" t="s">
         <v>150</v>
       </c>
-      <c r="U69" s="484"/>
-      <c r="V69" s="622"/>
+      <c r="U69" s="537"/>
+      <c r="V69" s="538"/>
       <c r="W69" s="50"/>
       <c r="X69" s="51"/>
       <c r="Y69" s="159"/>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="71" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120"/>
-      <c r="B71" s="581">
+      <c r="B71" s="585">
         <v>22</v>
       </c>
-      <c r="C71" s="583">
+      <c r="C71" s="473">
         <v>8</v>
       </c>
-      <c r="D71" s="557">
+      <c r="D71" s="483">
         <v>5</v>
       </c>
-      <c r="E71" s="583">
+      <c r="E71" s="473">
         <v>3</v>
       </c>
-      <c r="F71" s="583">
+      <c r="F71" s="473">
         <v>14</v>
       </c>
       <c r="G71" s="121"/>
-      <c r="H71" s="594"/>
-      <c r="I71" s="535"/>
-      <c r="J71" s="532"/>
+      <c r="H71" s="578"/>
+      <c r="I71" s="562"/>
+      <c r="J71" s="560"/>
       <c r="K71" s="280"/>
       <c r="L71" s="281"/>
       <c r="M71" s="281"/>
@@ -6689,20 +6689,20 @@
       <c r="Q71" s="125"/>
       <c r="R71" s="123"/>
       <c r="S71" s="123"/>
-      <c r="T71" s="619"/>
-      <c r="U71" s="620"/>
-      <c r="V71" s="621"/>
-      <c r="W71" s="458"/>
-      <c r="X71" s="453"/>
-      <c r="Y71" s="454"/>
+      <c r="T71" s="533"/>
+      <c r="U71" s="534"/>
+      <c r="V71" s="535"/>
+      <c r="W71" s="457"/>
+      <c r="X71" s="458"/>
+      <c r="Y71" s="485"/>
     </row>
     <row r="72" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="178"/>
-      <c r="B72" s="582"/>
-      <c r="C72" s="584"/>
-      <c r="D72" s="556"/>
-      <c r="E72" s="584"/>
-      <c r="F72" s="584"/>
+      <c r="B72" s="586"/>
+      <c r="C72" s="474"/>
+      <c r="D72" s="472"/>
+      <c r="E72" s="474"/>
+      <c r="F72" s="474"/>
       <c r="G72" s="130" t="s">
         <v>22</v>
       </c>
@@ -6729,48 +6729,48 @@
       <c r="A73" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="555"/>
-      <c r="C73" s="555">
+      <c r="B73" s="471"/>
+      <c r="C73" s="471">
         <v>22</v>
       </c>
-      <c r="D73" s="555">
+      <c r="D73" s="471">
         <v>19</v>
       </c>
-      <c r="E73" s="555">
+      <c r="E73" s="471">
         <v>17</v>
       </c>
-      <c r="F73" s="555"/>
+      <c r="F73" s="471"/>
       <c r="G73" s="138"/>
-      <c r="H73" s="594"/>
-      <c r="I73" s="535"/>
-      <c r="J73" s="532"/>
-      <c r="K73" s="458"/>
-      <c r="L73" s="453"/>
-      <c r="M73" s="453"/>
+      <c r="H73" s="578"/>
+      <c r="I73" s="562"/>
+      <c r="J73" s="560"/>
+      <c r="K73" s="457"/>
+      <c r="L73" s="458"/>
+      <c r="M73" s="458"/>
       <c r="N73" s="63"/>
       <c r="O73" s="54"/>
       <c r="P73" s="55"/>
       <c r="Q73" s="63"/>
       <c r="R73" s="54"/>
       <c r="S73" s="54"/>
-      <c r="T73" s="483" t="s">
+      <c r="T73" s="536" t="s">
         <v>151</v>
       </c>
-      <c r="U73" s="484"/>
-      <c r="V73" s="484"/>
-      <c r="W73" s="472"/>
-      <c r="X73" s="473"/>
-      <c r="Y73" s="474"/>
+      <c r="U73" s="537"/>
+      <c r="V73" s="537"/>
+      <c r="W73" s="454"/>
+      <c r="X73" s="455"/>
+      <c r="Y73" s="489"/>
     </row>
     <row r="74" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="556"/>
-      <c r="C74" s="556"/>
-      <c r="D74" s="556"/>
-      <c r="E74" s="556"/>
-      <c r="F74" s="556"/>
+      <c r="B74" s="472"/>
+      <c r="C74" s="472"/>
+      <c r="D74" s="472"/>
+      <c r="E74" s="472"/>
+      <c r="F74" s="472"/>
       <c r="G74" s="130" t="s">
         <v>25</v>
       </c>
@@ -6797,29 +6797,29 @@
       <c r="A75" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="555"/>
-      <c r="C75" s="555"/>
-      <c r="D75" s="555"/>
-      <c r="E75" s="555">
+      <c r="B75" s="471"/>
+      <c r="C75" s="471"/>
+      <c r="D75" s="471"/>
+      <c r="E75" s="471">
         <v>31</v>
       </c>
-      <c r="F75" s="555"/>
+      <c r="F75" s="471"/>
       <c r="G75" s="138"/>
-      <c r="H75" s="530"/>
-      <c r="I75" s="531"/>
-      <c r="J75" s="532"/>
-      <c r="K75" s="458"/>
-      <c r="L75" s="453"/>
-      <c r="M75" s="453"/>
+      <c r="H75" s="579"/>
+      <c r="I75" s="470"/>
+      <c r="J75" s="560"/>
+      <c r="K75" s="457"/>
+      <c r="L75" s="458"/>
+      <c r="M75" s="458"/>
       <c r="N75" s="56"/>
       <c r="O75" s="51"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="56"/>
       <c r="R75" s="51"/>
       <c r="S75" s="51"/>
-      <c r="T75" s="558"/>
-      <c r="U75" s="559"/>
-      <c r="V75" s="560"/>
+      <c r="T75" s="612"/>
+      <c r="U75" s="613"/>
+      <c r="V75" s="614"/>
       <c r="W75" s="286"/>
       <c r="X75" s="248"/>
       <c r="Y75" s="287"/>
@@ -6828,11 +6828,11 @@
       <c r="A76" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="556"/>
-      <c r="C76" s="556"/>
-      <c r="D76" s="556"/>
-      <c r="E76" s="556"/>
-      <c r="F76" s="556"/>
+      <c r="B76" s="472"/>
+      <c r="C76" s="472"/>
+      <c r="D76" s="472"/>
+      <c r="E76" s="472"/>
+      <c r="F76" s="472"/>
       <c r="G76" s="130" t="s">
         <v>35</v>
       </c>
@@ -6883,9 +6883,9 @@
       <c r="Q77" s="56"/>
       <c r="R77" s="57"/>
       <c r="S77" s="57"/>
-      <c r="T77" s="517"/>
-      <c r="U77" s="518"/>
-      <c r="V77" s="519"/>
+      <c r="T77" s="486"/>
+      <c r="U77" s="487"/>
+      <c r="V77" s="488"/>
       <c r="W77" s="56"/>
       <c r="X77" s="57"/>
       <c r="Y77" s="58"/>
@@ -7066,26 +7066,26 @@
       <c r="A84" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="557">
+      <c r="B84" s="483">
         <v>10</v>
       </c>
-      <c r="C84" s="557">
+      <c r="C84" s="483">
         <v>10</v>
       </c>
-      <c r="D84" s="557">
+      <c r="D84" s="483">
         <v>7</v>
       </c>
-      <c r="E84" s="557">
+      <c r="E84" s="483">
         <v>5</v>
       </c>
-      <c r="F84" s="557">
+      <c r="F84" s="483">
         <v>2</v>
       </c>
-      <c r="G84" s="573" t="s">
+      <c r="G84" s="600" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="458"/>
-      <c r="I84" s="453"/>
+      <c r="H84" s="457"/>
+      <c r="I84" s="458"/>
       <c r="J84" s="459"/>
       <c r="K84" s="281"/>
       <c r="L84" s="281"/>
@@ -7107,12 +7107,12 @@
       <c r="A85" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="556"/>
-      <c r="C85" s="556"/>
-      <c r="D85" s="556"/>
-      <c r="E85" s="556"/>
-      <c r="F85" s="556"/>
-      <c r="G85" s="571"/>
+      <c r="B85" s="472"/>
+      <c r="C85" s="472"/>
+      <c r="D85" s="472"/>
+      <c r="E85" s="472"/>
+      <c r="F85" s="472"/>
+      <c r="G85" s="577"/>
       <c r="H85" s="63"/>
       <c r="I85" s="4"/>
       <c r="J85" s="64"/>
@@ -7136,26 +7136,26 @@
       <c r="A86" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="555">
+      <c r="B86" s="471">
         <v>24</v>
       </c>
-      <c r="C86" s="555">
+      <c r="C86" s="471">
         <v>24</v>
       </c>
-      <c r="D86" s="555">
+      <c r="D86" s="471">
         <v>21</v>
       </c>
-      <c r="E86" s="555">
+      <c r="E86" s="471">
         <v>19</v>
       </c>
       <c r="F86" s="49"/>
-      <c r="G86" s="570" t="s">
+      <c r="G86" s="576" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="496" t="s">
+      <c r="H86" s="575" t="s">
         <v>155</v>
       </c>
-      <c r="I86" s="453"/>
+      <c r="I86" s="458"/>
       <c r="J86" s="459"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
@@ -7163,30 +7163,30 @@
       <c r="N86" s="53"/>
       <c r="O86" s="54"/>
       <c r="P86" s="55"/>
-      <c r="Q86" s="458" t="s">
+      <c r="Q86" s="457" t="s">
         <v>39</v>
       </c>
-      <c r="R86" s="453"/>
-      <c r="S86" s="453"/>
+      <c r="R86" s="458"/>
+      <c r="S86" s="458"/>
       <c r="T86" s="328"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
-      <c r="W86" s="458" t="s">
+      <c r="W86" s="457" t="s">
         <v>156</v>
       </c>
-      <c r="X86" s="453"/>
-      <c r="Y86" s="454"/>
+      <c r="X86" s="458"/>
+      <c r="Y86" s="485"/>
     </row>
     <row r="87" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="556"/>
-      <c r="C87" s="556"/>
-      <c r="D87" s="556"/>
-      <c r="E87" s="556"/>
+      <c r="B87" s="472"/>
+      <c r="C87" s="472"/>
+      <c r="D87" s="472"/>
+      <c r="E87" s="472"/>
       <c r="F87" s="38"/>
-      <c r="G87" s="571"/>
+      <c r="G87" s="577"/>
       <c r="H87" s="68" t="s">
         <v>157</v>
       </c>
@@ -7228,18 +7228,18 @@
       <c r="A88" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="555"/>
-      <c r="C88" s="555"/>
-      <c r="D88" s="555"/>
-      <c r="E88" s="555"/>
-      <c r="F88" s="555"/>
-      <c r="G88" s="570" t="s">
+      <c r="B88" s="471"/>
+      <c r="C88" s="471"/>
+      <c r="D88" s="471"/>
+      <c r="E88" s="471"/>
+      <c r="F88" s="471"/>
+      <c r="G88" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="496" t="s">
+      <c r="H88" s="575" t="s">
         <v>36</v>
       </c>
-      <c r="I88" s="453"/>
+      <c r="I88" s="458"/>
       <c r="J88" s="459"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
@@ -7247,30 +7247,30 @@
       <c r="N88" s="53"/>
       <c r="O88" s="54"/>
       <c r="P88" s="55"/>
-      <c r="Q88" s="458" t="s">
+      <c r="Q88" s="457" t="s">
         <v>39</v>
       </c>
-      <c r="R88" s="453"/>
-      <c r="S88" s="453"/>
+      <c r="R88" s="458"/>
+      <c r="S88" s="458"/>
       <c r="T88" s="152"/>
       <c r="U88" s="61"/>
       <c r="V88" s="61"/>
-      <c r="W88" s="472" t="s">
+      <c r="W88" s="454" t="s">
         <v>156</v>
       </c>
-      <c r="X88" s="473"/>
-      <c r="Y88" s="474"/>
+      <c r="X88" s="455"/>
+      <c r="Y88" s="489"/>
     </row>
     <row r="89" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="556"/>
-      <c r="C89" s="556"/>
-      <c r="D89" s="556"/>
-      <c r="E89" s="556"/>
-      <c r="F89" s="556"/>
-      <c r="G89" s="571"/>
+      <c r="B89" s="472"/>
+      <c r="C89" s="472"/>
+      <c r="D89" s="472"/>
+      <c r="E89" s="472"/>
+      <c r="F89" s="472"/>
+      <c r="G89" s="577"/>
       <c r="H89" s="76" t="s">
         <v>41</v>
       </c>
@@ -7298,57 +7298,57 @@
       <c r="T89" s="330"/>
       <c r="U89" s="77"/>
       <c r="V89" s="77"/>
-      <c r="W89" s="455"/>
-      <c r="X89" s="456"/>
-      <c r="Y89" s="457"/>
+      <c r="W89" s="464"/>
+      <c r="X89" s="465"/>
+      <c r="Y89" s="513"/>
     </row>
     <row r="90" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="555"/>
-      <c r="C90" s="555"/>
-      <c r="D90" s="555"/>
-      <c r="E90" s="555"/>
-      <c r="F90" s="555"/>
-      <c r="G90" s="570" t="s">
+      <c r="B90" s="471"/>
+      <c r="C90" s="471"/>
+      <c r="D90" s="471"/>
+      <c r="E90" s="471"/>
+      <c r="F90" s="471"/>
+      <c r="G90" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="H90" s="458" t="s">
+      <c r="H90" s="457" t="s">
         <v>26</v>
       </c>
-      <c r="I90" s="453"/>
+      <c r="I90" s="458"/>
       <c r="J90" s="459"/>
-      <c r="K90" s="472" t="s">
+      <c r="K90" s="454" t="s">
         <v>130</v>
       </c>
-      <c r="L90" s="473"/>
-      <c r="M90" s="485"/>
+      <c r="L90" s="455"/>
+      <c r="M90" s="456"/>
       <c r="N90" s="54"/>
       <c r="O90" s="54"/>
       <c r="P90" s="55"/>
-      <c r="Q90" s="458" t="s">
+      <c r="Q90" s="457" t="s">
         <v>124</v>
       </c>
-      <c r="R90" s="453"/>
-      <c r="S90" s="453"/>
+      <c r="R90" s="458"/>
+      <c r="S90" s="458"/>
       <c r="T90" s="142"/>
       <c r="U90" s="57"/>
       <c r="V90" s="57"/>
-      <c r="W90" s="455"/>
-      <c r="X90" s="456"/>
-      <c r="Y90" s="457"/>
+      <c r="W90" s="464"/>
+      <c r="X90" s="465"/>
+      <c r="Y90" s="513"/>
     </row>
     <row r="91" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="556"/>
-      <c r="C91" s="556"/>
-      <c r="D91" s="556"/>
-      <c r="E91" s="556"/>
-      <c r="F91" s="556"/>
-      <c r="G91" s="571"/>
+      <c r="B91" s="472"/>
+      <c r="C91" s="472"/>
+      <c r="D91" s="472"/>
+      <c r="E91" s="472"/>
+      <c r="F91" s="472"/>
+      <c r="G91" s="577"/>
       <c r="H91" s="60" t="s">
         <v>29</v>
       </c>
@@ -7398,51 +7398,51 @@
       <c r="A92" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="555"/>
-      <c r="C92" s="555"/>
-      <c r="D92" s="555"/>
-      <c r="E92" s="555"/>
-      <c r="F92" s="555"/>
-      <c r="G92" s="570" t="s">
+      <c r="B92" s="471"/>
+      <c r="C92" s="471"/>
+      <c r="D92" s="471"/>
+      <c r="E92" s="471"/>
+      <c r="F92" s="471"/>
+      <c r="G92" s="576" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="496" t="s">
+      <c r="H92" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="I92" s="453"/>
+      <c r="I92" s="458"/>
       <c r="J92" s="459"/>
-      <c r="K92" s="458" t="s">
+      <c r="K92" s="457" t="s">
         <v>138</v>
       </c>
-      <c r="L92" s="453"/>
+      <c r="L92" s="458"/>
       <c r="M92" s="459"/>
       <c r="N92" s="54"/>
       <c r="O92" s="54"/>
       <c r="P92" s="55"/>
-      <c r="Q92" s="458"/>
-      <c r="R92" s="453"/>
-      <c r="S92" s="453"/>
-      <c r="T92" s="593" t="s">
+      <c r="Q92" s="457"/>
+      <c r="R92" s="458"/>
+      <c r="S92" s="458"/>
+      <c r="T92" s="512" t="s">
         <v>160</v>
       </c>
-      <c r="U92" s="453"/>
+      <c r="U92" s="458"/>
       <c r="V92" s="459"/>
-      <c r="W92" s="452" t="s">
+      <c r="W92" s="484" t="s">
         <v>110</v>
       </c>
-      <c r="X92" s="453"/>
-      <c r="Y92" s="454"/>
+      <c r="X92" s="458"/>
+      <c r="Y92" s="485"/>
     </row>
     <row r="93" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="556"/>
-      <c r="C93" s="556"/>
-      <c r="D93" s="556"/>
-      <c r="E93" s="556"/>
-      <c r="F93" s="556"/>
-      <c r="G93" s="571"/>
+      <c r="B93" s="472"/>
+      <c r="C93" s="472"/>
+      <c r="D93" s="472"/>
+      <c r="E93" s="472"/>
+      <c r="F93" s="472"/>
+      <c r="G93" s="577"/>
       <c r="H93" s="331" t="s">
         <v>29</v>
       </c>
@@ -7467,11 +7467,11 @@
       <c r="Q93" s="68"/>
       <c r="R93" s="40"/>
       <c r="S93" s="93"/>
-      <c r="T93" s="553" t="s">
+      <c r="T93" s="611" t="s">
         <v>161</v>
       </c>
-      <c r="U93" s="456"/>
-      <c r="V93" s="554"/>
+      <c r="U93" s="465"/>
+      <c r="V93" s="466"/>
       <c r="W93" s="68" t="s">
         <v>162</v>
       </c>
@@ -7491,23 +7491,23 @@
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
       <c r="F94" s="74"/>
-      <c r="G94" s="570" t="s">
+      <c r="G94" s="576" t="s">
         <v>69</v>
       </c>
       <c r="H94" s="88"/>
       <c r="I94" s="109"/>
       <c r="J94" s="252"/>
-      <c r="K94" s="458" t="s">
+      <c r="K94" s="457" t="s">
         <v>138</v>
       </c>
-      <c r="L94" s="453"/>
+      <c r="L94" s="458"/>
       <c r="M94" s="459"/>
-      <c r="N94" s="472"/>
-      <c r="O94" s="551"/>
-      <c r="P94" s="552"/>
-      <c r="Q94" s="458"/>
-      <c r="R94" s="453"/>
-      <c r="S94" s="453"/>
+      <c r="N94" s="454"/>
+      <c r="O94" s="639"/>
+      <c r="P94" s="640"/>
+      <c r="Q94" s="457"/>
+      <c r="R94" s="458"/>
+      <c r="S94" s="458"/>
       <c r="T94" s="332"/>
       <c r="U94" s="333"/>
       <c r="V94" s="334"/>
@@ -7522,7 +7522,7 @@
       <c r="D95" s="116"/>
       <c r="E95" s="116"/>
       <c r="F95" s="116"/>
-      <c r="G95" s="578"/>
+      <c r="G95" s="597"/>
       <c r="H95" s="337"/>
       <c r="I95" s="338"/>
       <c r="J95" s="217"/>
@@ -7556,27 +7556,27 @@
     </row>
     <row r="96" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120"/>
-      <c r="B96" s="557">
+      <c r="B96" s="483">
         <v>11</v>
       </c>
-      <c r="C96" s="557">
+      <c r="C96" s="483">
         <v>11</v>
       </c>
-      <c r="D96" s="557">
+      <c r="D96" s="483">
         <v>8</v>
       </c>
-      <c r="E96" s="557">
+      <c r="E96" s="483">
         <v>6</v>
       </c>
-      <c r="F96" s="557">
+      <c r="F96" s="483">
         <v>3</v>
       </c>
-      <c r="G96" s="573" t="s">
+      <c r="G96" s="600" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="506"/>
-      <c r="I96" s="506"/>
-      <c r="J96" s="506"/>
+      <c r="H96" s="468"/>
+      <c r="I96" s="468"/>
+      <c r="J96" s="468"/>
       <c r="K96" s="125"/>
       <c r="L96" s="123"/>
       <c r="M96" s="124"/>
@@ -7595,12 +7595,12 @@
     </row>
     <row r="97" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="129"/>
-      <c r="B97" s="556"/>
-      <c r="C97" s="556"/>
-      <c r="D97" s="556"/>
-      <c r="E97" s="556"/>
-      <c r="F97" s="556"/>
-      <c r="G97" s="571"/>
+      <c r="B97" s="472"/>
+      <c r="C97" s="472"/>
+      <c r="D97" s="472"/>
+      <c r="E97" s="472"/>
+      <c r="F97" s="472"/>
+      <c r="G97" s="577"/>
       <c r="H97" s="109"/>
       <c r="I97" s="347"/>
       <c r="J97" s="183"/>
@@ -7624,29 +7624,29 @@
       <c r="A98" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="555">
+      <c r="B98" s="471">
         <v>25</v>
       </c>
-      <c r="C98" s="555">
+      <c r="C98" s="471">
         <v>25</v>
       </c>
-      <c r="D98" s="555">
+      <c r="D98" s="471">
         <v>22</v>
       </c>
-      <c r="E98" s="555">
+      <c r="E98" s="471">
         <v>20</v>
       </c>
-      <c r="F98" s="555"/>
-      <c r="G98" s="570" t="s">
+      <c r="F98" s="471"/>
+      <c r="G98" s="576" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="531"/>
-      <c r="I98" s="531"/>
-      <c r="J98" s="531"/>
-      <c r="K98" s="458" t="s">
+      <c r="H98" s="470"/>
+      <c r="I98" s="470"/>
+      <c r="J98" s="470"/>
+      <c r="K98" s="457" t="s">
         <v>155</v>
       </c>
-      <c r="L98" s="453"/>
+      <c r="L98" s="458"/>
       <c r="M98" s="459"/>
       <c r="N98" s="348"/>
       <c r="O98" s="349"/>
@@ -7657,20 +7657,20 @@
       <c r="T98" s="142"/>
       <c r="U98" s="57"/>
       <c r="V98" s="57"/>
-      <c r="W98" s="475"/>
-      <c r="X98" s="476"/>
-      <c r="Y98" s="477"/>
+      <c r="W98" s="515"/>
+      <c r="X98" s="516"/>
+      <c r="Y98" s="517"/>
     </row>
     <row r="99" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="556"/>
-      <c r="C99" s="556"/>
-      <c r="D99" s="556"/>
-      <c r="E99" s="556"/>
-      <c r="F99" s="556"/>
-      <c r="G99" s="571"/>
+      <c r="B99" s="472"/>
+      <c r="C99" s="472"/>
+      <c r="D99" s="472"/>
+      <c r="E99" s="472"/>
+      <c r="F99" s="472"/>
+      <c r="G99" s="577"/>
       <c r="H99" s="60"/>
       <c r="I99" s="61"/>
       <c r="J99" s="61"/>
@@ -7700,47 +7700,47 @@
       <c r="A100" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="555"/>
-      <c r="C100" s="555"/>
-      <c r="D100" s="555"/>
-      <c r="E100" s="555"/>
-      <c r="F100" s="555"/>
-      <c r="G100" s="570" t="s">
+      <c r="B100" s="471"/>
+      <c r="C100" s="471"/>
+      <c r="D100" s="471"/>
+      <c r="E100" s="471"/>
+      <c r="F100" s="471"/>
+      <c r="G100" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="458" t="s">
+      <c r="H100" s="457" t="s">
         <v>138</v>
       </c>
-      <c r="I100" s="453"/>
+      <c r="I100" s="458"/>
       <c r="J100" s="459"/>
-      <c r="K100" s="495" t="s">
+      <c r="K100" s="475" t="s">
         <v>166</v>
       </c>
-      <c r="L100" s="463"/>
-      <c r="M100" s="464"/>
-      <c r="N100" s="458"/>
-      <c r="O100" s="453"/>
+      <c r="L100" s="476"/>
+      <c r="M100" s="477"/>
+      <c r="N100" s="457"/>
+      <c r="O100" s="458"/>
       <c r="P100" s="459"/>
-      <c r="Q100" s="472"/>
-      <c r="R100" s="473"/>
-      <c r="S100" s="473"/>
+      <c r="Q100" s="454"/>
+      <c r="R100" s="455"/>
+      <c r="S100" s="455"/>
       <c r="T100" s="357"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="475"/>
-      <c r="X100" s="476"/>
-      <c r="Y100" s="477"/>
+      <c r="W100" s="515"/>
+      <c r="X100" s="516"/>
+      <c r="Y100" s="517"/>
     </row>
     <row r="101" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="556"/>
-      <c r="C101" s="556"/>
-      <c r="D101" s="556"/>
-      <c r="E101" s="556"/>
-      <c r="F101" s="556"/>
-      <c r="G101" s="571"/>
+      <c r="B101" s="472"/>
+      <c r="C101" s="472"/>
+      <c r="D101" s="472"/>
+      <c r="E101" s="472"/>
+      <c r="F101" s="472"/>
+      <c r="G101" s="577"/>
       <c r="H101" s="131" t="s">
         <v>167</v>
       </c>
@@ -7781,30 +7781,30 @@
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
       <c r="F102" s="74"/>
-      <c r="G102" s="570" t="s">
+      <c r="G102" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="H102" s="458" t="s">
+      <c r="H102" s="457" t="s">
         <v>138</v>
       </c>
-      <c r="I102" s="453"/>
+      <c r="I102" s="458"/>
       <c r="J102" s="459"/>
-      <c r="K102" s="495" t="s">
+      <c r="K102" s="475" t="s">
         <v>166</v>
       </c>
-      <c r="L102" s="463"/>
-      <c r="M102" s="464"/>
-      <c r="N102" s="472" t="s">
+      <c r="L102" s="476"/>
+      <c r="M102" s="477"/>
+      <c r="N102" s="454" t="s">
         <v>149</v>
       </c>
-      <c r="O102" s="473"/>
-      <c r="P102" s="473"/>
-      <c r="Q102" s="473"/>
-      <c r="R102" s="473"/>
-      <c r="S102" s="473"/>
-      <c r="T102" s="564"/>
-      <c r="U102" s="473"/>
-      <c r="V102" s="473"/>
+      <c r="O102" s="455"/>
+      <c r="P102" s="455"/>
+      <c r="Q102" s="455"/>
+      <c r="R102" s="455"/>
+      <c r="S102" s="455"/>
+      <c r="T102" s="549"/>
+      <c r="U102" s="455"/>
+      <c r="V102" s="455"/>
       <c r="W102" s="63"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="358"/>
@@ -7818,7 +7818,7 @@
       <c r="D103" s="85"/>
       <c r="E103" s="85"/>
       <c r="F103" s="85"/>
-      <c r="G103" s="571"/>
+      <c r="G103" s="577"/>
       <c r="H103" s="131" t="s">
         <v>167</v>
       </c>
@@ -7835,8 +7835,8 @@
         <v>146</v>
       </c>
       <c r="O103" s="83"/>
-      <c r="P103" s="492"/>
-      <c r="Q103" s="492"/>
+      <c r="P103" s="479"/>
+      <c r="Q103" s="479"/>
       <c r="R103" s="45" t="s">
         <v>81</v>
       </c>
@@ -7861,36 +7861,36 @@
       <c r="D104" s="73"/>
       <c r="E104" s="73"/>
       <c r="F104" s="74"/>
-      <c r="G104" s="570" t="s">
+      <c r="G104" s="576" t="s">
         <v>59</v>
       </c>
-      <c r="H104" s="494" t="s">
+      <c r="H104" s="463" t="s">
         <v>77</v>
       </c>
-      <c r="I104" s="473"/>
-      <c r="J104" s="485"/>
+      <c r="I104" s="455"/>
+      <c r="J104" s="456"/>
       <c r="K104" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="L104" s="489" t="s">
+      <c r="L104" s="580" t="s">
         <v>52</v>
       </c>
-      <c r="M104" s="490"/>
-      <c r="N104" s="458" t="s">
+      <c r="M104" s="582"/>
+      <c r="N104" s="457" t="s">
         <v>149</v>
       </c>
-      <c r="O104" s="453"/>
+      <c r="O104" s="458"/>
       <c r="P104" s="459"/>
-      <c r="Q104" s="547" t="s">
+      <c r="Q104" s="469" t="s">
         <v>49</v>
       </c>
-      <c r="R104" s="531"/>
-      <c r="S104" s="531"/>
-      <c r="T104" s="469" t="s">
+      <c r="R104" s="470"/>
+      <c r="S104" s="470"/>
+      <c r="T104" s="507" t="s">
         <v>150</v>
       </c>
-      <c r="U104" s="470"/>
-      <c r="V104" s="471"/>
+      <c r="U104" s="508"/>
+      <c r="V104" s="509"/>
       <c r="W104" s="56"/>
       <c r="X104" s="57"/>
       <c r="Y104" s="159"/>
@@ -7902,7 +7902,7 @@
       <c r="D105" s="85"/>
       <c r="E105" s="85"/>
       <c r="F105" s="85"/>
-      <c r="G105" s="571"/>
+      <c r="G105" s="577"/>
       <c r="H105" s="40" t="s">
         <v>80</v>
       </c>
@@ -7912,11 +7912,11 @@
       <c r="J105" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="491" t="s">
+      <c r="K105" s="478" t="s">
         <v>169</v>
       </c>
-      <c r="L105" s="492"/>
-      <c r="M105" s="493"/>
+      <c r="L105" s="479"/>
+      <c r="M105" s="480"/>
       <c r="N105" s="68" t="s">
         <v>146</v>
       </c>
@@ -7955,32 +7955,32 @@
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
       <c r="F106" s="74"/>
-      <c r="G106" s="570" t="s">
+      <c r="G106" s="576" t="s">
         <v>69</v>
       </c>
-      <c r="H106" s="494" t="s">
+      <c r="H106" s="463" t="s">
         <v>77</v>
       </c>
-      <c r="I106" s="473"/>
-      <c r="J106" s="485"/>
-      <c r="K106" s="472"/>
-      <c r="L106" s="473"/>
-      <c r="M106" s="473"/>
-      <c r="N106" s="458" t="s">
+      <c r="I106" s="455"/>
+      <c r="J106" s="456"/>
+      <c r="K106" s="454"/>
+      <c r="L106" s="455"/>
+      <c r="M106" s="455"/>
+      <c r="N106" s="457" t="s">
         <v>170</v>
       </c>
-      <c r="O106" s="453"/>
+      <c r="O106" s="458"/>
       <c r="P106" s="459"/>
-      <c r="Q106" s="547" t="s">
+      <c r="Q106" s="469" t="s">
         <v>49</v>
       </c>
-      <c r="R106" s="531"/>
-      <c r="S106" s="531"/>
-      <c r="T106" s="469" t="s">
+      <c r="R106" s="470"/>
+      <c r="S106" s="470"/>
+      <c r="T106" s="507" t="s">
         <v>150</v>
       </c>
-      <c r="U106" s="470"/>
-      <c r="V106" s="471"/>
+      <c r="U106" s="508"/>
+      <c r="V106" s="509"/>
       <c r="W106" s="56"/>
       <c r="X106" s="57"/>
       <c r="Y106" s="58"/>
@@ -7992,7 +7992,7 @@
       <c r="D107" s="116"/>
       <c r="E107" s="116"/>
       <c r="F107" s="116"/>
-      <c r="G107" s="578"/>
+      <c r="G107" s="597"/>
       <c r="H107" s="109" t="s">
         <v>80</v>
       </c>
@@ -8038,31 +8038,31 @@
     </row>
     <row r="108" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120"/>
-      <c r="B108" s="557">
+      <c r="B108" s="483">
         <v>12</v>
       </c>
-      <c r="C108" s="557">
+      <c r="C108" s="483">
         <v>12</v>
       </c>
-      <c r="D108" s="557">
+      <c r="D108" s="483">
         <v>9</v>
       </c>
-      <c r="E108" s="557">
+      <c r="E108" s="483">
         <v>7</v>
       </c>
-      <c r="F108" s="557">
+      <c r="F108" s="483">
         <v>4</v>
       </c>
-      <c r="G108" s="573" t="s">
+      <c r="G108" s="600" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="572"/>
-      <c r="I108" s="506"/>
-      <c r="J108" s="507"/>
-      <c r="K108" s="458" t="s">
+      <c r="H108" s="605"/>
+      <c r="I108" s="468"/>
+      <c r="J108" s="606"/>
+      <c r="K108" s="457" t="s">
         <v>27</v>
       </c>
-      <c r="L108" s="453"/>
+      <c r="L108" s="458"/>
       <c r="M108" s="459"/>
       <c r="N108" s="363" t="s">
         <v>75</v>
@@ -8083,15 +8083,15 @@
       <c r="A109" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="556"/>
-      <c r="C109" s="556"/>
-      <c r="D109" s="556"/>
-      <c r="E109" s="556"/>
-      <c r="F109" s="556"/>
-      <c r="G109" s="571"/>
+      <c r="B109" s="472"/>
+      <c r="C109" s="472"/>
+      <c r="D109" s="472"/>
+      <c r="E109" s="472"/>
+      <c r="F109" s="472"/>
+      <c r="G109" s="577"/>
       <c r="H109" s="153"/>
-      <c r="I109" s="492"/>
-      <c r="J109" s="493"/>
+      <c r="I109" s="479"/>
+      <c r="J109" s="480"/>
       <c r="K109" s="63" t="s">
         <v>32</v>
       </c>
@@ -8101,9 +8101,9 @@
       <c r="M109" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N109" s="460"/>
-      <c r="O109" s="461"/>
-      <c r="P109" s="462"/>
+      <c r="N109" s="510"/>
+      <c r="O109" s="511"/>
+      <c r="P109" s="615"/>
       <c r="Q109" s="302"/>
       <c r="R109" s="302"/>
       <c r="S109" s="40"/>
@@ -8116,55 +8116,55 @@
     </row>
     <row r="110" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="137"/>
-      <c r="B110" s="555">
+      <c r="B110" s="471">
         <v>26</v>
       </c>
-      <c r="C110" s="555">
+      <c r="C110" s="471">
         <v>26</v>
       </c>
-      <c r="D110" s="555">
+      <c r="D110" s="471">
         <v>23</v>
       </c>
-      <c r="E110" s="555">
+      <c r="E110" s="471">
         <v>21</v>
       </c>
-      <c r="F110" s="555"/>
-      <c r="G110" s="570" t="s">
+      <c r="F110" s="471"/>
+      <c r="G110" s="576" t="s">
         <v>25</v>
       </c>
       <c r="H110" s="369"/>
       <c r="I110" s="370"/>
       <c r="J110" s="371"/>
-      <c r="K110" s="458" t="s">
+      <c r="K110" s="457" t="s">
         <v>48</v>
       </c>
-      <c r="L110" s="453"/>
+      <c r="L110" s="458"/>
       <c r="M110" s="459"/>
-      <c r="N110" s="460" t="s">
+      <c r="N110" s="510" t="s">
         <v>171</v>
       </c>
-      <c r="O110" s="461"/>
-      <c r="P110" s="462"/>
+      <c r="O110" s="511"/>
+      <c r="P110" s="615"/>
       <c r="Q110" s="372"/>
       <c r="R110" s="372"/>
       <c r="S110" s="248"/>
       <c r="T110" s="265"/>
-      <c r="U110" s="453"/>
-      <c r="V110" s="453"/>
-      <c r="W110" s="472"/>
-      <c r="X110" s="473"/>
-      <c r="Y110" s="474"/>
+      <c r="U110" s="458"/>
+      <c r="V110" s="458"/>
+      <c r="W110" s="454"/>
+      <c r="X110" s="455"/>
+      <c r="Y110" s="489"/>
     </row>
     <row r="111" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="556"/>
-      <c r="C111" s="556"/>
-      <c r="D111" s="556"/>
-      <c r="E111" s="556"/>
-      <c r="F111" s="556"/>
-      <c r="G111" s="571"/>
+      <c r="B111" s="472"/>
+      <c r="C111" s="472"/>
+      <c r="D111" s="472"/>
+      <c r="E111" s="472"/>
+      <c r="F111" s="472"/>
+      <c r="G111" s="577"/>
       <c r="H111" s="373"/>
       <c r="I111" s="70"/>
       <c r="J111" s="98"/>
@@ -8177,11 +8177,11 @@
       <c r="M111" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N111" s="491" t="s">
+      <c r="N111" s="478" t="s">
         <v>172</v>
       </c>
-      <c r="O111" s="492"/>
-      <c r="P111" s="493"/>
+      <c r="O111" s="479"/>
+      <c r="P111" s="480"/>
       <c r="Q111" s="77"/>
       <c r="R111" s="77"/>
       <c r="S111" s="93"/>
@@ -8189,26 +8189,26 @@
       <c r="U111" s="81"/>
       <c r="V111" s="81"/>
       <c r="W111" s="40"/>
-      <c r="X111" s="492"/>
-      <c r="Y111" s="613"/>
+      <c r="X111" s="479"/>
+      <c r="Y111" s="514"/>
     </row>
     <row r="112" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="137"/>
-      <c r="B112" s="555"/>
-      <c r="C112" s="555"/>
-      <c r="D112" s="555"/>
-      <c r="E112" s="555"/>
+      <c r="B112" s="471"/>
+      <c r="C112" s="471"/>
+      <c r="D112" s="471"/>
+      <c r="E112" s="471"/>
       <c r="F112" s="191"/>
-      <c r="G112" s="570" t="s">
+      <c r="G112" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="496"/>
-      <c r="I112" s="453"/>
+      <c r="H112" s="575"/>
+      <c r="I112" s="458"/>
       <c r="J112" s="459"/>
-      <c r="K112" s="458" t="s">
+      <c r="K112" s="457" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="453"/>
+      <c r="L112" s="458"/>
       <c r="M112" s="459"/>
       <c r="N112" s="374"/>
       <c r="O112" s="374"/>
@@ -8219,24 +8219,24 @@
       <c r="R112" s="140"/>
       <c r="S112" s="140"/>
       <c r="T112" s="376"/>
-      <c r="U112" s="463"/>
-      <c r="V112" s="464"/>
-      <c r="W112" s="475" t="s">
+      <c r="U112" s="476"/>
+      <c r="V112" s="477"/>
+      <c r="W112" s="515" t="s">
         <v>173</v>
       </c>
-      <c r="X112" s="476"/>
-      <c r="Y112" s="477"/>
+      <c r="X112" s="516"/>
+      <c r="Y112" s="517"/>
     </row>
     <row r="113" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="556"/>
-      <c r="C113" s="556"/>
-      <c r="D113" s="556"/>
-      <c r="E113" s="556"/>
+      <c r="B113" s="472"/>
+      <c r="C113" s="472"/>
+      <c r="D113" s="472"/>
+      <c r="E113" s="472"/>
       <c r="F113" s="38"/>
-      <c r="G113" s="571"/>
+      <c r="G113" s="577"/>
       <c r="H113" s="76"/>
       <c r="I113" s="81"/>
       <c r="J113" s="89"/>
@@ -8246,9 +8246,9 @@
       <c r="N113" s="380"/>
       <c r="O113" s="42"/>
       <c r="P113" s="98"/>
-      <c r="Q113" s="460"/>
-      <c r="R113" s="461"/>
-      <c r="S113" s="461"/>
+      <c r="Q113" s="510"/>
+      <c r="R113" s="511"/>
+      <c r="S113" s="511"/>
       <c r="T113" s="330"/>
       <c r="U113" s="77"/>
       <c r="V113" s="79"/>
@@ -8269,37 +8269,37 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="74"/>
-      <c r="G114" s="570" t="s">
+      <c r="G114" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="H114" s="489"/>
-      <c r="I114" s="595"/>
-      <c r="J114" s="490"/>
+      <c r="H114" s="580"/>
+      <c r="I114" s="581"/>
+      <c r="J114" s="582"/>
       <c r="K114" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="L114" s="489" t="s">
+      <c r="L114" s="580" t="s">
         <v>52</v>
       </c>
-      <c r="M114" s="490"/>
-      <c r="N114" s="472" t="s">
+      <c r="M114" s="582"/>
+      <c r="N114" s="454" t="s">
         <v>135</v>
       </c>
-      <c r="O114" s="473"/>
-      <c r="P114" s="485"/>
-      <c r="Q114" s="460" t="s">
+      <c r="O114" s="455"/>
+      <c r="P114" s="456"/>
+      <c r="Q114" s="510" t="s">
         <v>83</v>
       </c>
-      <c r="R114" s="461"/>
-      <c r="S114" s="461"/>
+      <c r="R114" s="511"/>
+      <c r="S114" s="511"/>
       <c r="T114" s="265"/>
-      <c r="U114" s="453"/>
+      <c r="U114" s="458"/>
       <c r="V114" s="459"/>
-      <c r="W114" s="475" t="s">
+      <c r="W114" s="515" t="s">
         <v>173</v>
       </c>
-      <c r="X114" s="476"/>
-      <c r="Y114" s="477"/>
+      <c r="X114" s="516"/>
+      <c r="Y114" s="517"/>
     </row>
     <row r="115" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="137" t="s">
@@ -8310,15 +8310,15 @@
       <c r="D115" s="85"/>
       <c r="E115" s="85"/>
       <c r="F115" s="85"/>
-      <c r="G115" s="571"/>
+      <c r="G115" s="577"/>
       <c r="H115" s="78"/>
       <c r="I115" s="77"/>
       <c r="J115" s="89"/>
-      <c r="K115" s="486" t="s">
+      <c r="K115" s="638" t="s">
         <v>174</v>
       </c>
-      <c r="L115" s="487"/>
-      <c r="M115" s="488"/>
+      <c r="L115" s="622"/>
+      <c r="M115" s="623"/>
       <c r="N115" s="63" t="s">
         <v>137</v>
       </c>
@@ -8328,11 +8328,11 @@
       <c r="P115" s="295" t="s">
         <v>31</v>
       </c>
-      <c r="Q115" s="491" t="s">
+      <c r="Q115" s="478" t="s">
         <v>175</v>
       </c>
-      <c r="R115" s="492"/>
-      <c r="S115" s="492"/>
+      <c r="R115" s="479"/>
+      <c r="S115" s="479"/>
       <c r="T115" s="326"/>
       <c r="U115" s="81"/>
       <c r="V115" s="89"/>
@@ -8353,29 +8353,29 @@
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
       <c r="F116" s="74"/>
-      <c r="G116" s="570" t="s">
+      <c r="G116" s="576" t="s">
         <v>59</v>
       </c>
       <c r="H116" s="381"/>
       <c r="I116" s="249"/>
       <c r="J116" s="292"/>
-      <c r="K116" s="458"/>
-      <c r="L116" s="453"/>
-      <c r="M116" s="453"/>
-      <c r="N116" s="472" t="s">
+      <c r="K116" s="457"/>
+      <c r="L116" s="458"/>
+      <c r="M116" s="458"/>
+      <c r="N116" s="454" t="s">
         <v>135</v>
       </c>
-      <c r="O116" s="473"/>
-      <c r="P116" s="485"/>
-      <c r="Q116" s="512"/>
-      <c r="R116" s="465"/>
-      <c r="S116" s="465"/>
-      <c r="T116" s="469"/>
-      <c r="U116" s="470"/>
-      <c r="V116" s="471"/>
-      <c r="W116" s="465"/>
-      <c r="X116" s="465"/>
-      <c r="Y116" s="466"/>
+      <c r="O116" s="455"/>
+      <c r="P116" s="456"/>
+      <c r="Q116" s="524"/>
+      <c r="R116" s="525"/>
+      <c r="S116" s="525"/>
+      <c r="T116" s="507"/>
+      <c r="U116" s="508"/>
+      <c r="V116" s="509"/>
+      <c r="W116" s="525"/>
+      <c r="X116" s="525"/>
+      <c r="Y116" s="526"/>
     </row>
     <row r="117" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="137" t="s">
@@ -8386,7 +8386,7 @@
       <c r="D117" s="85"/>
       <c r="E117" s="85"/>
       <c r="F117" s="85"/>
-      <c r="G117" s="571"/>
+      <c r="G117" s="577"/>
       <c r="H117" s="80"/>
       <c r="I117" s="81"/>
       <c r="J117" s="89"/>
@@ -8402,15 +8402,15 @@
       <c r="P117" s="303" t="s">
         <v>54</v>
       </c>
-      <c r="Q117" s="513"/>
-      <c r="R117" s="467"/>
-      <c r="S117" s="467"/>
+      <c r="Q117" s="527"/>
+      <c r="R117" s="528"/>
+      <c r="S117" s="528"/>
       <c r="T117" s="361"/>
       <c r="U117" s="190"/>
       <c r="V117" s="362"/>
-      <c r="W117" s="467"/>
-      <c r="X117" s="467"/>
-      <c r="Y117" s="468"/>
+      <c r="W117" s="528"/>
+      <c r="X117" s="528"/>
+      <c r="Y117" s="529"/>
     </row>
     <row r="118" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="137"/>
@@ -8419,21 +8419,21 @@
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
       <c r="F118" s="74"/>
-      <c r="G118" s="570" t="s">
+      <c r="G118" s="576" t="s">
         <v>69</v>
       </c>
-      <c r="K118" s="458"/>
-      <c r="L118" s="453"/>
-      <c r="M118" s="453"/>
+      <c r="K118" s="457"/>
+      <c r="L118" s="458"/>
+      <c r="M118" s="458"/>
       <c r="N118" s="381"/>
       <c r="O118" s="249"/>
       <c r="P118" s="292"/>
       <c r="Q118" s="63"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="561"/>
-      <c r="U118" s="562"/>
-      <c r="V118" s="563"/>
+      <c r="T118" s="521"/>
+      <c r="U118" s="522"/>
+      <c r="V118" s="523"/>
       <c r="W118" s="63"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="358"/>
@@ -8445,7 +8445,7 @@
       <c r="D119" s="116"/>
       <c r="E119" s="116"/>
       <c r="F119" s="116"/>
-      <c r="G119" s="578"/>
+      <c r="G119" s="597"/>
       <c r="K119" s="63"/>
       <c r="L119" s="134"/>
       <c r="M119" s="134"/>
@@ -8464,51 +8464,51 @@
     </row>
     <row r="120" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A120" s="120"/>
-      <c r="B120" s="557">
+      <c r="B120" s="483">
         <v>13</v>
       </c>
-      <c r="C120" s="581">
+      <c r="C120" s="585">
         <v>13</v>
       </c>
-      <c r="D120" s="557">
+      <c r="D120" s="483">
         <v>10</v>
       </c>
-      <c r="E120" s="581">
+      <c r="E120" s="585">
         <v>8</v>
       </c>
-      <c r="F120" s="557">
+      <c r="F120" s="483">
         <v>5</v>
       </c>
-      <c r="G120" s="573" t="s">
+      <c r="G120" s="600" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="537"/>
-      <c r="I120" s="538"/>
-      <c r="J120" s="539"/>
-      <c r="K120" s="505"/>
-      <c r="L120" s="506"/>
-      <c r="M120" s="565"/>
+      <c r="H120" s="629"/>
+      <c r="I120" s="630"/>
+      <c r="J120" s="631"/>
+      <c r="K120" s="467"/>
+      <c r="L120" s="468"/>
+      <c r="M120" s="610"/>
       <c r="N120" s="110"/>
       <c r="O120" s="111"/>
       <c r="P120" s="155"/>
       <c r="Q120" s="110"/>
       <c r="R120" s="111"/>
       <c r="S120" s="111"/>
-      <c r="T120" s="520"/>
-      <c r="U120" s="521"/>
-      <c r="V120" s="522"/>
+      <c r="T120" s="571"/>
+      <c r="U120" s="572"/>
+      <c r="V120" s="573"/>
       <c r="W120" s="110"/>
       <c r="X120" s="111"/>
       <c r="Y120" s="225"/>
     </row>
     <row r="121" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="178"/>
-      <c r="B121" s="556"/>
-      <c r="C121" s="582"/>
-      <c r="D121" s="556"/>
-      <c r="E121" s="582"/>
-      <c r="F121" s="556"/>
-      <c r="G121" s="571"/>
+      <c r="B121" s="472"/>
+      <c r="C121" s="586"/>
+      <c r="D121" s="472"/>
+      <c r="E121" s="586"/>
+      <c r="F121" s="472"/>
+      <c r="G121" s="577"/>
       <c r="H121" s="388"/>
       <c r="I121" s="389"/>
       <c r="J121" s="390"/>
@@ -8532,39 +8532,39 @@
       <c r="A122" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="585">
+      <c r="B122" s="596">
         <v>27</v>
       </c>
-      <c r="C122" s="555">
+      <c r="C122" s="471">
         <v>27</v>
       </c>
-      <c r="D122" s="555">
+      <c r="D122" s="471">
         <v>24</v>
       </c>
-      <c r="E122" s="555">
+      <c r="E122" s="471">
         <v>22</v>
       </c>
       <c r="F122" s="49"/>
-      <c r="G122" s="570" t="s">
+      <c r="G122" s="576" t="s">
         <v>25</v>
       </c>
-      <c r="H122" s="524"/>
-      <c r="I122" s="525"/>
-      <c r="J122" s="526"/>
-      <c r="K122" s="472" t="s">
+      <c r="H122" s="626"/>
+      <c r="I122" s="544"/>
+      <c r="J122" s="545"/>
+      <c r="K122" s="454" t="s">
         <v>37</v>
       </c>
-      <c r="L122" s="473"/>
-      <c r="M122" s="485"/>
+      <c r="L122" s="455"/>
+      <c r="M122" s="456"/>
       <c r="N122" s="54"/>
       <c r="O122" s="54"/>
       <c r="P122" s="54"/>
       <c r="Q122" s="56"/>
       <c r="R122" s="57"/>
       <c r="S122" s="57"/>
-      <c r="T122" s="517"/>
-      <c r="U122" s="518"/>
-      <c r="V122" s="519"/>
+      <c r="T122" s="486"/>
+      <c r="U122" s="487"/>
+      <c r="V122" s="488"/>
       <c r="W122" s="56"/>
       <c r="X122" s="57"/>
       <c r="Y122" s="58"/>
@@ -8573,12 +8573,12 @@
       <c r="A123" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="582"/>
-      <c r="C123" s="556"/>
-      <c r="D123" s="556"/>
-      <c r="E123" s="556"/>
+      <c r="B123" s="586"/>
+      <c r="C123" s="472"/>
+      <c r="D123" s="472"/>
+      <c r="E123" s="472"/>
       <c r="F123" s="38"/>
-      <c r="G123" s="571"/>
+      <c r="G123" s="577"/>
       <c r="H123" s="391"/>
       <c r="I123" s="392"/>
       <c r="J123" s="393"/>
@@ -8608,33 +8608,33 @@
       <c r="A124" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="555"/>
-      <c r="C124" s="555"/>
-      <c r="D124" s="555"/>
-      <c r="E124" s="555"/>
-      <c r="F124" s="555"/>
-      <c r="G124" s="570" t="s">
+      <c r="B124" s="471"/>
+      <c r="C124" s="471"/>
+      <c r="D124" s="471"/>
+      <c r="E124" s="471"/>
+      <c r="F124" s="471"/>
+      <c r="G124" s="576" t="s">
         <v>35</v>
       </c>
       <c r="H124" s="394"/>
       <c r="I124" s="395"/>
       <c r="J124" s="396"/>
-      <c r="K124" s="472" t="s">
+      <c r="K124" s="454" t="s">
         <v>37</v>
       </c>
-      <c r="L124" s="473"/>
-      <c r="M124" s="485"/>
+      <c r="L124" s="455"/>
+      <c r="M124" s="456"/>
       <c r="N124" s="54"/>
       <c r="O124" s="54"/>
       <c r="P124" s="54"/>
-      <c r="Q124" s="472" t="s">
+      <c r="Q124" s="454" t="s">
         <v>118</v>
       </c>
-      <c r="R124" s="473"/>
-      <c r="S124" s="473"/>
-      <c r="T124" s="517"/>
-      <c r="U124" s="518"/>
-      <c r="V124" s="519"/>
+      <c r="R124" s="455"/>
+      <c r="S124" s="455"/>
+      <c r="T124" s="486"/>
+      <c r="U124" s="487"/>
+      <c r="V124" s="488"/>
       <c r="W124" s="397"/>
       <c r="X124" s="4"/>
       <c r="Y124" s="358"/>
@@ -8643,12 +8643,12 @@
       <c r="A125" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="556"/>
-      <c r="C125" s="556"/>
-      <c r="D125" s="556"/>
-      <c r="E125" s="556"/>
-      <c r="F125" s="556"/>
-      <c r="G125" s="571"/>
+      <c r="B125" s="472"/>
+      <c r="C125" s="472"/>
+      <c r="D125" s="472"/>
+      <c r="E125" s="472"/>
+      <c r="F125" s="472"/>
+      <c r="G125" s="577"/>
       <c r="H125" s="398"/>
       <c r="I125" s="399"/>
       <c r="J125" s="400"/>
@@ -8678,37 +8678,37 @@
       <c r="A126" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="555"/>
-      <c r="C126" s="555"/>
-      <c r="D126" s="555"/>
-      <c r="E126" s="555"/>
-      <c r="F126" s="555"/>
-      <c r="G126" s="570" t="s">
+      <c r="B126" s="471"/>
+      <c r="C126" s="471"/>
+      <c r="D126" s="471"/>
+      <c r="E126" s="471"/>
+      <c r="F126" s="471"/>
+      <c r="G126" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="H126" s="496" t="s">
+      <c r="H126" s="575" t="s">
         <v>37</v>
       </c>
-      <c r="I126" s="453"/>
+      <c r="I126" s="458"/>
       <c r="J126" s="459"/>
       <c r="K126" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="L126" s="489" t="s">
+      <c r="L126" s="580" t="s">
         <v>52</v>
       </c>
-      <c r="M126" s="490"/>
+      <c r="M126" s="582"/>
       <c r="N126" s="54"/>
       <c r="O126" s="54"/>
       <c r="P126" s="54"/>
-      <c r="Q126" s="472" t="s">
+      <c r="Q126" s="454" t="s">
         <v>118</v>
       </c>
-      <c r="R126" s="473"/>
-      <c r="S126" s="473"/>
-      <c r="T126" s="520"/>
-      <c r="U126" s="521"/>
-      <c r="V126" s="522"/>
+      <c r="R126" s="455"/>
+      <c r="S126" s="455"/>
+      <c r="T126" s="571"/>
+      <c r="U126" s="572"/>
+      <c r="V126" s="573"/>
       <c r="W126" s="53"/>
       <c r="X126" s="54"/>
       <c r="Y126" s="401"/>
@@ -8717,12 +8717,12 @@
       <c r="A127" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B127" s="556"/>
-      <c r="C127" s="556"/>
-      <c r="D127" s="556"/>
-      <c r="E127" s="556"/>
-      <c r="F127" s="556"/>
-      <c r="G127" s="571"/>
+      <c r="B127" s="472"/>
+      <c r="C127" s="472"/>
+      <c r="D127" s="472"/>
+      <c r="E127" s="472"/>
+      <c r="F127" s="472"/>
+      <c r="G127" s="577"/>
       <c r="H127" s="131" t="s">
         <v>136</v>
       </c>
@@ -8769,26 +8769,26 @@
       <c r="D128" s="73"/>
       <c r="E128" s="73"/>
       <c r="F128" s="73"/>
-      <c r="G128" s="570" t="s">
+      <c r="G128" s="576" t="s">
         <v>59</v>
       </c>
-      <c r="H128" s="530" t="s">
+      <c r="H128" s="579" t="s">
         <v>117</v>
       </c>
-      <c r="I128" s="531"/>
-      <c r="J128" s="532"/>
+      <c r="I128" s="470"/>
+      <c r="J128" s="560"/>
       <c r="K128" s="56"/>
       <c r="L128" s="57"/>
       <c r="M128" s="402"/>
-      <c r="N128" s="533"/>
-      <c r="O128" s="528"/>
-      <c r="P128" s="529"/>
+      <c r="N128" s="627"/>
+      <c r="O128" s="594"/>
+      <c r="P128" s="595"/>
       <c r="Q128" s="403"/>
       <c r="R128" s="207"/>
       <c r="S128" s="207"/>
-      <c r="T128" s="517"/>
-      <c r="U128" s="518"/>
-      <c r="V128" s="519"/>
+      <c r="T128" s="486"/>
+      <c r="U128" s="487"/>
+      <c r="V128" s="488"/>
       <c r="W128" s="403"/>
       <c r="X128" s="207"/>
       <c r="Y128" s="404"/>
@@ -8800,14 +8800,14 @@
       <c r="D129" s="75"/>
       <c r="E129" s="75"/>
       <c r="F129" s="75"/>
-      <c r="G129" s="571"/>
+      <c r="G129" s="577"/>
       <c r="H129" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="I129" s="540" t="s">
+      <c r="I129" s="461" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="541"/>
+      <c r="J129" s="462"/>
       <c r="K129" s="80"/>
       <c r="L129" s="81"/>
       <c r="M129" s="89"/>
@@ -8831,14 +8831,14 @@
       <c r="D130" s="73"/>
       <c r="E130" s="73"/>
       <c r="F130" s="74"/>
-      <c r="G130" s="570" t="s">
+      <c r="G130" s="576" t="s">
         <v>69</v>
       </c>
-      <c r="H130" s="530" t="s">
+      <c r="H130" s="579" t="s">
         <v>117</v>
       </c>
-      <c r="I130" s="531"/>
-      <c r="J130" s="532"/>
+      <c r="I130" s="470"/>
+      <c r="J130" s="560"/>
       <c r="K130" s="88"/>
       <c r="L130" s="109"/>
       <c r="M130" s="252"/>
@@ -8848,9 +8848,9 @@
       <c r="Q130" s="56"/>
       <c r="R130" s="57"/>
       <c r="S130" s="57"/>
-      <c r="T130" s="517"/>
-      <c r="U130" s="518"/>
-      <c r="V130" s="519"/>
+      <c r="T130" s="486"/>
+      <c r="U130" s="487"/>
+      <c r="V130" s="488"/>
       <c r="W130" s="56"/>
       <c r="X130" s="57"/>
       <c r="Y130" s="58"/>
@@ -8862,14 +8862,14 @@
       <c r="D131" s="250"/>
       <c r="E131" s="250"/>
       <c r="F131" s="250"/>
-      <c r="G131" s="578"/>
+      <c r="G131" s="597"/>
       <c r="H131" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="I131" s="540" t="s">
+      <c r="I131" s="461" t="s">
         <v>176</v>
       </c>
-      <c r="J131" s="541"/>
+      <c r="J131" s="462"/>
       <c r="K131" s="337"/>
       <c r="L131" s="338"/>
       <c r="M131" s="217"/>
@@ -8888,32 +8888,32 @@
     </row>
     <row r="132" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A132" s="120"/>
-      <c r="B132" s="557">
+      <c r="B132" s="483">
         <v>14</v>
       </c>
-      <c r="C132" s="557">
+      <c r="C132" s="483">
         <v>14</v>
       </c>
-      <c r="D132" s="557">
+      <c r="D132" s="483">
         <v>11</v>
       </c>
-      <c r="E132" s="583">
+      <c r="E132" s="473">
         <v>9</v>
       </c>
-      <c r="F132" s="557">
+      <c r="F132" s="483">
         <v>6</v>
       </c>
-      <c r="G132" s="573" t="s">
+      <c r="G132" s="600" t="s">
         <v>22</v>
       </c>
       <c r="H132" s="280"/>
       <c r="I132" s="281"/>
       <c r="J132" s="318"/>
-      <c r="K132" s="505" t="s">
+      <c r="K132" s="467" t="s">
         <v>123</v>
       </c>
-      <c r="L132" s="506"/>
-      <c r="M132" s="507"/>
+      <c r="L132" s="468"/>
+      <c r="M132" s="606"/>
       <c r="N132" s="53"/>
       <c r="O132" s="411"/>
       <c r="P132" s="412"/>
@@ -8929,12 +8929,12 @@
     </row>
     <row r="133" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="178"/>
-      <c r="B133" s="556"/>
-      <c r="C133" s="556"/>
-      <c r="D133" s="556"/>
-      <c r="E133" s="584"/>
-      <c r="F133" s="556"/>
-      <c r="G133" s="571"/>
+      <c r="B133" s="472"/>
+      <c r="C133" s="472"/>
+      <c r="D133" s="472"/>
+      <c r="E133" s="474"/>
+      <c r="F133" s="472"/>
+      <c r="G133" s="577"/>
       <c r="H133" s="88"/>
       <c r="I133" s="109"/>
       <c r="J133" s="64"/>
@@ -8964,57 +8964,57 @@
       <c r="A134" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B134" s="555">
+      <c r="B134" s="471">
         <v>28</v>
       </c>
-      <c r="C134" s="555">
+      <c r="C134" s="471">
         <v>28</v>
       </c>
-      <c r="D134" s="555">
+      <c r="D134" s="471">
         <v>25</v>
       </c>
-      <c r="E134" s="555">
+      <c r="E134" s="471">
         <v>23</v>
       </c>
-      <c r="F134" s="555"/>
-      <c r="G134" s="570" t="s">
+      <c r="F134" s="471"/>
+      <c r="G134" s="576" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="530" t="s">
+      <c r="H134" s="579" t="s">
         <v>98</v>
       </c>
-      <c r="I134" s="531"/>
-      <c r="J134" s="532"/>
-      <c r="K134" s="458" t="s">
+      <c r="I134" s="470"/>
+      <c r="J134" s="560"/>
+      <c r="K134" s="457" t="s">
         <v>123</v>
       </c>
-      <c r="L134" s="453"/>
+      <c r="L134" s="458"/>
       <c r="M134" s="459"/>
-      <c r="N134" s="472" t="s">
+      <c r="N134" s="454" t="s">
         <v>95</v>
       </c>
-      <c r="O134" s="473"/>
-      <c r="P134" s="473"/>
-      <c r="Q134" s="473"/>
-      <c r="R134" s="473"/>
-      <c r="S134" s="473"/>
-      <c r="T134" s="517"/>
-      <c r="U134" s="518"/>
-      <c r="V134" s="519"/>
-      <c r="W134" s="458"/>
-      <c r="X134" s="453"/>
-      <c r="Y134" s="454"/>
+      <c r="O134" s="455"/>
+      <c r="P134" s="455"/>
+      <c r="Q134" s="455"/>
+      <c r="R134" s="455"/>
+      <c r="S134" s="455"/>
+      <c r="T134" s="486"/>
+      <c r="U134" s="487"/>
+      <c r="V134" s="488"/>
+      <c r="W134" s="457"/>
+      <c r="X134" s="458"/>
+      <c r="Y134" s="485"/>
     </row>
     <row r="135" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="556"/>
-      <c r="C135" s="556"/>
-      <c r="D135" s="556"/>
-      <c r="E135" s="556"/>
-      <c r="F135" s="556"/>
-      <c r="G135" s="571"/>
+      <c r="B135" s="472"/>
+      <c r="C135" s="472"/>
+      <c r="D135" s="472"/>
+      <c r="E135" s="472"/>
+      <c r="F135" s="472"/>
+      <c r="G135" s="577"/>
       <c r="H135" s="184" t="s">
         <v>72</v>
       </c>
@@ -9027,16 +9027,16 @@
       <c r="K135" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="L135" s="489" t="s">
+      <c r="L135" s="580" t="s">
         <v>52</v>
       </c>
-      <c r="M135" s="490"/>
+      <c r="M135" s="582"/>
       <c r="N135" s="68" t="s">
         <v>42</v>
       </c>
       <c r="O135" s="40"/>
-      <c r="P135" s="492"/>
-      <c r="Q135" s="492"/>
+      <c r="P135" s="479"/>
+      <c r="Q135" s="479"/>
       <c r="R135" s="83" t="s">
         <v>43</v>
       </c>
@@ -9054,35 +9054,35 @@
       <c r="A136" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="555"/>
-      <c r="C136" s="555"/>
-      <c r="D136" s="555"/>
-      <c r="E136" s="555"/>
-      <c r="F136" s="555"/>
-      <c r="G136" s="570" t="s">
+      <c r="B136" s="471"/>
+      <c r="C136" s="471"/>
+      <c r="D136" s="471"/>
+      <c r="E136" s="471"/>
+      <c r="F136" s="471"/>
+      <c r="G136" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="H136" s="527" t="s">
+      <c r="H136" s="593" t="s">
         <v>114</v>
       </c>
-      <c r="I136" s="528"/>
-      <c r="J136" s="529"/>
+      <c r="I136" s="594"/>
+      <c r="J136" s="595"/>
       <c r="K136" s="359"/>
       <c r="L136" s="61"/>
       <c r="M136" s="62"/>
-      <c r="N136" s="458" t="s">
+      <c r="N136" s="457" t="s">
         <v>95</v>
       </c>
-      <c r="O136" s="453"/>
+      <c r="O136" s="458"/>
       <c r="P136" s="459"/>
-      <c r="Q136" s="458" t="s">
+      <c r="Q136" s="457" t="s">
         <v>99</v>
       </c>
-      <c r="R136" s="453"/>
-      <c r="S136" s="453"/>
-      <c r="T136" s="517"/>
-      <c r="U136" s="518"/>
-      <c r="V136" s="519"/>
+      <c r="R136" s="458"/>
+      <c r="S136" s="458"/>
+      <c r="T136" s="486"/>
+      <c r="U136" s="487"/>
+      <c r="V136" s="488"/>
       <c r="W136" s="419" t="s">
         <v>177</v>
       </c>
@@ -9095,12 +9095,12 @@
       <c r="A137" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="556"/>
-      <c r="C137" s="556"/>
-      <c r="D137" s="556"/>
-      <c r="E137" s="556"/>
-      <c r="F137" s="556"/>
-      <c r="G137" s="571"/>
+      <c r="B137" s="472"/>
+      <c r="C137" s="472"/>
+      <c r="D137" s="472"/>
+      <c r="E137" s="472"/>
+      <c r="F137" s="472"/>
+      <c r="G137" s="577"/>
       <c r="H137" s="131" t="s">
         <v>111</v>
       </c>
@@ -9157,37 +9157,37 @@
       <c r="D138" s="73"/>
       <c r="E138" s="73"/>
       <c r="F138" s="74"/>
-      <c r="G138" s="570" t="s">
+      <c r="G138" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="H138" s="527" t="s">
+      <c r="H138" s="593" t="s">
         <v>114</v>
       </c>
-      <c r="I138" s="528"/>
-      <c r="J138" s="529"/>
+      <c r="I138" s="594"/>
+      <c r="J138" s="595"/>
       <c r="K138" s="249"/>
       <c r="L138" s="4"/>
       <c r="M138" s="64"/>
-      <c r="N138" s="458" t="s">
+      <c r="N138" s="457" t="s">
         <v>38</v>
       </c>
-      <c r="O138" s="453"/>
+      <c r="O138" s="458"/>
       <c r="P138" s="459"/>
-      <c r="Q138" s="458" t="s">
+      <c r="Q138" s="457" t="s">
         <v>99</v>
       </c>
-      <c r="R138" s="453"/>
-      <c r="S138" s="453"/>
-      <c r="T138" s="627"/>
-      <c r="U138" s="525"/>
-      <c r="V138" s="526"/>
+      <c r="R138" s="458"/>
+      <c r="S138" s="458"/>
+      <c r="T138" s="543"/>
+      <c r="U138" s="544"/>
+      <c r="V138" s="545"/>
       <c r="W138" s="421" t="s">
         <v>182</v>
       </c>
-      <c r="X138" s="626" t="s">
+      <c r="X138" s="542" t="s">
         <v>183</v>
       </c>
-      <c r="Y138" s="457"/>
+      <c r="Y138" s="513"/>
     </row>
     <row r="139" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="137" t="s">
@@ -9198,7 +9198,7 @@
       <c r="D139" s="75"/>
       <c r="E139" s="75"/>
       <c r="F139" s="75"/>
-      <c r="G139" s="571"/>
+      <c r="G139" s="577"/>
       <c r="H139" s="131" t="s">
         <v>111</v>
       </c>
@@ -9234,11 +9234,11 @@
       </c>
       <c r="U139" s="205"/>
       <c r="V139" s="418"/>
-      <c r="W139" s="491" t="s">
+      <c r="W139" s="478" t="s">
         <v>184</v>
       </c>
-      <c r="X139" s="492"/>
-      <c r="Y139" s="613"/>
+      <c r="X139" s="479"/>
+      <c r="Y139" s="514"/>
     </row>
     <row r="140" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="137" t="s">
@@ -9249,33 +9249,33 @@
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
       <c r="F140" s="74"/>
-      <c r="G140" s="570" t="s">
+      <c r="G140" s="576" t="s">
         <v>59</v>
       </c>
-      <c r="H140" s="547"/>
-      <c r="I140" s="531"/>
-      <c r="J140" s="532"/>
+      <c r="H140" s="469"/>
+      <c r="I140" s="470"/>
+      <c r="J140" s="560"/>
       <c r="K140" s="249"/>
       <c r="L140" s="249"/>
       <c r="M140" s="292"/>
-      <c r="N140" s="472" t="s">
+      <c r="N140" s="454" t="s">
         <v>185</v>
       </c>
-      <c r="O140" s="473"/>
-      <c r="P140" s="473"/>
-      <c r="Q140" s="473"/>
-      <c r="R140" s="473"/>
-      <c r="S140" s="473"/>
-      <c r="T140" s="469" t="s">
+      <c r="O140" s="455"/>
+      <c r="P140" s="455"/>
+      <c r="Q140" s="455"/>
+      <c r="R140" s="455"/>
+      <c r="S140" s="455"/>
+      <c r="T140" s="507" t="s">
         <v>147</v>
       </c>
-      <c r="U140" s="470"/>
-      <c r="V140" s="471"/>
-      <c r="W140" s="458" t="s">
+      <c r="U140" s="508"/>
+      <c r="V140" s="509"/>
+      <c r="W140" s="457" t="s">
         <v>186</v>
       </c>
-      <c r="X140" s="453"/>
-      <c r="Y140" s="454"/>
+      <c r="X140" s="458"/>
+      <c r="Y140" s="485"/>
     </row>
     <row r="141" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="137"/>
@@ -9284,7 +9284,7 @@
       <c r="D141" s="75"/>
       <c r="E141" s="75"/>
       <c r="F141" s="75"/>
-      <c r="G141" s="571"/>
+      <c r="G141" s="577"/>
       <c r="H141" s="68"/>
       <c r="I141" s="40"/>
       <c r="J141" s="89"/>
@@ -9295,8 +9295,8 @@
         <v>187</v>
       </c>
       <c r="O141" s="228"/>
-      <c r="P141" s="487"/>
-      <c r="Q141" s="487"/>
+      <c r="P141" s="622"/>
+      <c r="Q141" s="622"/>
       <c r="R141" s="93" t="s">
         <v>97</v>
       </c>
@@ -9329,12 +9329,12 @@
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
       <c r="F142" s="74"/>
-      <c r="G142" s="570" t="s">
+      <c r="G142" s="576" t="s">
         <v>69</v>
       </c>
-      <c r="H142" s="534"/>
-      <c r="I142" s="535"/>
-      <c r="J142" s="536"/>
+      <c r="H142" s="628"/>
+      <c r="I142" s="562"/>
+      <c r="J142" s="563"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -9344,11 +9344,11 @@
       <c r="Q142" s="50"/>
       <c r="R142" s="51"/>
       <c r="S142" s="51"/>
-      <c r="T142" s="469" t="s">
+      <c r="T142" s="507" t="s">
         <v>147</v>
       </c>
-      <c r="U142" s="470"/>
-      <c r="V142" s="471"/>
+      <c r="U142" s="508"/>
+      <c r="V142" s="509"/>
       <c r="W142" s="50"/>
       <c r="X142" s="51"/>
       <c r="Y142" s="159"/>
@@ -9360,7 +9360,7 @@
       <c r="D143" s="250"/>
       <c r="E143" s="250"/>
       <c r="F143" s="250"/>
-      <c r="G143" s="578"/>
+      <c r="G143" s="597"/>
       <c r="H143" s="218"/>
       <c r="I143" s="119"/>
       <c r="J143" s="424"/>
@@ -9388,53 +9388,53 @@
     </row>
     <row r="144" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A144" s="120"/>
-      <c r="B144" s="557">
+      <c r="B144" s="483">
         <v>15</v>
       </c>
-      <c r="C144" s="557">
+      <c r="C144" s="483">
         <v>1</v>
       </c>
-      <c r="D144" s="557">
+      <c r="D144" s="483">
         <v>12</v>
       </c>
-      <c r="E144" s="583">
+      <c r="E144" s="473">
         <v>10</v>
       </c>
-      <c r="F144" s="557">
+      <c r="F144" s="483">
         <v>7</v>
       </c>
-      <c r="G144" s="573" t="s">
+      <c r="G144" s="600" t="s">
         <v>22</v>
       </c>
-      <c r="H144" s="577"/>
-      <c r="I144" s="506"/>
-      <c r="J144" s="507"/>
+      <c r="H144" s="609"/>
+      <c r="I144" s="468"/>
+      <c r="J144" s="606"/>
       <c r="K144" s="280"/>
       <c r="L144" s="281"/>
       <c r="M144" s="281"/>
-      <c r="N144" s="505" t="s">
+      <c r="N144" s="467" t="s">
         <v>188</v>
       </c>
-      <c r="O144" s="506"/>
-      <c r="P144" s="507"/>
+      <c r="O144" s="468"/>
+      <c r="P144" s="606"/>
       <c r="Q144" s="125"/>
       <c r="R144" s="123"/>
       <c r="S144" s="123"/>
-      <c r="T144" s="623"/>
-      <c r="U144" s="624"/>
-      <c r="V144" s="625"/>
+      <c r="T144" s="539"/>
+      <c r="U144" s="540"/>
+      <c r="V144" s="541"/>
       <c r="W144" s="125"/>
       <c r="X144" s="123"/>
       <c r="Y144" s="127"/>
     </row>
     <row r="145" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="178"/>
-      <c r="B145" s="556"/>
-      <c r="C145" s="556"/>
-      <c r="D145" s="556"/>
-      <c r="E145" s="584"/>
-      <c r="F145" s="556"/>
-      <c r="G145" s="571"/>
+      <c r="B145" s="472"/>
+      <c r="C145" s="472"/>
+      <c r="D145" s="472"/>
+      <c r="E145" s="474"/>
+      <c r="F145" s="472"/>
+      <c r="G145" s="577"/>
       <c r="H145" s="427"/>
       <c r="I145" s="134"/>
       <c r="J145" s="163"/>
@@ -9464,36 +9464,36 @@
       <c r="A146" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="555"/>
-      <c r="C146" s="555">
+      <c r="B146" s="471"/>
+      <c r="C146" s="471">
         <v>15</v>
       </c>
-      <c r="D146" s="555">
+      <c r="D146" s="471">
         <v>26</v>
       </c>
-      <c r="E146" s="555">
+      <c r="E146" s="471">
         <v>24</v>
       </c>
-      <c r="F146" s="555"/>
-      <c r="G146" s="570" t="s">
+      <c r="F146" s="471"/>
+      <c r="G146" s="576" t="s">
         <v>25</v>
       </c>
-      <c r="H146" s="523"/>
-      <c r="I146" s="453"/>
+      <c r="H146" s="625"/>
+      <c r="I146" s="458"/>
       <c r="J146" s="459"/>
-      <c r="N146" s="458" t="s">
+      <c r="N146" s="457" t="s">
         <v>188</v>
       </c>
-      <c r="O146" s="453"/>
+      <c r="O146" s="458"/>
       <c r="P146" s="459"/>
       <c r="Q146" s="197"/>
       <c r="R146" s="54"/>
       <c r="S146" s="54"/>
-      <c r="T146" s="561" t="s">
+      <c r="T146" s="521" t="s">
         <v>190</v>
       </c>
-      <c r="U146" s="562"/>
-      <c r="V146" s="563"/>
+      <c r="U146" s="522"/>
+      <c r="V146" s="523"/>
       <c r="W146" s="197"/>
       <c r="X146" s="54"/>
       <c r="Y146" s="401"/>
@@ -9502,12 +9502,12 @@
       <c r="A147" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="556"/>
-      <c r="C147" s="556"/>
-      <c r="D147" s="556"/>
-      <c r="E147" s="556"/>
-      <c r="F147" s="556"/>
-      <c r="G147" s="571"/>
+      <c r="B147" s="472"/>
+      <c r="C147" s="472"/>
+      <c r="D147" s="472"/>
+      <c r="E147" s="472"/>
+      <c r="F147" s="472"/>
+      <c r="G147" s="577"/>
       <c r="H147" s="428"/>
       <c r="I147" s="93"/>
       <c r="J147" s="132"/>
@@ -9534,45 +9534,45 @@
       <c r="A148" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="555"/>
-      <c r="C148" s="555">
+      <c r="B148" s="471"/>
+      <c r="C148" s="471">
         <v>29</v>
       </c>
-      <c r="D148" s="555"/>
-      <c r="E148" s="555"/>
-      <c r="F148" s="555"/>
-      <c r="G148" s="570" t="s">
+      <c r="D148" s="471"/>
+      <c r="E148" s="471"/>
+      <c r="F148" s="471"/>
+      <c r="G148" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="H148" s="574"/>
-      <c r="I148" s="575"/>
-      <c r="J148" s="576"/>
-      <c r="K148" s="458"/>
-      <c r="L148" s="453"/>
-      <c r="M148" s="453"/>
-      <c r="N148" s="458"/>
-      <c r="O148" s="453"/>
-      <c r="P148" s="453"/>
-      <c r="Q148" s="512"/>
-      <c r="R148" s="465"/>
-      <c r="S148" s="465"/>
-      <c r="T148" s="561"/>
-      <c r="U148" s="562"/>
-      <c r="V148" s="563"/>
-      <c r="W148" s="512"/>
-      <c r="X148" s="465"/>
-      <c r="Y148" s="466"/>
+      <c r="H148" s="607"/>
+      <c r="I148" s="491"/>
+      <c r="J148" s="608"/>
+      <c r="K148" s="457"/>
+      <c r="L148" s="458"/>
+      <c r="M148" s="458"/>
+      <c r="N148" s="457"/>
+      <c r="O148" s="458"/>
+      <c r="P148" s="458"/>
+      <c r="Q148" s="524"/>
+      <c r="R148" s="525"/>
+      <c r="S148" s="525"/>
+      <c r="T148" s="521"/>
+      <c r="U148" s="522"/>
+      <c r="V148" s="523"/>
+      <c r="W148" s="524"/>
+      <c r="X148" s="525"/>
+      <c r="Y148" s="526"/>
     </row>
     <row r="149" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B149" s="556"/>
-      <c r="C149" s="556"/>
-      <c r="D149" s="556"/>
-      <c r="E149" s="556"/>
-      <c r="F149" s="556"/>
-      <c r="G149" s="571"/>
+      <c r="B149" s="472"/>
+      <c r="C149" s="472"/>
+      <c r="D149" s="472"/>
+      <c r="E149" s="472"/>
+      <c r="F149" s="472"/>
+      <c r="G149" s="577"/>
       <c r="H149" s="143"/>
       <c r="I149" s="87"/>
       <c r="J149" s="64"/>
@@ -9582,9 +9582,9 @@
       <c r="N149" s="68"/>
       <c r="O149" s="93"/>
       <c r="P149" s="93"/>
-      <c r="Q149" s="513"/>
-      <c r="R149" s="467"/>
-      <c r="S149" s="467"/>
+      <c r="Q149" s="527"/>
+      <c r="R149" s="528"/>
+      <c r="S149" s="528"/>
       <c r="T149" s="361" t="s">
         <v>191</v>
       </c>
@@ -9594,9 +9594,9 @@
       <c r="V149" s="432" t="s">
         <v>54</v>
       </c>
-      <c r="W149" s="513"/>
-      <c r="X149" s="467"/>
-      <c r="Y149" s="468"/>
+      <c r="W149" s="527"/>
+      <c r="X149" s="528"/>
+      <c r="Y149" s="529"/>
     </row>
     <row r="150" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="137" t="s">
@@ -9607,7 +9607,7 @@
       <c r="D150" s="191"/>
       <c r="E150" s="191"/>
       <c r="F150" s="191"/>
-      <c r="G150" s="579" t="s">
+      <c r="G150" s="598" t="s">
         <v>47</v>
       </c>
       <c r="H150" s="433"/>
@@ -9619,15 +9619,15 @@
       <c r="N150" s="150"/>
       <c r="O150" s="150"/>
       <c r="P150" s="151"/>
-      <c r="Q150" s="512"/>
-      <c r="R150" s="465"/>
-      <c r="S150" s="465"/>
+      <c r="Q150" s="524"/>
+      <c r="R150" s="525"/>
+      <c r="S150" s="525"/>
       <c r="T150" s="435"/>
       <c r="U150" s="436"/>
       <c r="V150" s="437"/>
-      <c r="W150" s="512"/>
-      <c r="X150" s="465"/>
-      <c r="Y150" s="466"/>
+      <c r="W150" s="524"/>
+      <c r="X150" s="525"/>
+      <c r="Y150" s="526"/>
     </row>
     <row r="151" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="137" t="s">
@@ -9638,7 +9638,7 @@
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
       <c r="F151" s="38"/>
-      <c r="G151" s="580"/>
+      <c r="G151" s="599"/>
       <c r="H151" s="131"/>
       <c r="I151" s="40"/>
       <c r="J151" s="84"/>
@@ -9648,15 +9648,15 @@
       <c r="N151" s="77"/>
       <c r="O151" s="77"/>
       <c r="P151" s="132"/>
-      <c r="Q151" s="513"/>
-      <c r="R151" s="467"/>
-      <c r="S151" s="467"/>
+      <c r="Q151" s="527"/>
+      <c r="R151" s="528"/>
+      <c r="S151" s="528"/>
       <c r="T151" s="361"/>
       <c r="U151" s="190"/>
       <c r="V151" s="432"/>
-      <c r="W151" s="513"/>
-      <c r="X151" s="467"/>
-      <c r="Y151" s="468"/>
+      <c r="W151" s="527"/>
+      <c r="X151" s="528"/>
+      <c r="Y151" s="529"/>
     </row>
     <row r="152" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="137" t="s">
@@ -9667,27 +9667,27 @@
       <c r="D152" s="74"/>
       <c r="E152" s="74"/>
       <c r="F152" s="74"/>
-      <c r="G152" s="570" t="s">
+      <c r="G152" s="576" t="s">
         <v>59</v>
       </c>
       <c r="H152" s="56"/>
       <c r="I152" s="57"/>
       <c r="J152" s="57"/>
-      <c r="K152" s="458"/>
-      <c r="L152" s="453"/>
-      <c r="M152" s="453"/>
-      <c r="N152" s="475"/>
-      <c r="O152" s="476"/>
-      <c r="P152" s="508"/>
-      <c r="Q152" s="475"/>
-      <c r="R152" s="476"/>
-      <c r="S152" s="476"/>
+      <c r="K152" s="457"/>
+      <c r="L152" s="458"/>
+      <c r="M152" s="458"/>
+      <c r="N152" s="515"/>
+      <c r="O152" s="516"/>
+      <c r="P152" s="583"/>
+      <c r="Q152" s="515"/>
+      <c r="R152" s="516"/>
+      <c r="S152" s="516"/>
       <c r="T152" s="438"/>
       <c r="U152" s="392"/>
       <c r="V152" s="392"/>
-      <c r="W152" s="475"/>
-      <c r="X152" s="476"/>
-      <c r="Y152" s="477"/>
+      <c r="W152" s="515"/>
+      <c r="X152" s="516"/>
+      <c r="Y152" s="517"/>
     </row>
     <row r="153" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="137"/>
@@ -9696,25 +9696,25 @@
       <c r="D153" s="75"/>
       <c r="E153" s="75"/>
       <c r="F153" s="75"/>
-      <c r="G153" s="571"/>
+      <c r="G153" s="577"/>
       <c r="H153" s="99"/>
       <c r="I153" s="83"/>
       <c r="J153" s="439"/>
       <c r="K153" s="68"/>
       <c r="L153" s="93"/>
       <c r="M153" s="93"/>
-      <c r="N153" s="514"/>
-      <c r="O153" s="515"/>
-      <c r="P153" s="516"/>
-      <c r="Q153" s="514"/>
-      <c r="R153" s="515"/>
-      <c r="S153" s="515"/>
+      <c r="N153" s="530"/>
+      <c r="O153" s="531"/>
+      <c r="P153" s="584"/>
+      <c r="Q153" s="530"/>
+      <c r="R153" s="531"/>
+      <c r="S153" s="531"/>
       <c r="T153" s="438"/>
       <c r="U153" s="392"/>
       <c r="V153" s="392"/>
-      <c r="W153" s="514"/>
-      <c r="X153" s="515"/>
-      <c r="Y153" s="617"/>
+      <c r="W153" s="530"/>
+      <c r="X153" s="531"/>
+      <c r="Y153" s="532"/>
     </row>
     <row r="154" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="137"/>
@@ -9723,7 +9723,7 @@
       <c r="D154" s="73"/>
       <c r="E154" s="73"/>
       <c r="F154" s="74"/>
-      <c r="G154" s="570" t="s">
+      <c r="G154" s="576" t="s">
         <v>69</v>
       </c>
       <c r="H154" s="286"/>
@@ -9732,18 +9732,18 @@
       <c r="K154" s="381"/>
       <c r="L154" s="249"/>
       <c r="M154" s="249"/>
-      <c r="N154" s="475"/>
-      <c r="O154" s="476"/>
-      <c r="P154" s="508"/>
-      <c r="Q154" s="475"/>
-      <c r="R154" s="476"/>
-      <c r="S154" s="476"/>
+      <c r="N154" s="515"/>
+      <c r="O154" s="516"/>
+      <c r="P154" s="583"/>
+      <c r="Q154" s="515"/>
+      <c r="R154" s="516"/>
+      <c r="S154" s="516"/>
       <c r="T154" s="440"/>
       <c r="U154" s="441"/>
       <c r="V154" s="442"/>
-      <c r="W154" s="475"/>
-      <c r="X154" s="476"/>
-      <c r="Y154" s="477"/>
+      <c r="W154" s="515"/>
+      <c r="X154" s="516"/>
+      <c r="Y154" s="517"/>
     </row>
     <row r="155" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="160"/>
@@ -9752,25 +9752,25 @@
       <c r="D155" s="250"/>
       <c r="E155" s="250"/>
       <c r="F155" s="250"/>
-      <c r="G155" s="578"/>
+      <c r="G155" s="597"/>
       <c r="H155" s="218"/>
       <c r="I155" s="119"/>
       <c r="J155" s="253"/>
       <c r="K155" s="167"/>
       <c r="L155" s="168"/>
       <c r="M155" s="168"/>
-      <c r="N155" s="509"/>
-      <c r="O155" s="510"/>
-      <c r="P155" s="511"/>
-      <c r="Q155" s="509"/>
-      <c r="R155" s="510"/>
-      <c r="S155" s="510"/>
+      <c r="N155" s="518"/>
+      <c r="O155" s="519"/>
+      <c r="P155" s="632"/>
+      <c r="Q155" s="518"/>
+      <c r="R155" s="519"/>
+      <c r="S155" s="519"/>
       <c r="T155" s="443"/>
       <c r="U155" s="444"/>
       <c r="V155" s="445"/>
-      <c r="W155" s="509"/>
-      <c r="X155" s="510"/>
-      <c r="Y155" s="616"/>
+      <c r="W155" s="518"/>
+      <c r="X155" s="519"/>
+      <c r="Y155" s="520"/>
     </row>
     <row r="156" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A156" s="446"/>
@@ -10478,54 +10478,435 @@
     </row>
   </sheetData>
   <mergeCells count="526">
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W16:Y17"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="W56:Y57"/>
+    <mergeCell ref="N136:P136"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N63:S63"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="W116:Y117"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W98:Y98"/>
+    <mergeCell ref="W100:Y100"/>
+    <mergeCell ref="W92:Y92"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q104:S104"/>
+    <mergeCell ref="Q115:S115"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N154:P155"/>
+    <mergeCell ref="Q148:S149"/>
+    <mergeCell ref="Q150:S151"/>
+    <mergeCell ref="Q152:S153"/>
+    <mergeCell ref="Q154:S155"/>
+    <mergeCell ref="N152:P153"/>
+    <mergeCell ref="N148:P148"/>
+    <mergeCell ref="T134:V134"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="T130:V130"/>
+    <mergeCell ref="T128:V128"/>
+    <mergeCell ref="N140:S140"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="N134:S134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="N146:P146"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="Q116:S117"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="N128:P128"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="Q136:S136"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="T73:V73"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="T77:V77"/>
+    <mergeCell ref="T120:V120"/>
+    <mergeCell ref="T118:V118"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="T122:V122"/>
+    <mergeCell ref="T124:V124"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K148:M148"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="W154:Y155"/>
+    <mergeCell ref="T148:V148"/>
+    <mergeCell ref="W148:Y149"/>
+    <mergeCell ref="W150:Y151"/>
+    <mergeCell ref="W152:Y153"/>
+    <mergeCell ref="T140:V140"/>
+    <mergeCell ref="T142:V142"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="T146:V146"/>
+    <mergeCell ref="T136:V136"/>
+    <mergeCell ref="T71:V71"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="T144:V144"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="X138:Y138"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="W110:Y110"/>
+    <mergeCell ref="W112:Y112"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="T138:V138"/>
+    <mergeCell ref="W86:Y86"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="W89:Y90"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="T93:V93"/>
+    <mergeCell ref="N102:S102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="Q90:S90"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F25:F26"/>
@@ -10550,42 +10931,19 @@
     <mergeCell ref="N37:P37"/>
     <mergeCell ref="N35:S35"/>
     <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="W89:Y90"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="W154:Y155"/>
-    <mergeCell ref="T148:V148"/>
-    <mergeCell ref="W148:Y149"/>
-    <mergeCell ref="W150:Y151"/>
-    <mergeCell ref="W152:Y153"/>
-    <mergeCell ref="T140:V140"/>
-    <mergeCell ref="T142:V142"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="U64:V64"/>
-    <mergeCell ref="T146:V146"/>
-    <mergeCell ref="T136:V136"/>
-    <mergeCell ref="T71:V71"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="T144:V144"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="X138:Y138"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="W110:Y110"/>
-    <mergeCell ref="W112:Y112"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="T138:V138"/>
-    <mergeCell ref="W86:Y86"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W16:Y17"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="W27:Y27"/>
     <mergeCell ref="W37:Y37"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="T31:V31"/>
@@ -10593,360 +10951,30 @@
     <mergeCell ref="T33:V33"/>
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="W21:Y21"/>
     <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Q19:S19"/>
     <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="K148:M148"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="T122:V122"/>
-    <mergeCell ref="T124:V124"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T93:V93"/>
-    <mergeCell ref="N102:S102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="W44:Y45"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="N49:P49"/>
     <mergeCell ref="N69:S69"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="T73:V73"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="T77:V77"/>
-    <mergeCell ref="T120:V120"/>
-    <mergeCell ref="T118:V118"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="N146:P146"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="Q116:S117"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="Q136:S136"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="N154:P155"/>
-    <mergeCell ref="Q148:S149"/>
-    <mergeCell ref="Q150:S151"/>
-    <mergeCell ref="Q152:S153"/>
-    <mergeCell ref="Q154:S155"/>
-    <mergeCell ref="N152:P153"/>
-    <mergeCell ref="N148:P148"/>
-    <mergeCell ref="T134:V134"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="T130:V130"/>
-    <mergeCell ref="T128:V128"/>
-    <mergeCell ref="N140:S140"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="N134:S134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K55:M55"/>
     <mergeCell ref="N57:P57"/>
     <mergeCell ref="N55:P55"/>
     <mergeCell ref="K57:M57"/>
@@ -10960,50 +10988,22 @@
     <mergeCell ref="Q67:S67"/>
     <mergeCell ref="Q65:S65"/>
     <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q104:S104"/>
-    <mergeCell ref="Q115:S115"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="W44:Y45"/>
-    <mergeCell ref="W56:Y57"/>
-    <mergeCell ref="N136:P136"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="N63:S63"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="U112:V112"/>
-    <mergeCell ref="W116:Y117"/>
-    <mergeCell ref="U114:V114"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W73:Y73"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W98:Y98"/>
-    <mergeCell ref="W100:Y100"/>
-    <mergeCell ref="W92:Y92"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T67:V67"/>
-    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q25:S25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
